--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-02</t>
   </si>
 </sst>
 </file>
@@ -483,6 +486,9 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -507,6 +513,7 @@
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
+      <c r="Q2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -533,6 +540,7 @@
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
+      <c r="Q3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -561,6 +569,7 @@
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
+      <c r="Q4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -591,6 +600,7 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
+      <c r="Q5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -623,6 +633,7 @@
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
+      <c r="Q6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -657,6 +668,7 @@
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
+      <c r="Q7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -693,6 +705,7 @@
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
+      <c r="Q8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -731,6 +744,7 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
+      <c r="Q9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -771,6 +785,7 @@
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -813,6 +828,7 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
+      <c r="Q11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -857,6 +873,7 @@
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
+      <c r="Q12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -903,6 +920,7 @@
       </c>
       <c r="O13"/>
       <c r="P13"/>
+      <c r="Q13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -951,12 +969,15 @@
         <v>32865</v>
       </c>
       <c r="P14"/>
+      <c r="Q14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="n">
+        <v>36599</v>
+      </c>
       <c r="C15" t="n">
         <v>43225</v>
       </c>
@@ -999,6 +1020,7 @@
       <c r="P15" t="n">
         <v>36165</v>
       </c>
+      <c r="Q15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1044,6 +1066,9 @@
       </c>
       <c r="P16" t="n">
         <v>39456</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>38690</v>
       </c>
     </row>
     <row r="17">
@@ -1088,6 +1113,9 @@
       </c>
       <c r="P17" t="n">
         <v>41440</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>41351</v>
       </c>
     </row>
     <row r="18">
@@ -1130,6 +1158,9 @@
       </c>
       <c r="P18" t="n">
         <v>44261</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>44612</v>
       </c>
     </row>
     <row r="19">
@@ -1170,6 +1201,9 @@
       </c>
       <c r="P19" t="n">
         <v>47649</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>47099</v>
       </c>
     </row>
     <row r="20">
@@ -1208,6 +1242,9 @@
       </c>
       <c r="P20" t="n">
         <v>53617</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>49109</v>
       </c>
     </row>
     <row r="21">
@@ -1244,6 +1281,9 @@
       </c>
       <c r="P21" t="n">
         <v>56941</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>51377</v>
       </c>
     </row>
     <row r="22">
@@ -1278,6 +1318,9 @@
       </c>
       <c r="P22" t="n">
         <v>60075</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>54697</v>
       </c>
     </row>
     <row r="23">
@@ -1310,6 +1353,9 @@
       </c>
       <c r="P23" t="n">
         <v>63795</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>56663</v>
       </c>
     </row>
     <row r="24">
@@ -1340,6 +1386,9 @@
       </c>
       <c r="P24" t="n">
         <v>69833</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>60947</v>
       </c>
     </row>
     <row r="25">
@@ -1368,6 +1417,9 @@
       </c>
       <c r="P25" t="n">
         <v>74139</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>63232</v>
       </c>
     </row>
     <row r="26">
@@ -1394,6 +1446,9 @@
       </c>
       <c r="P26" t="n">
         <v>79797</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>66951</v>
       </c>
     </row>
     <row r="27">
@@ -1418,6 +1473,9 @@
       </c>
       <c r="P27" t="n">
         <v>88681</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>70303</v>
       </c>
     </row>
     <row r="28">
@@ -1440,6 +1498,32 @@
       <c r="O28"/>
       <c r="P28" t="n">
         <v>94670</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>73768</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29" t="n">
+        <v>76688</v>
       </c>
     </row>
   </sheetData>
@@ -1505,6 +1589,9 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1529,6 +1616,7 @@
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
+      <c r="Q2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1555,6 +1643,7 @@
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
+      <c r="Q3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1583,6 +1672,7 @@
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
+      <c r="Q4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1613,6 +1703,7 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
+      <c r="Q5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1645,6 +1736,7 @@
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
+      <c r="Q6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1679,6 +1771,7 @@
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
+      <c r="Q7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1715,6 +1808,7 @@
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
+      <c r="Q8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1753,6 +1847,7 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
+      <c r="Q9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1793,6 +1888,7 @@
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1835,6 +1931,7 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
+      <c r="Q11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1879,6 +1976,7 @@
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
+      <c r="Q12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1925,6 +2023,7 @@
       </c>
       <c r="O13"/>
       <c r="P13"/>
+      <c r="Q13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1973,12 +2072,15 @@
         <v>2158</v>
       </c>
       <c r="P14"/>
+      <c r="Q14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="n">
+        <v>2347</v>
+      </c>
       <c r="C15" t="n">
         <v>2834</v>
       </c>
@@ -2021,6 +2123,7 @@
       <c r="P15" t="n">
         <v>2379</v>
       </c>
+      <c r="Q15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2066,6 +2169,9 @@
       </c>
       <c r="P16" t="n">
         <v>2662</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2513</v>
       </c>
     </row>
     <row r="17">
@@ -2110,6 +2216,9 @@
       </c>
       <c r="P17" t="n">
         <v>2836</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2714</v>
       </c>
     </row>
     <row r="18">
@@ -2152,6 +2261,9 @@
       </c>
       <c r="P18" t="n">
         <v>3088</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2964</v>
       </c>
     </row>
     <row r="19">
@@ -2192,6 +2304,9 @@
       </c>
       <c r="P19" t="n">
         <v>3396</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3157</v>
       </c>
     </row>
     <row r="20">
@@ -2230,6 +2345,9 @@
       </c>
       <c r="P20" t="n">
         <v>3955</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3314</v>
       </c>
     </row>
     <row r="21">
@@ -2266,6 +2384,9 @@
       </c>
       <c r="P21" t="n">
         <v>4275</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3492</v>
       </c>
     </row>
     <row r="22">
@@ -2300,6 +2421,9 @@
       </c>
       <c r="P22" t="n">
         <v>4581</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3755</v>
       </c>
     </row>
     <row r="23">
@@ -2332,6 +2456,9 @@
       </c>
       <c r="P23" t="n">
         <v>4951</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3912</v>
       </c>
     </row>
     <row r="24">
@@ -2362,6 +2489,9 @@
       </c>
       <c r="P24" t="n">
         <v>5565</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4257</v>
       </c>
     </row>
     <row r="25">
@@ -2390,6 +2520,9 @@
       </c>
       <c r="P25" t="n">
         <v>6012</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4443</v>
       </c>
     </row>
     <row r="26">
@@ -2416,6 +2549,9 @@
       </c>
       <c r="P26" t="n">
         <v>6611</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4747</v>
       </c>
     </row>
     <row r="27">
@@ -2440,6 +2576,9 @@
       </c>
       <c r="P27" t="n">
         <v>7576</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5024</v>
       </c>
     </row>
     <row r="28">
@@ -2463,6 +2602,32 @@
       <c r="P28" t="n">
         <v>8244</v>
       </c>
+      <c r="Q28" t="n">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29" t="n">
+        <v>5557</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -1018,7 +1018,7 @@
         <v>35258</v>
       </c>
       <c r="P15" t="n">
-        <v>36165</v>
+        <v>35986</v>
       </c>
       <c r="Q15"/>
     </row>
@@ -1065,7 +1065,7 @@
         <v>38101</v>
       </c>
       <c r="P16" t="n">
-        <v>39456</v>
+        <v>38806</v>
       </c>
       <c r="Q16" t="n">
         <v>38690</v>
@@ -1112,7 +1112,7 @@
         <v>39747</v>
       </c>
       <c r="P17" t="n">
-        <v>41440</v>
+        <v>40430</v>
       </c>
       <c r="Q17" t="n">
         <v>41351</v>
@@ -1157,7 +1157,7 @@
         <v>42100</v>
       </c>
       <c r="P18" t="n">
-        <v>44261</v>
+        <v>42796</v>
       </c>
       <c r="Q18" t="n">
         <v>44612</v>
@@ -1200,7 +1200,7 @@
         <v>44832</v>
       </c>
       <c r="P19" t="n">
-        <v>47649</v>
+        <v>45553</v>
       </c>
       <c r="Q19" t="n">
         <v>47099</v>
@@ -1241,7 +1241,7 @@
         <v>49236</v>
       </c>
       <c r="P20" t="n">
-        <v>53617</v>
+        <v>49995</v>
       </c>
       <c r="Q20" t="n">
         <v>49109</v>
@@ -1280,7 +1280,7 @@
         <v>51506</v>
       </c>
       <c r="P21" t="n">
-        <v>56941</v>
+        <v>52238</v>
       </c>
       <c r="Q21" t="n">
         <v>51377</v>
@@ -1317,7 +1317,7 @@
         <v>53577</v>
       </c>
       <c r="P22" t="n">
-        <v>60075</v>
+        <v>54328</v>
       </c>
       <c r="Q22" t="n">
         <v>54697</v>
@@ -1352,7 +1352,7 @@
         <v>55911</v>
       </c>
       <c r="P23" t="n">
-        <v>63795</v>
+        <v>56728</v>
       </c>
       <c r="Q23" t="n">
         <v>56663</v>
@@ -1385,7 +1385,7 @@
         <v>59840</v>
       </c>
       <c r="P24" t="n">
-        <v>69833</v>
+        <v>60698</v>
       </c>
       <c r="Q24" t="n">
         <v>60947</v>
@@ -1416,7 +1416,7 @@
         <v>62447</v>
       </c>
       <c r="P25" t="n">
-        <v>74139</v>
+        <v>63272</v>
       </c>
       <c r="Q25" t="n">
         <v>63232</v>
@@ -1445,7 +1445,7 @@
         <v>65893</v>
       </c>
       <c r="P26" t="n">
-        <v>79797</v>
+        <v>66716</v>
       </c>
       <c r="Q26" t="n">
         <v>66951</v>
@@ -1472,7 +1472,7 @@
         <v>71198</v>
       </c>
       <c r="P27" t="n">
-        <v>88681</v>
+        <v>72022</v>
       </c>
       <c r="Q27" t="n">
         <v>70303</v>
@@ -1497,7 +1497,7 @@
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>94670</v>
+        <v>75128</v>
       </c>
       <c r="Q28" t="n">
         <v>73768</v>
@@ -2121,7 +2121,7 @@
         <v>2384</v>
       </c>
       <c r="P15" t="n">
-        <v>2379</v>
+        <v>2363</v>
       </c>
       <c r="Q15"/>
     </row>
@@ -2168,7 +2168,7 @@
         <v>2661</v>
       </c>
       <c r="P16" t="n">
-        <v>2662</v>
+        <v>2605</v>
       </c>
       <c r="Q16" t="n">
         <v>2513</v>
@@ -2215,7 +2215,7 @@
         <v>2825</v>
       </c>
       <c r="P17" t="n">
-        <v>2836</v>
+        <v>2747</v>
       </c>
       <c r="Q17" t="n">
         <v>2714</v>
@@ -2260,7 +2260,7 @@
         <v>3065</v>
       </c>
       <c r="P18" t="n">
-        <v>3088</v>
+        <v>2956</v>
       </c>
       <c r="Q18" t="n">
         <v>2964</v>
@@ -2303,7 +2303,7 @@
         <v>3350</v>
       </c>
       <c r="P19" t="n">
-        <v>3396</v>
+        <v>3205</v>
       </c>
       <c r="Q19" t="n">
         <v>3157</v>
@@ -2344,7 +2344,7 @@
         <v>3826</v>
       </c>
       <c r="P20" t="n">
-        <v>3955</v>
+        <v>3614</v>
       </c>
       <c r="Q20" t="n">
         <v>3314</v>
@@ -2383,7 +2383,7 @@
         <v>4078</v>
       </c>
       <c r="P21" t="n">
-        <v>4275</v>
+        <v>3825</v>
       </c>
       <c r="Q21" t="n">
         <v>3492</v>
@@ -2420,7 +2420,7 @@
         <v>4312</v>
       </c>
       <c r="P22" t="n">
-        <v>4581</v>
+        <v>4023</v>
       </c>
       <c r="Q22" t="n">
         <v>3755</v>
@@ -2455,7 +2455,7 @@
         <v>4580</v>
       </c>
       <c r="P23" t="n">
-        <v>4951</v>
+        <v>4254</v>
       </c>
       <c r="Q23" t="n">
         <v>3912</v>
@@ -2488,7 +2488,7 @@
         <v>5043</v>
       </c>
       <c r="P24" t="n">
-        <v>5565</v>
+        <v>4643</v>
       </c>
       <c r="Q24" t="n">
         <v>4257</v>
@@ -2519,7 +2519,7 @@
         <v>5357</v>
       </c>
       <c r="P25" t="n">
-        <v>6012</v>
+        <v>4899</v>
       </c>
       <c r="Q25" t="n">
         <v>4443</v>
@@ -2548,7 +2548,7 @@
         <v>5780</v>
       </c>
       <c r="P26" t="n">
-        <v>6611</v>
+        <v>5246</v>
       </c>
       <c r="Q26" t="n">
         <v>4747</v>
@@ -2575,7 +2575,7 @@
         <v>6450</v>
       </c>
       <c r="P27" t="n">
-        <v>7576</v>
+        <v>5791</v>
       </c>
       <c r="Q27" t="n">
         <v>5024</v>
@@ -2600,7 +2600,7 @@
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>8244</v>
+        <v>6115</v>
       </c>
       <c r="Q28" t="n">
         <v>5312</v>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-03</t>
   </si>
 </sst>
 </file>
@@ -489,6 +492,9 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -514,6 +520,7 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
+      <c r="R2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -541,6 +548,7 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
+      <c r="R3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -570,6 +578,7 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
+      <c r="R4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -601,6 +610,7 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
+      <c r="R5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -634,6 +644,7 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
+      <c r="R6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -669,6 +680,7 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
+      <c r="R7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -706,6 +718,7 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
+      <c r="R8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -745,6 +758,7 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
+      <c r="R9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -786,6 +800,7 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
+      <c r="R10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -829,6 +844,7 @@
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
+      <c r="R11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -874,6 +890,7 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
+      <c r="R12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -921,6 +938,7 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
+      <c r="R13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -970,6 +988,7 @@
       </c>
       <c r="P14"/>
       <c r="Q14"/>
+      <c r="R14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1021,12 +1040,15 @@
         <v>35986</v>
       </c>
       <c r="Q15"/>
+      <c r="R15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="n">
+        <v>38654</v>
+      </c>
       <c r="C16"/>
       <c r="D16" t="n">
         <v>45046</v>
@@ -1070,6 +1092,7 @@
       <c r="Q16" t="n">
         <v>38690</v>
       </c>
+      <c r="R16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1116,6 +1139,9 @@
       </c>
       <c r="Q17" t="n">
         <v>41351</v>
+      </c>
+      <c r="R17" t="n">
+        <v>40773</v>
       </c>
     </row>
     <row r="18">
@@ -1161,6 +1187,9 @@
       </c>
       <c r="Q18" t="n">
         <v>44612</v>
+      </c>
+      <c r="R18" t="n">
+        <v>43293</v>
       </c>
     </row>
     <row r="19">
@@ -1204,6 +1233,9 @@
       </c>
       <c r="Q19" t="n">
         <v>47099</v>
+      </c>
+      <c r="R19" t="n">
+        <v>46094</v>
       </c>
     </row>
     <row r="20">
@@ -1245,6 +1277,9 @@
       </c>
       <c r="Q20" t="n">
         <v>49109</v>
+      </c>
+      <c r="R20" t="n">
+        <v>50164</v>
       </c>
     </row>
     <row r="21">
@@ -1284,6 +1319,9 @@
       </c>
       <c r="Q21" t="n">
         <v>51377</v>
+      </c>
+      <c r="R21" t="n">
+        <v>52775</v>
       </c>
     </row>
     <row r="22">
@@ -1321,6 +1359,9 @@
       </c>
       <c r="Q22" t="n">
         <v>54697</v>
+      </c>
+      <c r="R22" t="n">
+        <v>55227</v>
       </c>
     </row>
     <row r="23">
@@ -1356,6 +1397,9 @@
       </c>
       <c r="Q23" t="n">
         <v>56663</v>
+      </c>
+      <c r="R23" t="n">
+        <v>57814</v>
       </c>
     </row>
     <row r="24">
@@ -1389,6 +1433,9 @@
       </c>
       <c r="Q24" t="n">
         <v>60947</v>
+      </c>
+      <c r="R24" t="n">
+        <v>61654</v>
       </c>
     </row>
     <row r="25">
@@ -1420,6 +1467,9 @@
       </c>
       <c r="Q25" t="n">
         <v>63232</v>
+      </c>
+      <c r="R25" t="n">
+        <v>64600</v>
       </c>
     </row>
     <row r="26">
@@ -1449,6 +1499,9 @@
       </c>
       <c r="Q26" t="n">
         <v>66951</v>
+      </c>
+      <c r="R26" t="n">
+        <v>68194</v>
       </c>
     </row>
     <row r="27">
@@ -1476,6 +1529,9 @@
       </c>
       <c r="Q27" t="n">
         <v>70303</v>
+      </c>
+      <c r="R27" t="n">
+        <v>73274</v>
       </c>
     </row>
     <row r="28">
@@ -1501,6 +1557,9 @@
       </c>
       <c r="Q28" t="n">
         <v>73768</v>
+      </c>
+      <c r="R28" t="n">
+        <v>76953</v>
       </c>
     </row>
     <row r="29">
@@ -1525,6 +1584,33 @@
       <c r="Q29" t="n">
         <v>76688</v>
       </c>
+      <c r="R29" t="n">
+        <v>82068</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30" t="n">
+        <v>84693</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1592,6 +1678,9 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1617,6 +1706,7 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
+      <c r="R2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1644,6 +1734,7 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
+      <c r="R3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1673,6 +1764,7 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
+      <c r="R4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1704,6 +1796,7 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
+      <c r="R5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1737,6 +1830,7 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
+      <c r="R6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1772,6 +1866,7 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
+      <c r="R7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1809,6 +1904,7 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
+      <c r="R8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1848,6 +1944,7 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
+      <c r="R9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1889,6 +1986,7 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
+      <c r="R10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1932,6 +2030,7 @@
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
+      <c r="R11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1977,6 +2076,7 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
+      <c r="R12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2024,6 +2124,7 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
+      <c r="R13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2073,13 +2174,14 @@
       </c>
       <c r="P14"/>
       <c r="Q14"/>
+      <c r="R14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>2347</v>
+        <v>2352</v>
       </c>
       <c r="C15" t="n">
         <v>2834</v>
@@ -2124,12 +2226,15 @@
         <v>2363</v>
       </c>
       <c r="Q15"/>
+      <c r="R15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="n">
+        <v>2462</v>
+      </c>
       <c r="C16"/>
       <c r="D16" t="n">
         <v>3580</v>
@@ -2173,6 +2278,7 @@
       <c r="Q16" t="n">
         <v>2513</v>
       </c>
+      <c r="R16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2219,6 +2325,9 @@
       </c>
       <c r="Q17" t="n">
         <v>2714</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2639</v>
       </c>
     </row>
     <row r="18">
@@ -2264,6 +2373,9 @@
       </c>
       <c r="Q18" t="n">
         <v>2964</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2822</v>
       </c>
     </row>
     <row r="19">
@@ -2307,6 +2419,9 @@
       </c>
       <c r="Q19" t="n">
         <v>3157</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3026</v>
       </c>
     </row>
     <row r="20">
@@ -2348,6 +2463,9 @@
       </c>
       <c r="Q20" t="n">
         <v>3314</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3326</v>
       </c>
     </row>
     <row r="21">
@@ -2387,6 +2505,9 @@
       </c>
       <c r="Q21" t="n">
         <v>3492</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3520</v>
       </c>
     </row>
     <row r="22">
@@ -2424,6 +2545,9 @@
       </c>
       <c r="Q22" t="n">
         <v>3755</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3703</v>
       </c>
     </row>
     <row r="23">
@@ -2459,6 +2583,9 @@
       </c>
       <c r="Q23" t="n">
         <v>3912</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3898</v>
       </c>
     </row>
     <row r="24">
@@ -2492,6 +2619,9 @@
       </c>
       <c r="Q24" t="n">
         <v>4257</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4188</v>
       </c>
     </row>
     <row r="25">
@@ -2523,6 +2653,9 @@
       </c>
       <c r="Q25" t="n">
         <v>4443</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4412</v>
       </c>
     </row>
     <row r="26">
@@ -2552,6 +2685,9 @@
       </c>
       <c r="Q26" t="n">
         <v>4747</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4687</v>
       </c>
     </row>
     <row r="27">
@@ -2579,6 +2715,9 @@
       </c>
       <c r="Q27" t="n">
         <v>5024</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5079</v>
       </c>
     </row>
     <row r="28">
@@ -2604,6 +2743,9 @@
       </c>
       <c r="Q28" t="n">
         <v>5312</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5365</v>
       </c>
     </row>
     <row r="29">
@@ -2628,6 +2770,33 @@
       <c r="Q29" t="n">
         <v>5557</v>
       </c>
+      <c r="R29" t="n">
+        <v>5765</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30" t="n">
+        <v>5971</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-04</t>
   </si>
 </sst>
 </file>
@@ -495,6 +498,9 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -521,6 +527,7 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
+      <c r="S2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -549,6 +556,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
+      <c r="S3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -579,6 +587,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
+      <c r="S4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -611,6 +620,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
+      <c r="S5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -645,6 +655,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
+      <c r="S6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -681,6 +692,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
+      <c r="S7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -719,6 +731,7 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
+      <c r="S8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -759,6 +772,7 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
+      <c r="S9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -801,6 +815,7 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
+      <c r="S10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -845,6 +860,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
+      <c r="S11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -891,6 +907,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
+      <c r="S12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -939,6 +956,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
+      <c r="S13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -989,6 +1007,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
+      <c r="S14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1041,6 +1060,7 @@
       </c>
       <c r="Q15"/>
       <c r="R15"/>
+      <c r="S15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1093,12 +1113,15 @@
         <v>38690</v>
       </c>
       <c r="R16"/>
+      <c r="S16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="n">
+        <v>40581</v>
+      </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="n">
@@ -1143,6 +1166,7 @@
       <c r="R17" t="n">
         <v>40773</v>
       </c>
+      <c r="S17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1190,6 +1214,9 @@
       </c>
       <c r="R18" t="n">
         <v>43293</v>
+      </c>
+      <c r="S18" t="n">
+        <v>43203</v>
       </c>
     </row>
     <row r="19">
@@ -1236,6 +1263,9 @@
       </c>
       <c r="R19" t="n">
         <v>46094</v>
+      </c>
+      <c r="S19" t="n">
+        <v>46057</v>
       </c>
     </row>
     <row r="20">
@@ -1280,6 +1310,9 @@
       </c>
       <c r="R20" t="n">
         <v>50164</v>
+      </c>
+      <c r="S20" t="n">
+        <v>50200</v>
       </c>
     </row>
     <row r="21">
@@ -1322,6 +1355,9 @@
       </c>
       <c r="R21" t="n">
         <v>52775</v>
+      </c>
+      <c r="S21" t="n">
+        <v>52877</v>
       </c>
     </row>
     <row r="22">
@@ -1362,6 +1398,9 @@
       </c>
       <c r="R22" t="n">
         <v>55227</v>
+      </c>
+      <c r="S22" t="n">
+        <v>55398</v>
       </c>
     </row>
     <row r="23">
@@ -1400,6 +1439,9 @@
       </c>
       <c r="R23" t="n">
         <v>57814</v>
+      </c>
+      <c r="S23" t="n">
+        <v>58061</v>
       </c>
     </row>
     <row r="24">
@@ -1436,6 +1478,9 @@
       </c>
       <c r="R24" t="n">
         <v>61654</v>
+      </c>
+      <c r="S24" t="n">
+        <v>62011</v>
       </c>
     </row>
     <row r="25">
@@ -1470,6 +1515,9 @@
       </c>
       <c r="R25" t="n">
         <v>64600</v>
+      </c>
+      <c r="S25" t="n">
+        <v>65067</v>
       </c>
     </row>
     <row r="26">
@@ -1502,6 +1550,9 @@
       </c>
       <c r="R26" t="n">
         <v>68194</v>
+      </c>
+      <c r="S26" t="n">
+        <v>68804</v>
       </c>
     </row>
     <row r="27">
@@ -1532,6 +1583,9 @@
       </c>
       <c r="R27" t="n">
         <v>73274</v>
+      </c>
+      <c r="S27" t="n">
+        <v>74083</v>
       </c>
     </row>
     <row r="28">
@@ -1560,6 +1614,9 @@
       </c>
       <c r="R28" t="n">
         <v>76953</v>
+      </c>
+      <c r="S28" t="n">
+        <v>77955</v>
       </c>
     </row>
     <row r="29">
@@ -1586,6 +1643,9 @@
       </c>
       <c r="R29" t="n">
         <v>82068</v>
+      </c>
+      <c r="S29" t="n">
+        <v>83324</v>
       </c>
     </row>
     <row r="30">
@@ -1611,6 +1671,34 @@
       <c r="R30" t="n">
         <v>84693</v>
       </c>
+      <c r="S30" t="n">
+        <v>86137</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31" t="n">
+        <v>92920</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1681,6 +1769,9 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1707,6 +1798,7 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
+      <c r="S2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1735,6 +1827,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
+      <c r="S3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1765,6 +1858,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
+      <c r="S4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1797,6 +1891,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
+      <c r="S5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1831,6 +1926,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
+      <c r="S6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1867,6 +1963,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
+      <c r="S7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1905,6 +2002,7 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
+      <c r="S8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1945,6 +2043,7 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
+      <c r="S9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1987,6 +2086,7 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
+      <c r="S10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2031,6 +2131,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
+      <c r="S11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2077,6 +2178,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
+      <c r="S12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2125,6 +2227,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
+      <c r="S13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2175,6 +2278,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
+      <c r="S14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2227,6 +2331,7 @@
       </c>
       <c r="Q15"/>
       <c r="R15"/>
+      <c r="S15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2279,12 +2384,15 @@
         <v>2513</v>
       </c>
       <c r="R16"/>
+      <c r="S16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="n">
+        <v>2575</v>
+      </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="n">
@@ -2329,6 +2437,7 @@
       <c r="R17" t="n">
         <v>2639</v>
       </c>
+      <c r="S17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2376,6 +2485,9 @@
       </c>
       <c r="R18" t="n">
         <v>2822</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2760</v>
       </c>
     </row>
     <row r="19">
@@ -2422,6 +2534,9 @@
       </c>
       <c r="R19" t="n">
         <v>3026</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2945</v>
       </c>
     </row>
     <row r="20">
@@ -2466,6 +2581,9 @@
       </c>
       <c r="R20" t="n">
         <v>3326</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3216</v>
       </c>
     </row>
     <row r="21">
@@ -2508,6 +2626,9 @@
       </c>
       <c r="R21" t="n">
         <v>3520</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3391</v>
       </c>
     </row>
     <row r="22">
@@ -2548,6 +2669,9 @@
       </c>
       <c r="R22" t="n">
         <v>3703</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3556</v>
       </c>
     </row>
     <row r="23">
@@ -2586,6 +2710,9 @@
       </c>
       <c r="R23" t="n">
         <v>3898</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3730</v>
       </c>
     </row>
     <row r="24">
@@ -2622,6 +2749,9 @@
       </c>
       <c r="R24" t="n">
         <v>4188</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3989</v>
       </c>
     </row>
     <row r="25">
@@ -2656,6 +2786,9 @@
       </c>
       <c r="R25" t="n">
         <v>4412</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4189</v>
       </c>
     </row>
     <row r="26">
@@ -2688,6 +2821,9 @@
       </c>
       <c r="R26" t="n">
         <v>4687</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4435</v>
       </c>
     </row>
     <row r="27">
@@ -2718,6 +2854,9 @@
       </c>
       <c r="R27" t="n">
         <v>5079</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4782</v>
       </c>
     </row>
     <row r="28">
@@ -2746,6 +2885,9 @@
       </c>
       <c r="R28" t="n">
         <v>5365</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5037</v>
       </c>
     </row>
     <row r="29">
@@ -2772,6 +2914,9 @@
       </c>
       <c r="R29" t="n">
         <v>5765</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5391</v>
       </c>
     </row>
     <row r="30">
@@ -2797,6 +2942,34 @@
       <c r="R30" t="n">
         <v>5971</v>
       </c>
+      <c r="S30" t="n">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31" t="n">
+        <v>6024</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-05</t>
   </si>
 </sst>
 </file>
@@ -501,6 +504,9 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -528,6 +534,7 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
+      <c r="T2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -557,6 +564,7 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
+      <c r="T3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -588,6 +596,7 @@
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
+      <c r="T4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -621,6 +630,7 @@
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
+      <c r="T5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -656,6 +666,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
+      <c r="T6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -693,6 +704,7 @@
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
+      <c r="T7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -732,6 +744,7 @@
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
+      <c r="T8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -773,6 +786,7 @@
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
+      <c r="T9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -816,6 +830,7 @@
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
+      <c r="T10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -861,6 +876,7 @@
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
+      <c r="T11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -908,6 +924,7 @@
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
+      <c r="T12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -957,6 +974,7 @@
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
+      <c r="T13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1008,6 +1026,7 @@
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
+      <c r="T14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1061,6 +1080,7 @@
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
+      <c r="T15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1114,6 +1134,7 @@
       </c>
       <c r="R16"/>
       <c r="S16"/>
+      <c r="T16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1167,12 +1188,15 @@
         <v>40773</v>
       </c>
       <c r="S17"/>
+      <c r="T17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="n">
+        <v>43079</v>
+      </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -1218,6 +1242,7 @@
       <c r="S18" t="n">
         <v>43203</v>
       </c>
+      <c r="T18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1266,6 +1291,9 @@
       </c>
       <c r="S19" t="n">
         <v>46057</v>
+      </c>
+      <c r="T19" t="n">
+        <v>46043</v>
       </c>
     </row>
     <row r="20">
@@ -1313,6 +1341,9 @@
       </c>
       <c r="S20" t="n">
         <v>50200</v>
+      </c>
+      <c r="T20" t="n">
+        <v>50293</v>
       </c>
     </row>
     <row r="21">
@@ -1358,6 +1389,9 @@
       </c>
       <c r="S21" t="n">
         <v>52877</v>
+      </c>
+      <c r="T21" t="n">
+        <v>53074</v>
       </c>
     </row>
     <row r="22">
@@ -1401,6 +1435,9 @@
       </c>
       <c r="S22" t="n">
         <v>55398</v>
+      </c>
+      <c r="T22" t="n">
+        <v>55709</v>
       </c>
     </row>
     <row r="23">
@@ -1442,6 +1479,9 @@
       </c>
       <c r="S23" t="n">
         <v>58061</v>
+      </c>
+      <c r="T23" t="n">
+        <v>58505</v>
       </c>
     </row>
     <row r="24">
@@ -1481,6 +1521,9 @@
       </c>
       <c r="S24" t="n">
         <v>62011</v>
+      </c>
+      <c r="T24" t="n">
+        <v>62619</v>
       </c>
     </row>
     <row r="25">
@@ -1518,6 +1561,9 @@
       </c>
       <c r="S25" t="n">
         <v>65067</v>
+      </c>
+      <c r="T25" t="n">
+        <v>65844</v>
       </c>
     </row>
     <row r="26">
@@ -1553,6 +1599,9 @@
       </c>
       <c r="S26" t="n">
         <v>68804</v>
+      </c>
+      <c r="T26" t="n">
+        <v>69799</v>
       </c>
     </row>
     <row r="27">
@@ -1586,6 +1635,9 @@
       </c>
       <c r="S27" t="n">
         <v>74083</v>
+      </c>
+      <c r="T27" t="n">
+        <v>75384</v>
       </c>
     </row>
     <row r="28">
@@ -1617,6 +1669,9 @@
       </c>
       <c r="S28" t="n">
         <v>77955</v>
+      </c>
+      <c r="T28" t="n">
+        <v>79559</v>
       </c>
     </row>
     <row r="29">
@@ -1646,6 +1701,9 @@
       </c>
       <c r="S29" t="n">
         <v>83324</v>
+      </c>
+      <c r="T29" t="n">
+        <v>85330</v>
       </c>
     </row>
     <row r="30">
@@ -1673,6 +1731,9 @@
       </c>
       <c r="S30" t="n">
         <v>86137</v>
+      </c>
+      <c r="T30" t="n">
+        <v>88463</v>
       </c>
     </row>
     <row r="31">
@@ -1699,6 +1760,35 @@
       <c r="S31" t="n">
         <v>92920</v>
       </c>
+      <c r="T31" t="n">
+        <v>95769</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32" t="n">
+        <v>100251</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1772,6 +1862,9 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1799,6 +1892,7 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
+      <c r="T2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1828,6 +1922,7 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
+      <c r="T3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1859,6 +1954,7 @@
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
+      <c r="T4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1892,6 +1988,7 @@
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
+      <c r="T5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1927,6 +2024,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
+      <c r="T6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1964,6 +2062,7 @@
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
+      <c r="T7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2003,6 +2102,7 @@
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
+      <c r="T8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2044,6 +2144,7 @@
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
+      <c r="T9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2087,6 +2188,7 @@
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
+      <c r="T10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2132,6 +2234,7 @@
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
+      <c r="T11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2179,6 +2282,7 @@
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
+      <c r="T12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2228,6 +2332,7 @@
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
+      <c r="T13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2279,6 +2384,7 @@
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
+      <c r="T14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2332,6 +2438,7 @@
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
+      <c r="T15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2385,6 +2492,7 @@
       </c>
       <c r="R16"/>
       <c r="S16"/>
+      <c r="T16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2438,12 +2546,15 @@
         <v>2639</v>
       </c>
       <c r="S17"/>
+      <c r="T17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="n">
+        <v>2741</v>
+      </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -2489,6 +2600,7 @@
       <c r="S18" t="n">
         <v>2760</v>
       </c>
+      <c r="T18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2537,6 +2649,9 @@
       </c>
       <c r="S19" t="n">
         <v>2945</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2927</v>
       </c>
     </row>
     <row r="20">
@@ -2584,6 +2699,9 @@
       </c>
       <c r="S20" t="n">
         <v>3216</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3193</v>
       </c>
     </row>
     <row r="21">
@@ -2629,6 +2747,9 @@
       </c>
       <c r="S21" t="n">
         <v>3391</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3367</v>
       </c>
     </row>
     <row r="22">
@@ -2672,6 +2793,9 @@
       </c>
       <c r="S22" t="n">
         <v>3556</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3532</v>
       </c>
     </row>
     <row r="23">
@@ -2713,6 +2837,9 @@
       </c>
       <c r="S23" t="n">
         <v>3730</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3706</v>
       </c>
     </row>
     <row r="24">
@@ -2752,6 +2879,9 @@
       </c>
       <c r="S24" t="n">
         <v>3989</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3963</v>
       </c>
     </row>
     <row r="25">
@@ -2789,6 +2919,9 @@
       </c>
       <c r="S25" t="n">
         <v>4189</v>
+      </c>
+      <c r="T25" t="n">
+        <v>4165</v>
       </c>
     </row>
     <row r="26">
@@ -2824,6 +2957,9 @@
       </c>
       <c r="S26" t="n">
         <v>4435</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4411</v>
       </c>
     </row>
     <row r="27">
@@ -2857,6 +2993,9 @@
       </c>
       <c r="S27" t="n">
         <v>4782</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4759</v>
       </c>
     </row>
     <row r="28">
@@ -2888,6 +3027,9 @@
       </c>
       <c r="S28" t="n">
         <v>5037</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5019</v>
       </c>
     </row>
     <row r="29">
@@ -2917,6 +3059,9 @@
       </c>
       <c r="S29" t="n">
         <v>5391</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5378</v>
       </c>
     </row>
     <row r="30">
@@ -2944,6 +3089,9 @@
       </c>
       <c r="S30" t="n">
         <v>5576</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5573</v>
       </c>
     </row>
     <row r="31">
@@ -2970,6 +3118,35 @@
       <c r="S31" t="n">
         <v>6024</v>
       </c>
+      <c r="T31" t="n">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32" t="n">
+        <v>6304</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-06</t>
   </si>
 </sst>
 </file>
@@ -507,6 +510,9 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -535,6 +541,7 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
+      <c r="U2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -565,6 +572,7 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
+      <c r="U3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -597,6 +605,7 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -631,6 +640,7 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -667,6 +677,7 @@
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -705,6 +716,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -745,6 +757,7 @@
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
+      <c r="U8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -787,6 +800,7 @@
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
+      <c r="U9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -831,6 +845,7 @@
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
+      <c r="U10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -867,7 +882,7 @@
         <v>26306</v>
       </c>
       <c r="L11" t="n">
-        <v>25729</v>
+        <v>25557</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -877,6 +892,7 @@
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
+      <c r="U11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -913,10 +929,10 @@
         <v>28897</v>
       </c>
       <c r="L12" t="n">
-        <v>28341</v>
+        <v>28075</v>
       </c>
       <c r="M12" t="n">
-        <v>27864</v>
+        <v>27796</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -925,6 +941,7 @@
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
+      <c r="U12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -961,13 +978,13 @@
         <v>30941</v>
       </c>
       <c r="L13" t="n">
-        <v>30325</v>
+        <v>29969</v>
       </c>
       <c r="M13" t="n">
-        <v>29913</v>
+        <v>29658</v>
       </c>
       <c r="N13" t="n">
-        <v>30470</v>
+        <v>30165</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -975,6 +992,7 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
+      <c r="U13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1011,22 +1029,23 @@
         <v>33300</v>
       </c>
       <c r="L14" t="n">
-        <v>32630</v>
+        <v>32175</v>
       </c>
       <c r="M14" t="n">
-        <v>32209</v>
+        <v>31820</v>
       </c>
       <c r="N14" t="n">
-        <v>32863</v>
+        <v>32343</v>
       </c>
       <c r="O14" t="n">
-        <v>32865</v>
+        <v>32695</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
+      <c r="U14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1063,24 +1082,25 @@
         <v>35651</v>
       </c>
       <c r="L15" t="n">
-        <v>34908</v>
+        <v>34357</v>
       </c>
       <c r="M15" t="n">
-        <v>34470</v>
+        <v>33950</v>
       </c>
       <c r="N15" t="n">
-        <v>35250</v>
+        <v>34529</v>
       </c>
       <c r="O15" t="n">
-        <v>35258</v>
+        <v>34941</v>
       </c>
       <c r="P15" t="n">
-        <v>35986</v>
+        <v>35961</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
+      <c r="U15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1115,19 +1135,19 @@
         <v>38540</v>
       </c>
       <c r="L16" t="n">
-        <v>37671</v>
+        <v>37080</v>
       </c>
       <c r="M16" t="n">
-        <v>37175</v>
+        <v>36606</v>
       </c>
       <c r="N16" t="n">
-        <v>38119</v>
+        <v>37312</v>
       </c>
       <c r="O16" t="n">
-        <v>38101</v>
+        <v>37794</v>
       </c>
       <c r="P16" t="n">
-        <v>38806</v>
+        <v>38835</v>
       </c>
       <c r="Q16" t="n">
         <v>38690</v>
@@ -1135,6 +1155,7 @@
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
+      <c r="U16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1167,19 +1188,19 @@
         <v>40011</v>
       </c>
       <c r="L17" t="n">
-        <v>38997</v>
+        <v>38266</v>
       </c>
       <c r="M17" t="n">
-        <v>38566</v>
+        <v>37717</v>
       </c>
       <c r="N17" t="n">
-        <v>39739</v>
+        <v>38470</v>
       </c>
       <c r="O17" t="n">
-        <v>39747</v>
+        <v>39052</v>
       </c>
       <c r="P17" t="n">
-        <v>40430</v>
+        <v>40335</v>
       </c>
       <c r="Q17" t="n">
         <v>41351</v>
@@ -1189,6 +1210,7 @@
       </c>
       <c r="S17"/>
       <c r="T17"/>
+      <c r="U17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1219,19 +1241,19 @@
         <v>42378</v>
       </c>
       <c r="L18" t="n">
-        <v>41253</v>
+        <v>40376</v>
       </c>
       <c r="M18" t="n">
-        <v>40730</v>
+        <v>39734</v>
       </c>
       <c r="N18" t="n">
-        <v>42110</v>
+        <v>40599</v>
       </c>
       <c r="O18" t="n">
-        <v>42100</v>
+        <v>41252</v>
       </c>
       <c r="P18" t="n">
-        <v>42796</v>
+        <v>42767</v>
       </c>
       <c r="Q18" t="n">
         <v>44612</v>
@@ -1243,12 +1265,15 @@
         <v>43203</v>
       </c>
       <c r="T18"/>
+      <c r="U18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="n">
+        <v>45757</v>
+      </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1269,19 +1294,19 @@
         <v>45185</v>
       </c>
       <c r="L19" t="n">
-        <v>43895</v>
+        <v>42913</v>
       </c>
       <c r="M19" t="n">
-        <v>43255</v>
+        <v>42163</v>
       </c>
       <c r="N19" t="n">
-        <v>44870</v>
+        <v>43178</v>
       </c>
       <c r="O19" t="n">
-        <v>44832</v>
+        <v>43914</v>
       </c>
       <c r="P19" t="n">
-        <v>45553</v>
+        <v>45628</v>
       </c>
       <c r="Q19" t="n">
         <v>47099</v>
@@ -1295,6 +1320,7 @@
       <c r="T19" t="n">
         <v>46043</v>
       </c>
+      <c r="U19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1319,19 +1345,19 @@
         <v>49971</v>
       </c>
       <c r="L20" t="n">
-        <v>48378</v>
+        <v>47438</v>
       </c>
       <c r="M20" t="n">
-        <v>47463</v>
+        <v>46531</v>
       </c>
       <c r="N20" t="n">
-        <v>49367</v>
+        <v>47841</v>
       </c>
       <c r="O20" t="n">
-        <v>49236</v>
+        <v>48688</v>
       </c>
       <c r="P20" t="n">
-        <v>49995</v>
+        <v>50420</v>
       </c>
       <c r="Q20" t="n">
         <v>49109</v>
@@ -1344,6 +1370,9 @@
       </c>
       <c r="T20" t="n">
         <v>50293</v>
+      </c>
+      <c r="U20" t="n">
+        <v>50283</v>
       </c>
     </row>
     <row r="21">
@@ -1367,19 +1396,19 @@
         <v>52168</v>
       </c>
       <c r="L21" t="n">
-        <v>50197</v>
+        <v>49153</v>
       </c>
       <c r="M21" t="n">
-        <v>49296</v>
+        <v>48086</v>
       </c>
       <c r="N21" t="n">
-        <v>51599</v>
+        <v>49510</v>
       </c>
       <c r="O21" t="n">
-        <v>51506</v>
+        <v>50537</v>
       </c>
       <c r="P21" t="n">
-        <v>52238</v>
+        <v>52599</v>
       </c>
       <c r="Q21" t="n">
         <v>51377</v>
@@ -1392,6 +1421,9 @@
       </c>
       <c r="T21" t="n">
         <v>53074</v>
+      </c>
+      <c r="U21" t="n">
+        <v>53201</v>
       </c>
     </row>
     <row r="22">
@@ -1413,19 +1445,19 @@
         <v>54183</v>
       </c>
       <c r="L22" t="n">
-        <v>51929</v>
+        <v>50649</v>
       </c>
       <c r="M22" t="n">
-        <v>50935</v>
+        <v>49423</v>
       </c>
       <c r="N22" t="n">
-        <v>53623</v>
+        <v>50984</v>
       </c>
       <c r="O22" t="n">
-        <v>53577</v>
+        <v>52161</v>
       </c>
       <c r="P22" t="n">
-        <v>54328</v>
+        <v>54702</v>
       </c>
       <c r="Q22" t="n">
         <v>54697</v>
@@ -1438,6 +1470,9 @@
       </c>
       <c r="T22" t="n">
         <v>55709</v>
+      </c>
+      <c r="U22" t="n">
+        <v>55964</v>
       </c>
     </row>
     <row r="23">
@@ -1457,19 +1492,19 @@
         <v>56593</v>
       </c>
       <c r="L23" t="n">
-        <v>54092</v>
+        <v>52548</v>
       </c>
       <c r="M23" t="n">
-        <v>52882</v>
+        <v>51156</v>
       </c>
       <c r="N23" t="n">
-        <v>55932</v>
+        <v>52911</v>
       </c>
       <c r="O23" t="n">
-        <v>55911</v>
+        <v>54222</v>
       </c>
       <c r="P23" t="n">
-        <v>56728</v>
+        <v>57251</v>
       </c>
       <c r="Q23" t="n">
         <v>56663</v>
@@ -1482,6 +1517,9 @@
       </c>
       <c r="T23" t="n">
         <v>58505</v>
+      </c>
+      <c r="U23" t="n">
+        <v>58921</v>
       </c>
     </row>
     <row r="24">
@@ -1499,19 +1537,19 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>57895</v>
+        <v>56244</v>
       </c>
       <c r="M24" t="n">
-        <v>56376</v>
+        <v>54632</v>
       </c>
       <c r="N24" t="n">
-        <v>59901</v>
+        <v>56731</v>
       </c>
       <c r="O24" t="n">
-        <v>59840</v>
+        <v>58207</v>
       </c>
       <c r="P24" t="n">
-        <v>60698</v>
+        <v>61544</v>
       </c>
       <c r="Q24" t="n">
         <v>60947</v>
@@ -1524,6 +1562,9 @@
       </c>
       <c r="T24" t="n">
         <v>62619</v>
+      </c>
+      <c r="U24" t="n">
+        <v>63278</v>
       </c>
     </row>
     <row r="25">
@@ -1542,16 +1583,16 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25" t="n">
-        <v>58409</v>
+        <v>56376</v>
       </c>
       <c r="N25" t="n">
-        <v>62466</v>
+        <v>58677</v>
       </c>
       <c r="O25" t="n">
-        <v>62447</v>
+        <v>60355</v>
       </c>
       <c r="P25" t="n">
-        <v>63272</v>
+        <v>64180</v>
       </c>
       <c r="Q25" t="n">
         <v>63232</v>
@@ -1564,6 +1605,9 @@
       </c>
       <c r="T25" t="n">
         <v>65844</v>
+      </c>
+      <c r="U25" t="n">
+        <v>66700</v>
       </c>
     </row>
     <row r="26">
@@ -1583,13 +1627,13 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>65904</v>
+        <v>61682</v>
       </c>
       <c r="O26" t="n">
-        <v>65893</v>
+        <v>63560</v>
       </c>
       <c r="P26" t="n">
-        <v>66716</v>
+        <v>67920</v>
       </c>
       <c r="Q26" t="n">
         <v>66951</v>
@@ -1602,6 +1646,9 @@
       </c>
       <c r="T26" t="n">
         <v>69799</v>
+      </c>
+      <c r="U26" t="n">
+        <v>70938</v>
       </c>
     </row>
     <row r="27">
@@ -1622,10 +1669,10 @@
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>71198</v>
+        <v>69022</v>
       </c>
       <c r="P27" t="n">
-        <v>72022</v>
+        <v>73814</v>
       </c>
       <c r="Q27" t="n">
         <v>70303</v>
@@ -1638,6 +1685,9 @@
       </c>
       <c r="T27" t="n">
         <v>75384</v>
+      </c>
+      <c r="U27" t="n">
+        <v>76976</v>
       </c>
     </row>
     <row r="28">
@@ -1659,7 +1709,7 @@
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>75128</v>
+        <v>77045</v>
       </c>
       <c r="Q28" t="n">
         <v>73768</v>
@@ -1672,6 +1722,9 @@
       </c>
       <c r="T28" t="n">
         <v>79559</v>
+      </c>
+      <c r="U28" t="n">
+        <v>81522</v>
       </c>
     </row>
     <row r="29">
@@ -1704,6 +1757,9 @@
       </c>
       <c r="T29" t="n">
         <v>85330</v>
+      </c>
+      <c r="U29" t="n">
+        <v>87856</v>
       </c>
     </row>
     <row r="30">
@@ -1734,6 +1790,9 @@
       </c>
       <c r="T30" t="n">
         <v>88463</v>
+      </c>
+      <c r="U30" t="n">
+        <v>91330</v>
       </c>
     </row>
     <row r="31">
@@ -1762,6 +1821,9 @@
       </c>
       <c r="T31" t="n">
         <v>95769</v>
+      </c>
+      <c r="U31" t="n">
+        <v>99419</v>
       </c>
     </row>
     <row r="32">
@@ -1789,6 +1851,36 @@
       <c r="T32" t="n">
         <v>100251</v>
       </c>
+      <c r="U32" t="n">
+        <v>104450</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33" t="n">
+        <v>108965</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1865,6 +1957,9 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1893,6 +1988,7 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
+      <c r="U2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1923,6 +2019,7 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
+      <c r="U3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1955,6 +2052,7 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1989,6 +2087,7 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2025,6 +2124,7 @@
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2063,6 +2163,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2103,6 +2204,7 @@
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
+      <c r="U8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2145,6 +2247,7 @@
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
+      <c r="U9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2189,6 +2292,7 @@
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
+      <c r="U10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2225,7 +2329,7 @@
         <v>1526</v>
       </c>
       <c r="L11" t="n">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -2235,6 +2339,7 @@
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
+      <c r="U11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2271,10 +2376,10 @@
         <v>1720</v>
       </c>
       <c r="L12" t="n">
-        <v>1674</v>
+        <v>1654</v>
       </c>
       <c r="M12" t="n">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -2283,6 +2388,7 @@
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
+      <c r="U12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2319,13 +2425,13 @@
         <v>1877</v>
       </c>
       <c r="L13" t="n">
-        <v>1822</v>
+        <v>1795</v>
       </c>
       <c r="M13" t="n">
-        <v>1926</v>
+        <v>1902</v>
       </c>
       <c r="N13" t="n">
-        <v>1953</v>
+        <v>1924</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -2333,6 +2439,7 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
+      <c r="U13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2369,29 +2476,30 @@
         <v>2061</v>
       </c>
       <c r="L14" t="n">
-        <v>1997</v>
+        <v>1962</v>
       </c>
       <c r="M14" t="n">
-        <v>2145</v>
+        <v>2108</v>
       </c>
       <c r="N14" t="n">
-        <v>2177</v>
+        <v>2128</v>
       </c>
       <c r="O14" t="n">
-        <v>2158</v>
+        <v>2143</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
+      <c r="U14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>2352</v>
+        <v>2347</v>
       </c>
       <c r="C15" t="n">
         <v>2834</v>
@@ -2421,24 +2529,25 @@
         <v>2248</v>
       </c>
       <c r="L15" t="n">
-        <v>2174</v>
+        <v>2131</v>
       </c>
       <c r="M15" t="n">
-        <v>2369</v>
+        <v>2317</v>
       </c>
       <c r="N15" t="n">
-        <v>2408</v>
+        <v>2338</v>
       </c>
       <c r="O15" t="n">
-        <v>2384</v>
+        <v>2354</v>
       </c>
       <c r="P15" t="n">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
+      <c r="U15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2473,19 +2582,19 @@
         <v>2482</v>
       </c>
       <c r="L16" t="n">
-        <v>2392</v>
+        <v>2345</v>
       </c>
       <c r="M16" t="n">
-        <v>2646</v>
+        <v>2587</v>
       </c>
       <c r="N16" t="n">
-        <v>2695</v>
+        <v>2614</v>
       </c>
       <c r="O16" t="n">
-        <v>2661</v>
+        <v>2631</v>
       </c>
       <c r="P16" t="n">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="Q16" t="n">
         <v>2513</v>
@@ -2493,6 +2602,7 @@
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
+      <c r="U16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2525,28 +2635,29 @@
         <v>2603</v>
       </c>
       <c r="L17" t="n">
-        <v>2498</v>
+        <v>2439</v>
       </c>
       <c r="M17" t="n">
-        <v>2791</v>
+        <v>2702</v>
       </c>
       <c r="N17" t="n">
-        <v>2862</v>
+        <v>2731</v>
       </c>
       <c r="O17" t="n">
-        <v>2825</v>
+        <v>2756</v>
       </c>
       <c r="P17" t="n">
-        <v>2747</v>
+        <v>2739</v>
       </c>
       <c r="Q17" t="n">
         <v>2714</v>
       </c>
       <c r="R17" t="n">
-        <v>2639</v>
+        <v>2636</v>
       </c>
       <c r="S17"/>
       <c r="T17"/>
+      <c r="U17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2577,36 +2688,39 @@
         <v>2801</v>
       </c>
       <c r="L18" t="n">
-        <v>2680</v>
+        <v>2609</v>
       </c>
       <c r="M18" t="n">
-        <v>3023</v>
+        <v>2916</v>
       </c>
       <c r="N18" t="n">
-        <v>3111</v>
+        <v>2951</v>
       </c>
       <c r="O18" t="n">
-        <v>3065</v>
+        <v>2978</v>
       </c>
       <c r="P18" t="n">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="Q18" t="n">
         <v>2964</v>
       </c>
       <c r="R18" t="n">
-        <v>2822</v>
+        <v>2818</v>
       </c>
       <c r="S18" t="n">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="T18"/>
+      <c r="U18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="n">
+        <v>2906</v>
+      </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -2627,32 +2741,33 @@
         <v>3039</v>
       </c>
       <c r="L19" t="n">
-        <v>2897</v>
+        <v>2816</v>
       </c>
       <c r="M19" t="n">
-        <v>3301</v>
+        <v>3180</v>
       </c>
       <c r="N19" t="n">
-        <v>3408</v>
+        <v>3225</v>
       </c>
       <c r="O19" t="n">
-        <v>3350</v>
+        <v>3254</v>
       </c>
       <c r="P19" t="n">
-        <v>3205</v>
+        <v>3211</v>
       </c>
       <c r="Q19" t="n">
         <v>3157</v>
       </c>
       <c r="R19" t="n">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="S19" t="n">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="T19" t="n">
         <v>2927</v>
       </c>
+      <c r="U19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2677,31 +2792,34 @@
         <v>3455</v>
       </c>
       <c r="L20" t="n">
-        <v>3273</v>
+        <v>3194</v>
       </c>
       <c r="M20" t="n">
-        <v>3781</v>
+        <v>3673</v>
       </c>
       <c r="N20" t="n">
-        <v>3911</v>
+        <v>3738</v>
       </c>
       <c r="O20" t="n">
-        <v>3826</v>
+        <v>3766</v>
       </c>
       <c r="P20" t="n">
-        <v>3614</v>
+        <v>3654</v>
       </c>
       <c r="Q20" t="n">
         <v>3314</v>
       </c>
       <c r="R20" t="n">
-        <v>3326</v>
+        <v>3321</v>
       </c>
       <c r="S20" t="n">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="T20" t="n">
-        <v>3193</v>
+        <v>3194</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3178</v>
       </c>
     </row>
     <row r="21">
@@ -2725,31 +2843,34 @@
         <v>3650</v>
       </c>
       <c r="L21" t="n">
-        <v>3428</v>
+        <v>3339</v>
       </c>
       <c r="M21" t="n">
-        <v>3996</v>
+        <v>3854</v>
       </c>
       <c r="N21" t="n">
-        <v>4168</v>
+        <v>3927</v>
       </c>
       <c r="O21" t="n">
-        <v>4078</v>
+        <v>3970</v>
       </c>
       <c r="P21" t="n">
-        <v>3825</v>
+        <v>3859</v>
       </c>
       <c r="Q21" t="n">
         <v>3492</v>
       </c>
       <c r="R21" t="n">
-        <v>3520</v>
+        <v>3514</v>
       </c>
       <c r="S21" t="n">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="T21" t="n">
-        <v>3367</v>
+        <v>3369</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3356</v>
       </c>
     </row>
     <row r="22">
@@ -2771,31 +2892,34 @@
         <v>3830</v>
       </c>
       <c r="L22" t="n">
-        <v>3577</v>
+        <v>3467</v>
       </c>
       <c r="M22" t="n">
-        <v>4192</v>
+        <v>4011</v>
       </c>
       <c r="N22" t="n">
-        <v>4405</v>
+        <v>4096</v>
       </c>
       <c r="O22" t="n">
-        <v>4312</v>
+        <v>4152</v>
       </c>
       <c r="P22" t="n">
-        <v>4023</v>
+        <v>4059</v>
       </c>
       <c r="Q22" t="n">
         <v>3755</v>
       </c>
       <c r="R22" t="n">
-        <v>3703</v>
+        <v>3696</v>
       </c>
       <c r="S22" t="n">
-        <v>3556</v>
+        <v>3553</v>
       </c>
       <c r="T22" t="n">
-        <v>3532</v>
+        <v>3534</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3524</v>
       </c>
     </row>
     <row r="23">
@@ -2815,31 +2939,34 @@
         <v>4048</v>
       </c>
       <c r="L23" t="n">
-        <v>3765</v>
+        <v>3631</v>
       </c>
       <c r="M23" t="n">
-        <v>4428</v>
+        <v>4218</v>
       </c>
       <c r="N23" t="n">
-        <v>4680</v>
+        <v>4321</v>
       </c>
       <c r="O23" t="n">
-        <v>4580</v>
+        <v>4386</v>
       </c>
       <c r="P23" t="n">
-        <v>4254</v>
+        <v>4305</v>
       </c>
       <c r="Q23" t="n">
         <v>3912</v>
       </c>
       <c r="R23" t="n">
-        <v>3898</v>
+        <v>3890</v>
       </c>
       <c r="S23" t="n">
-        <v>3730</v>
+        <v>3727</v>
       </c>
       <c r="T23" t="n">
-        <v>3706</v>
+        <v>3709</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3703</v>
       </c>
     </row>
     <row r="24">
@@ -2857,31 +2984,34 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>4100</v>
+        <v>3954</v>
       </c>
       <c r="M24" t="n">
-        <v>4862</v>
+        <v>4644</v>
       </c>
       <c r="N24" t="n">
-        <v>5166</v>
+        <v>4777</v>
       </c>
       <c r="O24" t="n">
-        <v>5043</v>
+        <v>4849</v>
       </c>
       <c r="P24" t="n">
-        <v>4643</v>
+        <v>4727</v>
       </c>
       <c r="Q24" t="n">
         <v>4257</v>
       </c>
       <c r="R24" t="n">
-        <v>4188</v>
+        <v>4179</v>
       </c>
       <c r="S24" t="n">
-        <v>3989</v>
+        <v>3985</v>
       </c>
       <c r="T24" t="n">
-        <v>3963</v>
+        <v>3967</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3967</v>
       </c>
     </row>
     <row r="25">
@@ -2900,28 +3030,31 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25" t="n">
-        <v>5120</v>
+        <v>4862</v>
       </c>
       <c r="N25" t="n">
-        <v>5487</v>
+        <v>5015</v>
       </c>
       <c r="O25" t="n">
-        <v>5357</v>
+        <v>5104</v>
       </c>
       <c r="P25" t="n">
-        <v>4899</v>
+        <v>4990</v>
       </c>
       <c r="Q25" t="n">
         <v>4443</v>
       </c>
       <c r="R25" t="n">
-        <v>4412</v>
+        <v>4402</v>
       </c>
       <c r="S25" t="n">
-        <v>4189</v>
+        <v>4185</v>
       </c>
       <c r="T25" t="n">
-        <v>4165</v>
+        <v>4169</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4173</v>
       </c>
     </row>
     <row r="26">
@@ -2941,25 +3074,28 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>5927</v>
+        <v>5388</v>
       </c>
       <c r="O26" t="n">
-        <v>5780</v>
+        <v>5492</v>
       </c>
       <c r="P26" t="n">
-        <v>5246</v>
+        <v>5368</v>
       </c>
       <c r="Q26" t="n">
         <v>4747</v>
       </c>
       <c r="R26" t="n">
-        <v>4687</v>
+        <v>4675</v>
       </c>
       <c r="S26" t="n">
-        <v>4435</v>
+        <v>4430</v>
       </c>
       <c r="T26" t="n">
-        <v>4411</v>
+        <v>4417</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4429</v>
       </c>
     </row>
     <row r="27">
@@ -2980,22 +3116,25 @@
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>6450</v>
+        <v>6173</v>
       </c>
       <c r="P27" t="n">
-        <v>5791</v>
+        <v>5978</v>
       </c>
       <c r="Q27" t="n">
         <v>5024</v>
       </c>
       <c r="R27" t="n">
-        <v>5079</v>
+        <v>5065</v>
       </c>
       <c r="S27" t="n">
-        <v>4782</v>
+        <v>4777</v>
       </c>
       <c r="T27" t="n">
-        <v>4759</v>
+        <v>4766</v>
+      </c>
+      <c r="U27" t="n">
+        <v>4792</v>
       </c>
     </row>
     <row r="28">
@@ -3017,19 +3156,22 @@
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28" t="n">
-        <v>6115</v>
+        <v>6318</v>
       </c>
       <c r="Q28" t="n">
         <v>5312</v>
       </c>
       <c r="R28" t="n">
-        <v>5365</v>
+        <v>5349</v>
       </c>
       <c r="S28" t="n">
-        <v>5037</v>
+        <v>5031</v>
       </c>
       <c r="T28" t="n">
-        <v>5019</v>
+        <v>5027</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5064</v>
       </c>
     </row>
     <row r="29">
@@ -3055,13 +3197,16 @@
         <v>5557</v>
       </c>
       <c r="R29" t="n">
-        <v>5765</v>
+        <v>5747</v>
       </c>
       <c r="S29" t="n">
-        <v>5391</v>
+        <v>5384</v>
       </c>
       <c r="T29" t="n">
-        <v>5378</v>
+        <v>5388</v>
+      </c>
+      <c r="U29" t="n">
+        <v>5443</v>
       </c>
     </row>
     <row r="30">
@@ -3085,13 +3230,16 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="n">
-        <v>5971</v>
+        <v>5952</v>
       </c>
       <c r="S30" t="n">
-        <v>5576</v>
+        <v>5569</v>
       </c>
       <c r="T30" t="n">
-        <v>5573</v>
+        <v>5583</v>
+      </c>
+      <c r="U30" t="n">
+        <v>5651</v>
       </c>
     </row>
     <row r="31">
@@ -3116,10 +3264,13 @@
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31" t="n">
-        <v>6024</v>
+        <v>6017</v>
       </c>
       <c r="T31" t="n">
-        <v>6026</v>
+        <v>6039</v>
+      </c>
+      <c r="U31" t="n">
+        <v>6132</v>
       </c>
     </row>
     <row r="32">
@@ -3145,7 +3296,37 @@
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32" t="n">
-        <v>6304</v>
+        <v>6319</v>
+      </c>
+      <c r="U32" t="n">
+        <v>6431</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33" t="n">
+        <v>6699</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-07</t>
   </si>
 </sst>
 </file>
@@ -513,6 +516,9 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -542,6 +548,7 @@
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
+      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -573,6 +580,7 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
+      <c r="V3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -606,6 +614,7 @@
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
+      <c r="V4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -641,6 +650,7 @@
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -678,6 +688,7 @@
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -717,6 +728,7 @@
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
+      <c r="V7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -758,6 +770,7 @@
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
+      <c r="V8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -801,6 +814,7 @@
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
+      <c r="V9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -846,6 +860,7 @@
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
+      <c r="V10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -893,6 +908,7 @@
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
+      <c r="V11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -942,6 +958,7 @@
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
+      <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -993,6 +1010,7 @@
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
+      <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1046,6 +1064,7 @@
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
+      <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1101,6 +1120,7 @@
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
+      <c r="V15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1156,6 +1176,7 @@
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
+      <c r="V16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1211,6 +1232,7 @@
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
+      <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1266,6 +1288,7 @@
       </c>
       <c r="T18"/>
       <c r="U18"/>
+      <c r="V18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1321,12 +1344,15 @@
         <v>46043</v>
       </c>
       <c r="U19"/>
+      <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="n">
+        <v>49492</v>
+      </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1374,6 +1400,7 @@
       <c r="U20" t="n">
         <v>50283</v>
       </c>
+      <c r="V20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1424,6 +1451,9 @@
       </c>
       <c r="U21" t="n">
         <v>53201</v>
+      </c>
+      <c r="V21" t="n">
+        <v>52655</v>
       </c>
     </row>
     <row r="22">
@@ -1473,6 +1503,9 @@
       </c>
       <c r="U22" t="n">
         <v>55964</v>
+      </c>
+      <c r="V22" t="n">
+        <v>55559</v>
       </c>
     </row>
     <row r="23">
@@ -1520,6 +1553,9 @@
       </c>
       <c r="U23" t="n">
         <v>58921</v>
+      </c>
+      <c r="V23" t="n">
+        <v>58540</v>
       </c>
     </row>
     <row r="24">
@@ -1565,6 +1601,9 @@
       </c>
       <c r="U24" t="n">
         <v>63278</v>
+      </c>
+      <c r="V24" t="n">
+        <v>62691</v>
       </c>
     </row>
     <row r="25">
@@ -1608,6 +1647,9 @@
       </c>
       <c r="U25" t="n">
         <v>66700</v>
+      </c>
+      <c r="V25" t="n">
+        <v>66235</v>
       </c>
     </row>
     <row r="26">
@@ -1649,6 +1691,9 @@
       </c>
       <c r="U26" t="n">
         <v>70938</v>
+      </c>
+      <c r="V26" t="n">
+        <v>70468</v>
       </c>
     </row>
     <row r="27">
@@ -1688,6 +1733,9 @@
       </c>
       <c r="U27" t="n">
         <v>76976</v>
+      </c>
+      <c r="V27" t="n">
+        <v>76254</v>
       </c>
     </row>
     <row r="28">
@@ -1725,6 +1773,9 @@
       </c>
       <c r="U28" t="n">
         <v>81522</v>
+      </c>
+      <c r="V28" t="n">
+        <v>81056</v>
       </c>
     </row>
     <row r="29">
@@ -1760,6 +1811,9 @@
       </c>
       <c r="U29" t="n">
         <v>87856</v>
+      </c>
+      <c r="V29" t="n">
+        <v>87305</v>
       </c>
     </row>
     <row r="30">
@@ -1793,6 +1847,9 @@
       </c>
       <c r="U30" t="n">
         <v>91330</v>
+      </c>
+      <c r="V30" t="n">
+        <v>91304</v>
       </c>
     </row>
     <row r="31">
@@ -1824,6 +1881,9 @@
       </c>
       <c r="U31" t="n">
         <v>99419</v>
+      </c>
+      <c r="V31" t="n">
+        <v>98977</v>
       </c>
     </row>
     <row r="32">
@@ -1853,6 +1913,9 @@
       </c>
       <c r="U32" t="n">
         <v>104450</v>
+      </c>
+      <c r="V32" t="n">
+        <v>104427</v>
       </c>
     </row>
     <row r="33">
@@ -1881,6 +1944,37 @@
       <c r="U33" t="n">
         <v>108965</v>
       </c>
+      <c r="V33" t="n">
+        <v>109459</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34" t="n">
+        <v>114432</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1959,6 +2053,9 @@
       </c>
       <c r="U1" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -1989,6 +2086,7 @@
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
+      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2020,6 +2118,7 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
+      <c r="V3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2053,6 +2152,7 @@
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
+      <c r="V4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2088,6 +2188,7 @@
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2125,6 +2226,7 @@
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2164,6 +2266,7 @@
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
+      <c r="V7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2205,6 +2308,7 @@
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
+      <c r="V8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2248,6 +2352,7 @@
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
+      <c r="V9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2293,6 +2398,7 @@
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
+      <c r="V10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2340,6 +2446,7 @@
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
+      <c r="V11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2389,6 +2496,7 @@
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
+      <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2440,6 +2548,7 @@
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
+      <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2493,6 +2602,7 @@
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
+      <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2548,6 +2658,7 @@
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
+      <c r="V15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2603,6 +2714,7 @@
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
+      <c r="V16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2658,6 +2770,7 @@
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
+      <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2713,6 +2826,7 @@
       </c>
       <c r="T18"/>
       <c r="U18"/>
+      <c r="V18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2768,12 +2882,15 @@
         <v>2927</v>
       </c>
       <c r="U19"/>
+      <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="n">
+        <v>3313</v>
+      </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -2821,6 +2938,7 @@
       <c r="U20" t="n">
         <v>3178</v>
       </c>
+      <c r="V20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -2871,6 +2989,9 @@
       </c>
       <c r="U21" t="n">
         <v>3356</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3500</v>
       </c>
     </row>
     <row r="22">
@@ -2920,6 +3041,9 @@
       </c>
       <c r="U22" t="n">
         <v>3524</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3728</v>
       </c>
     </row>
     <row r="23">
@@ -2967,6 +3091,9 @@
       </c>
       <c r="U23" t="n">
         <v>3703</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3964</v>
       </c>
     </row>
     <row r="24">
@@ -3012,6 +3139,9 @@
       </c>
       <c r="U24" t="n">
         <v>3967</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4297</v>
       </c>
     </row>
     <row r="25">
@@ -3055,6 +3185,9 @@
       </c>
       <c r="U25" t="n">
         <v>4173</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4584</v>
       </c>
     </row>
     <row r="26">
@@ -3096,6 +3229,9 @@
       </c>
       <c r="U26" t="n">
         <v>4429</v>
+      </c>
+      <c r="V26" t="n">
+        <v>4930</v>
       </c>
     </row>
     <row r="27">
@@ -3135,6 +3271,9 @@
       </c>
       <c r="U27" t="n">
         <v>4792</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5410</v>
       </c>
     </row>
     <row r="28">
@@ -3172,6 +3311,9 @@
       </c>
       <c r="U28" t="n">
         <v>5064</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5813</v>
       </c>
     </row>
     <row r="29">
@@ -3207,6 +3349,9 @@
       </c>
       <c r="U29" t="n">
         <v>5443</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6343</v>
       </c>
     </row>
     <row r="30">
@@ -3240,6 +3385,9 @@
       </c>
       <c r="U30" t="n">
         <v>5651</v>
+      </c>
+      <c r="V30" t="n">
+        <v>6686</v>
       </c>
     </row>
     <row r="31">
@@ -3271,6 +3419,9 @@
       </c>
       <c r="U31" t="n">
         <v>6132</v>
+      </c>
+      <c r="V31" t="n">
+        <v>7352</v>
       </c>
     </row>
     <row r="32">
@@ -3300,6 +3451,9 @@
       </c>
       <c r="U32" t="n">
         <v>6431</v>
+      </c>
+      <c r="V32" t="n">
+        <v>7830</v>
       </c>
     </row>
     <row r="33">
@@ -3328,6 +3482,37 @@
       <c r="U33" t="n">
         <v>6699</v>
       </c>
+      <c r="V33" t="n">
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34" t="n">
+        <v>8719</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-08</t>
   </si>
 </sst>
 </file>
@@ -519,6 +522,9 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -549,6 +555,7 @@
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
+      <c r="W2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -581,6 +588,7 @@
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
+      <c r="W3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -615,6 +623,7 @@
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
+      <c r="W4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -651,6 +660,7 @@
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
+      <c r="W5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -689,6 +699,7 @@
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
+      <c r="W6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -729,6 +740,7 @@
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
+      <c r="W7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -771,6 +783,7 @@
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
+      <c r="W8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -815,6 +828,7 @@
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
+      <c r="W9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -861,6 +875,7 @@
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
+      <c r="W10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -909,6 +924,7 @@
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
+      <c r="W11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -959,6 +975,7 @@
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
+      <c r="W12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1011,6 +1028,7 @@
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
+      <c r="W13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1065,6 +1083,7 @@
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
+      <c r="W14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1121,6 +1140,7 @@
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
+      <c r="W15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1177,6 +1197,7 @@
       <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
+      <c r="W16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1233,6 +1254,7 @@
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
+      <c r="W17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1289,6 +1311,7 @@
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
+      <c r="W18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1345,6 +1368,7 @@
       </c>
       <c r="U19"/>
       <c r="V19"/>
+      <c r="W19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1401,12 +1425,15 @@
         <v>50283</v>
       </c>
       <c r="V20"/>
+      <c r="W20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="n">
+        <v>52995</v>
+      </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -1455,6 +1482,7 @@
       <c r="V21" t="n">
         <v>52655</v>
       </c>
+      <c r="W21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1506,6 +1534,9 @@
       </c>
       <c r="V22" t="n">
         <v>55559</v>
+      </c>
+      <c r="W22" t="n">
+        <v>56328</v>
       </c>
     </row>
     <row r="23">
@@ -1556,6 +1587,9 @@
       </c>
       <c r="V23" t="n">
         <v>58540</v>
+      </c>
+      <c r="W23" t="n">
+        <v>59703</v>
       </c>
     </row>
     <row r="24">
@@ -1604,6 +1638,9 @@
       </c>
       <c r="V24" t="n">
         <v>62691</v>
+      </c>
+      <c r="W24" t="n">
+        <v>64092</v>
       </c>
     </row>
     <row r="25">
@@ -1650,6 +1687,9 @@
       </c>
       <c r="V25" t="n">
         <v>66235</v>
+      </c>
+      <c r="W25" t="n">
+        <v>68172</v>
       </c>
     </row>
     <row r="26">
@@ -1694,6 +1734,9 @@
       </c>
       <c r="V26" t="n">
         <v>70468</v>
+      </c>
+      <c r="W26" t="n">
+        <v>72916</v>
       </c>
     </row>
     <row r="27">
@@ -1736,6 +1779,9 @@
       </c>
       <c r="V27" t="n">
         <v>76254</v>
+      </c>
+      <c r="W27" t="n">
+        <v>79219</v>
       </c>
     </row>
     <row r="28">
@@ -1776,6 +1822,9 @@
       </c>
       <c r="V28" t="n">
         <v>81056</v>
+      </c>
+      <c r="W28" t="n">
+        <v>84990</v>
       </c>
     </row>
     <row r="29">
@@ -1814,6 +1863,9 @@
       </c>
       <c r="V29" t="n">
         <v>87305</v>
+      </c>
+      <c r="W29" t="n">
+        <v>92133</v>
       </c>
     </row>
     <row r="30">
@@ -1850,6 +1902,9 @@
       </c>
       <c r="V30" t="n">
         <v>91304</v>
+      </c>
+      <c r="W30" t="n">
+        <v>97435</v>
       </c>
     </row>
     <row r="31">
@@ -1884,6 +1939,9 @@
       </c>
       <c r="V31" t="n">
         <v>98977</v>
+      </c>
+      <c r="W31" t="n">
+        <v>106011</v>
       </c>
     </row>
     <row r="32">
@@ -1916,6 +1974,9 @@
       </c>
       <c r="V32" t="n">
         <v>104427</v>
+      </c>
+      <c r="W32" t="n">
+        <v>113078</v>
       </c>
     </row>
     <row r="33">
@@ -1946,6 +2007,9 @@
       </c>
       <c r="V33" t="n">
         <v>109459</v>
+      </c>
+      <c r="W33" t="n">
+        <v>119679</v>
       </c>
     </row>
     <row r="34">
@@ -1975,6 +2039,38 @@
       <c r="V34" t="n">
         <v>114432</v>
       </c>
+      <c r="W34" t="n">
+        <v>126092</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35" t="n">
+        <v>131844</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2056,6 +2152,9 @@
       </c>
       <c r="V1" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -2087,6 +2186,7 @@
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
+      <c r="W2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2119,6 +2219,7 @@
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
+      <c r="W3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2153,6 +2254,7 @@
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
+      <c r="W4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2189,6 +2291,7 @@
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
+      <c r="W5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2227,6 +2330,7 @@
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
+      <c r="W6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2267,6 +2371,7 @@
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
+      <c r="W7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2309,6 +2414,7 @@
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
+      <c r="W8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2353,6 +2459,7 @@
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
+      <c r="W9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2399,6 +2506,7 @@
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
+      <c r="W10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2447,6 +2555,7 @@
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
+      <c r="W11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2497,6 +2606,7 @@
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
+      <c r="W12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2549,6 +2659,7 @@
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
+      <c r="W13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2603,6 +2714,7 @@
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
+      <c r="W14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2659,6 +2771,7 @@
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
+      <c r="W15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2715,6 +2828,7 @@
       <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
+      <c r="W16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2771,6 +2885,7 @@
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
+      <c r="W17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2827,6 +2942,7 @@
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
+      <c r="W18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2883,6 +2999,7 @@
       </c>
       <c r="U19"/>
       <c r="V19"/>
+      <c r="W19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2939,12 +3056,15 @@
         <v>3178</v>
       </c>
       <c r="V20"/>
+      <c r="W20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="n">
+        <v>3670</v>
+      </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -2993,6 +3113,7 @@
       <c r="V21" t="n">
         <v>3500</v>
       </c>
+      <c r="W21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3044,6 +3165,9 @@
       </c>
       <c r="V22" t="n">
         <v>3728</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3931</v>
       </c>
     </row>
     <row r="23">
@@ -3094,6 +3218,9 @@
       </c>
       <c r="V23" t="n">
         <v>3964</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4243</v>
       </c>
     </row>
     <row r="24">
@@ -3142,6 +3269,9 @@
       </c>
       <c r="V24" t="n">
         <v>4297</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4655</v>
       </c>
     </row>
     <row r="25">
@@ -3188,6 +3318,9 @@
       </c>
       <c r="V25" t="n">
         <v>4584</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5048</v>
       </c>
     </row>
     <row r="26">
@@ -3232,6 +3365,9 @@
       </c>
       <c r="V26" t="n">
         <v>4930</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5513</v>
       </c>
     </row>
     <row r="27">
@@ -3274,6 +3410,9 @@
       </c>
       <c r="V27" t="n">
         <v>5410</v>
+      </c>
+      <c r="W27" t="n">
+        <v>6140</v>
       </c>
     </row>
     <row r="28">
@@ -3314,6 +3453,9 @@
       </c>
       <c r="V28" t="n">
         <v>5813</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6733</v>
       </c>
     </row>
     <row r="29">
@@ -3352,6 +3494,9 @@
       </c>
       <c r="V29" t="n">
         <v>6343</v>
+      </c>
+      <c r="W29" t="n">
+        <v>7478</v>
       </c>
     </row>
     <row r="30">
@@ -3388,6 +3533,9 @@
       </c>
       <c r="V30" t="n">
         <v>6686</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8053</v>
       </c>
     </row>
     <row r="31">
@@ -3422,6 +3570,9 @@
       </c>
       <c r="V31" t="n">
         <v>7352</v>
+      </c>
+      <c r="W31" t="n">
+        <v>8982</v>
       </c>
     </row>
     <row r="32">
@@ -3454,6 +3605,9 @@
       </c>
       <c r="V32" t="n">
         <v>7830</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9774</v>
       </c>
     </row>
     <row r="33">
@@ -3484,6 +3638,9 @@
       </c>
       <c r="V33" t="n">
         <v>8275</v>
+      </c>
+      <c r="W33" t="n">
+        <v>10531</v>
       </c>
     </row>
     <row r="34">
@@ -3513,6 +3670,38 @@
       <c r="V34" t="n">
         <v>8719</v>
       </c>
+      <c r="W34" t="n">
+        <v>11280</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35" t="n">
+        <v>11965</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-09</t>
   </si>
 </sst>
 </file>
@@ -525,6 +528,9 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -556,6 +562,7 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
+      <c r="X2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -589,6 +596,7 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
+      <c r="X3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -624,6 +632,7 @@
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
+      <c r="X4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -661,6 +670,7 @@
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
+      <c r="X5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -700,6 +710,7 @@
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
+      <c r="X6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -741,6 +752,7 @@
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
+      <c r="X7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -784,6 +796,7 @@
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
+      <c r="X8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -829,6 +842,7 @@
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
+      <c r="X9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -876,6 +890,7 @@
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
+      <c r="X10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -925,6 +940,7 @@
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
+      <c r="X11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -976,6 +992,7 @@
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
+      <c r="X12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1029,6 +1046,7 @@
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
+      <c r="X13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1084,6 +1102,7 @@
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
+      <c r="X14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1141,6 +1160,7 @@
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
+      <c r="X15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1198,6 +1218,7 @@
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
+      <c r="X16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1255,6 +1276,7 @@
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
+      <c r="X17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1312,6 +1334,7 @@
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
+      <c r="X18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1369,6 +1392,7 @@
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
+      <c r="X19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1426,6 +1450,7 @@
       </c>
       <c r="V20"/>
       <c r="W20"/>
+      <c r="X20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1483,12 +1508,15 @@
         <v>52655</v>
       </c>
       <c r="W21"/>
+      <c r="X21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="n">
+        <v>58509</v>
+      </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -1538,6 +1566,7 @@
       <c r="W22" t="n">
         <v>56328</v>
       </c>
+      <c r="X22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1590,6 +1619,9 @@
       </c>
       <c r="W23" t="n">
         <v>59703</v>
+      </c>
+      <c r="X23" t="n">
+        <v>61890</v>
       </c>
     </row>
     <row r="24">
@@ -1641,6 +1673,9 @@
       </c>
       <c r="W24" t="n">
         <v>64092</v>
+      </c>
+      <c r="X24" t="n">
+        <v>66356</v>
       </c>
     </row>
     <row r="25">
@@ -1690,6 +1725,9 @@
       </c>
       <c r="W25" t="n">
         <v>68172</v>
+      </c>
+      <c r="X25" t="n">
+        <v>70918</v>
       </c>
     </row>
     <row r="26">
@@ -1737,6 +1775,9 @@
       </c>
       <c r="W26" t="n">
         <v>72916</v>
+      </c>
+      <c r="X26" t="n">
+        <v>76240</v>
       </c>
     </row>
     <row r="27">
@@ -1782,6 +1823,9 @@
       </c>
       <c r="W27" t="n">
         <v>79219</v>
+      </c>
+      <c r="X27" t="n">
+        <v>83229</v>
       </c>
     </row>
     <row r="28">
@@ -1825,6 +1869,9 @@
       </c>
       <c r="W28" t="n">
         <v>84990</v>
+      </c>
+      <c r="X28" t="n">
+        <v>90006</v>
       </c>
     </row>
     <row r="29">
@@ -1866,6 +1913,9 @@
       </c>
       <c r="W29" t="n">
         <v>92133</v>
+      </c>
+      <c r="X29" t="n">
+        <v>98136</v>
       </c>
     </row>
     <row r="30">
@@ -1905,6 +1955,9 @@
       </c>
       <c r="W30" t="n">
         <v>97435</v>
+      </c>
+      <c r="X30" t="n">
+        <v>104499</v>
       </c>
     </row>
     <row r="31">
@@ -1942,6 +1995,9 @@
       </c>
       <c r="W31" t="n">
         <v>106011</v>
+      </c>
+      <c r="X31" t="n">
+        <v>114102</v>
       </c>
     </row>
     <row r="32">
@@ -1977,6 +2033,9 @@
       </c>
       <c r="W32" t="n">
         <v>113078</v>
+      </c>
+      <c r="X32" t="n">
+        <v>122716</v>
       </c>
     </row>
     <row r="33">
@@ -2010,6 +2069,9 @@
       </c>
       <c r="W33" t="n">
         <v>119679</v>
+      </c>
+      <c r="X33" t="n">
+        <v>130776</v>
       </c>
     </row>
     <row r="34">
@@ -2041,6 +2103,9 @@
       </c>
       <c r="W34" t="n">
         <v>126092</v>
+      </c>
+      <c r="X34" t="n">
+        <v>138488</v>
       </c>
     </row>
     <row r="35">
@@ -2071,6 +2136,39 @@
       <c r="W35" t="n">
         <v>131844</v>
       </c>
+      <c r="X35" t="n">
+        <v>145429</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36" t="n">
+        <v>150968</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2155,6 +2253,9 @@
       </c>
       <c r="W1" t="s">
         <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -2187,6 +2288,7 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
+      <c r="X2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2220,6 +2322,7 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
+      <c r="X3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2255,6 +2358,7 @@
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
+      <c r="X4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2292,6 +2396,7 @@
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
+      <c r="X5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2331,6 +2436,7 @@
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
+      <c r="X6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2372,6 +2478,7 @@
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
+      <c r="X7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2415,6 +2522,7 @@
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
+      <c r="X8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2460,6 +2568,7 @@
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
+      <c r="X9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2507,6 +2616,7 @@
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
+      <c r="X10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2556,6 +2666,7 @@
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
+      <c r="X11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2607,6 +2718,7 @@
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
+      <c r="X12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2660,6 +2772,7 @@
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
+      <c r="X13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2715,6 +2828,7 @@
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
+      <c r="X14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2772,6 +2886,7 @@
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
+      <c r="X15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2829,6 +2944,7 @@
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
+      <c r="X16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2886,6 +3002,7 @@
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
+      <c r="X17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2943,6 +3060,7 @@
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
+      <c r="X18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3000,6 +3118,7 @@
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
+      <c r="X19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3057,6 +3176,7 @@
       </c>
       <c r="V20"/>
       <c r="W20"/>
+      <c r="X20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3114,12 +3234,15 @@
         <v>3500</v>
       </c>
       <c r="W21"/>
+      <c r="X21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="n">
+        <v>4016</v>
+      </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -3169,6 +3292,7 @@
       <c r="W22" t="n">
         <v>3931</v>
       </c>
+      <c r="X22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3221,6 +3345,9 @@
       </c>
       <c r="W23" t="n">
         <v>4243</v>
+      </c>
+      <c r="X23" t="n">
+        <v>4380</v>
       </c>
     </row>
     <row r="24">
@@ -3272,6 +3399,9 @@
       </c>
       <c r="W24" t="n">
         <v>4655</v>
+      </c>
+      <c r="X24" t="n">
+        <v>4777</v>
       </c>
     </row>
     <row r="25">
@@ -3321,6 +3451,9 @@
       </c>
       <c r="W25" t="n">
         <v>5048</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5207</v>
       </c>
     </row>
     <row r="26">
@@ -3368,6 +3501,9 @@
       </c>
       <c r="W26" t="n">
         <v>5513</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5712</v>
       </c>
     </row>
     <row r="27">
@@ -3413,6 +3549,9 @@
       </c>
       <c r="W27" t="n">
         <v>6140</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6379</v>
       </c>
     </row>
     <row r="28">
@@ -3456,6 +3595,9 @@
       </c>
       <c r="W28" t="n">
         <v>6733</v>
+      </c>
+      <c r="X28" t="n">
+        <v>7063</v>
       </c>
     </row>
     <row r="29">
@@ -3497,6 +3639,9 @@
       </c>
       <c r="W29" t="n">
         <v>7478</v>
+      </c>
+      <c r="X29" t="n">
+        <v>7883</v>
       </c>
     </row>
     <row r="30">
@@ -3536,6 +3681,9 @@
       </c>
       <c r="W30" t="n">
         <v>8053</v>
+      </c>
+      <c r="X30" t="n">
+        <v>8569</v>
       </c>
     </row>
     <row r="31">
@@ -3573,6 +3721,9 @@
       </c>
       <c r="W31" t="n">
         <v>8982</v>
+      </c>
+      <c r="X31" t="n">
+        <v>9561</v>
       </c>
     </row>
     <row r="32">
@@ -3608,6 +3759,9 @@
       </c>
       <c r="W32" t="n">
         <v>9774</v>
+      </c>
+      <c r="X32" t="n">
+        <v>10515</v>
       </c>
     </row>
     <row r="33">
@@ -3641,6 +3795,9 @@
       </c>
       <c r="W33" t="n">
         <v>10531</v>
+      </c>
+      <c r="X33" t="n">
+        <v>11429</v>
       </c>
     </row>
     <row r="34">
@@ -3672,6 +3829,9 @@
       </c>
       <c r="W34" t="n">
         <v>11280</v>
+      </c>
+      <c r="X34" t="n">
+        <v>12313</v>
       </c>
     </row>
     <row r="35">
@@ -3702,6 +3862,39 @@
       <c r="W35" t="n">
         <v>11965</v>
       </c>
+      <c r="X35" t="n">
+        <v>13128</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36" t="n">
+        <v>13799</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-10</t>
   </si>
 </sst>
 </file>
@@ -531,6 +534,9 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -563,6 +569,7 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
+      <c r="Y2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -597,6 +604,7 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
+      <c r="Y3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -633,6 +641,7 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
+      <c r="Y4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -671,6 +680,7 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
+      <c r="Y5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -711,6 +721,7 @@
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
+      <c r="Y6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -753,6 +764,7 @@
       <c r="V7"/>
       <c r="W7"/>
       <c r="X7"/>
+      <c r="Y7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -797,6 +809,7 @@
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
+      <c r="Y8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -843,6 +856,7 @@
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
+      <c r="Y9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -891,6 +905,7 @@
       <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
+      <c r="Y10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -941,6 +956,7 @@
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
+      <c r="Y11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -993,6 +1009,7 @@
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
+      <c r="Y12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1047,6 +1064,7 @@
       <c r="V13"/>
       <c r="W13"/>
       <c r="X13"/>
+      <c r="Y13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1103,6 +1121,7 @@
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
+      <c r="Y14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1161,6 +1180,7 @@
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15"/>
+      <c r="Y15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1219,6 +1239,7 @@
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16"/>
+      <c r="Y16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1277,6 +1298,7 @@
       <c r="V17"/>
       <c r="W17"/>
       <c r="X17"/>
+      <c r="Y17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1335,6 +1357,7 @@
       <c r="V18"/>
       <c r="W18"/>
       <c r="X18"/>
+      <c r="Y18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1393,6 +1416,7 @@
       <c r="V19"/>
       <c r="W19"/>
       <c r="X19"/>
+      <c r="Y19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1451,6 +1475,7 @@
       <c r="V20"/>
       <c r="W20"/>
       <c r="X20"/>
+      <c r="Y20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1509,6 +1534,7 @@
       </c>
       <c r="W21"/>
       <c r="X21"/>
+      <c r="Y21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1567,12 +1593,15 @@
         <v>56328</v>
       </c>
       <c r="X22"/>
+      <c r="Y22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="n">
+        <v>61888</v>
+      </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -1623,6 +1652,7 @@
       <c r="X23" t="n">
         <v>61890</v>
       </c>
+      <c r="Y23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1676,6 +1706,9 @@
       </c>
       <c r="X24" t="n">
         <v>66356</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>67049</v>
       </c>
     </row>
     <row r="25">
@@ -1728,6 +1761,9 @@
       </c>
       <c r="X25" t="n">
         <v>70918</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>71646</v>
       </c>
     </row>
     <row r="26">
@@ -1778,6 +1814,9 @@
       </c>
       <c r="X26" t="n">
         <v>76240</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>77345</v>
       </c>
     </row>
     <row r="27">
@@ -1826,6 +1865,9 @@
       </c>
       <c r="X27" t="n">
         <v>83229</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>85083</v>
       </c>
     </row>
     <row r="28">
@@ -1872,6 +1914,9 @@
       </c>
       <c r="X28" t="n">
         <v>90006</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>91409</v>
       </c>
     </row>
     <row r="29">
@@ -1916,6 +1961,9 @@
       </c>
       <c r="X29" t="n">
         <v>98136</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>99959</v>
       </c>
     </row>
     <row r="30">
@@ -1958,6 +2006,9 @@
       </c>
       <c r="X30" t="n">
         <v>104499</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>105199</v>
       </c>
     </row>
     <row r="31">
@@ -1998,6 +2049,9 @@
       </c>
       <c r="X31" t="n">
         <v>114102</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>115887</v>
       </c>
     </row>
     <row r="32">
@@ -2036,6 +2090,9 @@
       </c>
       <c r="X32" t="n">
         <v>122716</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>123388</v>
       </c>
     </row>
     <row r="33">
@@ -2072,6 +2129,9 @@
       </c>
       <c r="X33" t="n">
         <v>130776</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>130387</v>
       </c>
     </row>
     <row r="34">
@@ -2106,6 +2166,9 @@
       </c>
       <c r="X34" t="n">
         <v>138488</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>137236</v>
       </c>
     </row>
     <row r="35">
@@ -2138,6 +2201,9 @@
       </c>
       <c r="X35" t="n">
         <v>145429</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>143194</v>
       </c>
     </row>
     <row r="36">
@@ -2169,6 +2235,40 @@
       <c r="X36" t="n">
         <v>150968</v>
       </c>
+      <c r="Y36" t="n">
+        <v>147517</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37" t="n">
+        <v>153226</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2256,6 +2356,9 @@
       </c>
       <c r="X1" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -2289,6 +2392,7 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
+      <c r="Y2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2323,6 +2427,7 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
+      <c r="Y3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2359,6 +2464,7 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
+      <c r="Y4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2397,6 +2503,7 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
+      <c r="Y5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2437,6 +2544,7 @@
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
+      <c r="Y6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2479,6 +2587,7 @@
       <c r="V7"/>
       <c r="W7"/>
       <c r="X7"/>
+      <c r="Y7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2523,6 +2632,7 @@
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
+      <c r="Y8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2569,6 +2679,7 @@
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
+      <c r="Y9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2617,6 +2728,7 @@
       <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
+      <c r="Y10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2667,6 +2779,7 @@
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
+      <c r="Y11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2719,6 +2832,7 @@
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
+      <c r="Y12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2773,6 +2887,7 @@
       <c r="V13"/>
       <c r="W13"/>
       <c r="X13"/>
+      <c r="Y13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2829,6 +2944,7 @@
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
+      <c r="Y14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2887,6 +3003,7 @@
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15"/>
+      <c r="Y15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2945,6 +3062,7 @@
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16"/>
+      <c r="Y16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3003,6 +3121,7 @@
       <c r="V17"/>
       <c r="W17"/>
       <c r="X17"/>
+      <c r="Y17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3061,6 +3180,7 @@
       <c r="V18"/>
       <c r="W18"/>
       <c r="X18"/>
+      <c r="Y18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3119,6 +3239,7 @@
       <c r="V19"/>
       <c r="W19"/>
       <c r="X19"/>
+      <c r="Y19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3177,6 +3298,7 @@
       <c r="V20"/>
       <c r="W20"/>
       <c r="X20"/>
+      <c r="Y20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3235,6 +3357,7 @@
       </c>
       <c r="W21"/>
       <c r="X21"/>
+      <c r="Y21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3293,12 +3416,15 @@
         <v>3931</v>
       </c>
       <c r="X22"/>
+      <c r="Y22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="n">
+        <v>4205</v>
+      </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -3349,6 +3475,7 @@
       <c r="X23" t="n">
         <v>4380</v>
       </c>
+      <c r="Y23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3402,6 +3529,9 @@
       </c>
       <c r="X24" t="n">
         <v>4777</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>4761</v>
       </c>
     </row>
     <row r="25">
@@ -3454,6 +3584,9 @@
       </c>
       <c r="X25" t="n">
         <v>5207</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>5095</v>
       </c>
     </row>
     <row r="26">
@@ -3504,6 +3637,9 @@
       </c>
       <c r="X26" t="n">
         <v>5712</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>5604</v>
       </c>
     </row>
     <row r="27">
@@ -3552,6 +3688,9 @@
       </c>
       <c r="X27" t="n">
         <v>6379</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>6253</v>
       </c>
     </row>
     <row r="28">
@@ -3598,6 +3737,9 @@
       </c>
       <c r="X28" t="n">
         <v>7063</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>6822</v>
       </c>
     </row>
     <row r="29">
@@ -3642,6 +3784,9 @@
       </c>
       <c r="X29" t="n">
         <v>7883</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>7505</v>
       </c>
     </row>
     <row r="30">
@@ -3684,6 +3829,9 @@
       </c>
       <c r="X30" t="n">
         <v>8569</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8064</v>
       </c>
     </row>
     <row r="31">
@@ -3724,6 +3872,9 @@
       </c>
       <c r="X31" t="n">
         <v>9561</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8989</v>
       </c>
     </row>
     <row r="32">
@@ -3762,6 +3913,9 @@
       </c>
       <c r="X32" t="n">
         <v>10515</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9741</v>
       </c>
     </row>
     <row r="33">
@@ -3798,6 +3952,9 @@
       </c>
       <c r="X33" t="n">
         <v>11429</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10498</v>
       </c>
     </row>
     <row r="34">
@@ -3832,6 +3989,9 @@
       </c>
       <c r="X34" t="n">
         <v>12313</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>11176</v>
       </c>
     </row>
     <row r="35">
@@ -3864,6 +4024,9 @@
       </c>
       <c r="X35" t="n">
         <v>13128</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>11772</v>
       </c>
     </row>
     <row r="36">
@@ -3895,6 +4058,40 @@
       <c r="X36" t="n">
         <v>13799</v>
       </c>
+      <c r="Y36" t="n">
+        <v>12142</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37" t="n">
+        <v>12779</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-11</t>
   </si>
 </sst>
 </file>
@@ -537,6 +540,9 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -570,6 +576,7 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
+      <c r="Z2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -605,6 +612,7 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
+      <c r="Z3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -642,6 +650,7 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
+      <c r="Z4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -681,6 +690,7 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
+      <c r="Z5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -722,6 +732,7 @@
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
+      <c r="Z6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -765,6 +776,7 @@
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
+      <c r="Z7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -810,6 +822,7 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
+      <c r="Z8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -857,6 +870,7 @@
       <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
+      <c r="Z9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -906,6 +920,7 @@
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
+      <c r="Z10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -957,6 +972,7 @@
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
+      <c r="Z11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1010,6 +1026,7 @@
       <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
+      <c r="Z12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1065,6 +1082,7 @@
       <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
+      <c r="Z13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1122,6 +1140,7 @@
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
+      <c r="Z14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1181,6 +1200,7 @@
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15"/>
+      <c r="Z15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1240,6 +1260,7 @@
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
+      <c r="Z16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1299,6 +1320,7 @@
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17"/>
+      <c r="Z17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1358,6 +1380,7 @@
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
+      <c r="Z18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1417,6 +1440,7 @@
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19"/>
+      <c r="Z19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1476,6 +1500,7 @@
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
+      <c r="Z20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1535,6 +1560,7 @@
       <c r="W21"/>
       <c r="X21"/>
       <c r="Y21"/>
+      <c r="Z21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1594,6 +1620,7 @@
       </c>
       <c r="X22"/>
       <c r="Y22"/>
+      <c r="Z22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1653,12 +1680,15 @@
         <v>61890</v>
       </c>
       <c r="Y23"/>
+      <c r="Z23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="n">
+        <v>66501</v>
+      </c>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -1710,6 +1740,7 @@
       <c r="Y24" t="n">
         <v>67049</v>
       </c>
+      <c r="Z24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1764,6 +1795,9 @@
       </c>
       <c r="Y25" t="n">
         <v>71646</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>71283</v>
       </c>
     </row>
     <row r="26">
@@ -1817,6 +1851,9 @@
       </c>
       <c r="Y26" t="n">
         <v>77345</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>77145</v>
       </c>
     </row>
     <row r="27">
@@ -1868,6 +1905,9 @@
       </c>
       <c r="Y27" t="n">
         <v>85083</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>84760</v>
       </c>
     </row>
     <row r="28">
@@ -1917,6 +1957,9 @@
       </c>
       <c r="Y28" t="n">
         <v>91409</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>91961</v>
       </c>
     </row>
     <row r="29">
@@ -1964,6 +2007,9 @@
       </c>
       <c r="Y29" t="n">
         <v>99959</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>100507</v>
       </c>
     </row>
     <row r="30">
@@ -2009,6 +2055,9 @@
       </c>
       <c r="Y30" t="n">
         <v>105199</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>107551</v>
       </c>
     </row>
     <row r="31">
@@ -2052,6 +2101,9 @@
       </c>
       <c r="Y31" t="n">
         <v>115887</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>118208</v>
       </c>
     </row>
     <row r="32">
@@ -2093,6 +2145,9 @@
       </c>
       <c r="Y32" t="n">
         <v>123388</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>127747</v>
       </c>
     </row>
     <row r="33">
@@ -2132,6 +2187,9 @@
       </c>
       <c r="Y33" t="n">
         <v>130387</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>136769</v>
       </c>
     </row>
     <row r="34">
@@ -2169,6 +2227,9 @@
       </c>
       <c r="Y34" t="n">
         <v>137236</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>145151</v>
       </c>
     </row>
     <row r="35">
@@ -2204,6 +2265,9 @@
       </c>
       <c r="Y35" t="n">
         <v>143194</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>152631</v>
       </c>
     </row>
     <row r="36">
@@ -2237,6 +2301,9 @@
       </c>
       <c r="Y36" t="n">
         <v>147517</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>158104</v>
       </c>
     </row>
     <row r="37">
@@ -2269,6 +2336,41 @@
       <c r="Y37" t="n">
         <v>153226</v>
       </c>
+      <c r="Z37" t="n">
+        <v>165041</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38" t="n">
+        <v>171322</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2359,6 +2461,9 @@
       </c>
       <c r="Y1" t="s">
         <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -2393,6 +2498,7 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
+      <c r="Z2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2428,6 +2534,7 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
+      <c r="Z3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2465,6 +2572,7 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
+      <c r="Z4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2504,6 +2612,7 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
+      <c r="Z5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2545,6 +2654,7 @@
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
+      <c r="Z6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2588,6 +2698,7 @@
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
+      <c r="Z7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2633,6 +2744,7 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
+      <c r="Z8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2680,6 +2792,7 @@
       <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
+      <c r="Z9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2729,6 +2842,7 @@
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
+      <c r="Z10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2780,6 +2894,7 @@
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
+      <c r="Z11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2833,6 +2948,7 @@
       <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
+      <c r="Z12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2888,6 +3004,7 @@
       <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
+      <c r="Z13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2945,6 +3062,7 @@
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
+      <c r="Z14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3004,6 +3122,7 @@
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15"/>
+      <c r="Z15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3063,6 +3182,7 @@
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
+      <c r="Z16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3122,6 +3242,7 @@
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17"/>
+      <c r="Z17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3181,6 +3302,7 @@
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
+      <c r="Z18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3240,6 +3362,7 @@
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19"/>
+      <c r="Z19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3299,6 +3422,7 @@
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
+      <c r="Z20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3358,6 +3482,7 @@
       <c r="W21"/>
       <c r="X21"/>
       <c r="Y21"/>
+      <c r="Z21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3417,6 +3542,7 @@
       </c>
       <c r="X22"/>
       <c r="Y22"/>
+      <c r="Z22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3476,12 +3602,15 @@
         <v>4380</v>
       </c>
       <c r="Y23"/>
+      <c r="Z23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="n">
+        <v>4543</v>
+      </c>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -3533,6 +3662,7 @@
       <c r="Y24" t="n">
         <v>4761</v>
       </c>
+      <c r="Z24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3587,6 +3717,9 @@
       </c>
       <c r="Y25" t="n">
         <v>5095</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>4873</v>
       </c>
     </row>
     <row r="26">
@@ -3640,6 +3773,9 @@
       </c>
       <c r="Y26" t="n">
         <v>5604</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>5224</v>
       </c>
     </row>
     <row r="27">
@@ -3691,6 +3827,9 @@
       </c>
       <c r="Y27" t="n">
         <v>6253</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>5679</v>
       </c>
     </row>
     <row r="28">
@@ -3740,6 +3879,9 @@
       </c>
       <c r="Y28" t="n">
         <v>6822</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>6071</v>
       </c>
     </row>
     <row r="29">
@@ -3787,6 +3929,9 @@
       </c>
       <c r="Y29" t="n">
         <v>7505</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>6559</v>
       </c>
     </row>
     <row r="30">
@@ -3832,6 +3977,9 @@
       </c>
       <c r="Y30" t="n">
         <v>8064</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>6870</v>
       </c>
     </row>
     <row r="31">
@@ -3875,6 +4023,9 @@
       </c>
       <c r="Y31" t="n">
         <v>8989</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>7445</v>
       </c>
     </row>
     <row r="32">
@@ -3916,6 +4067,9 @@
       </c>
       <c r="Y32" t="n">
         <v>9741</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>7870</v>
       </c>
     </row>
     <row r="33">
@@ -3955,6 +4109,9 @@
       </c>
       <c r="Y33" t="n">
         <v>10498</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>8261</v>
       </c>
     </row>
     <row r="34">
@@ -3992,6 +4149,9 @@
       </c>
       <c r="Y34" t="n">
         <v>11176</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>8643</v>
       </c>
     </row>
     <row r="35">
@@ -4027,6 +4187,9 @@
       </c>
       <c r="Y35" t="n">
         <v>11772</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>8981</v>
       </c>
     </row>
     <row r="36">
@@ -4060,6 +4223,9 @@
       </c>
       <c r="Y36" t="n">
         <v>12142</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>9232</v>
       </c>
     </row>
     <row r="37">
@@ -4092,6 +4258,41 @@
       <c r="Y37" t="n">
         <v>12779</v>
       </c>
+      <c r="Z37" t="n">
+        <v>9544</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38" t="n">
+        <v>9823</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-12</t>
   </si>
 </sst>
 </file>
@@ -543,6 +546,9 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -577,6 +583,7 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -613,6 +620,7 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -651,6 +659,7 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -691,6 +700,7 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -733,6 +743,7 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -777,6 +788,7 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -823,6 +835,7 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
+      <c r="AA8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -871,6 +884,7 @@
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
+      <c r="AA9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -921,6 +935,7 @@
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
+      <c r="AA10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -973,6 +988,7 @@
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
+      <c r="AA11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1027,6 +1043,7 @@
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
+      <c r="AA12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1083,6 +1100,7 @@
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
+      <c r="AA13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1141,6 +1159,7 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
+      <c r="AA14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1201,6 +1220,7 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
+      <c r="AA15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1261,6 +1281,7 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16"/>
+      <c r="AA16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1321,6 +1342,7 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17"/>
+      <c r="AA17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1381,6 +1403,7 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
+      <c r="AA18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1441,6 +1464,7 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
+      <c r="AA19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1501,6 +1525,7 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
+      <c r="AA20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1561,6 +1586,7 @@
       <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
+      <c r="AA21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1621,6 +1647,7 @@
       <c r="X22"/>
       <c r="Y22"/>
       <c r="Z22"/>
+      <c r="AA22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1681,6 +1708,7 @@
       </c>
       <c r="Y23"/>
       <c r="Z23"/>
+      <c r="AA23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1741,12 +1769,15 @@
         <v>67049</v>
       </c>
       <c r="Z24"/>
+      <c r="AA24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25"/>
+      <c r="B25" t="n">
+        <v>71886</v>
+      </c>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -1799,6 +1830,7 @@
       <c r="Z25" t="n">
         <v>71283</v>
       </c>
+      <c r="AA25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1854,6 +1886,9 @@
       </c>
       <c r="Z26" t="n">
         <v>77145</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>77450</v>
       </c>
     </row>
     <row r="27">
@@ -1908,6 +1943,9 @@
       </c>
       <c r="Z27" t="n">
         <v>84760</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>84157</v>
       </c>
     </row>
     <row r="28">
@@ -1960,6 +1998,9 @@
       </c>
       <c r="Z28" t="n">
         <v>91961</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>91559</v>
       </c>
     </row>
     <row r="29">
@@ -2010,6 +2051,9 @@
       </c>
       <c r="Z29" t="n">
         <v>100507</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>99806</v>
       </c>
     </row>
     <row r="30">
@@ -2058,6 +2102,9 @@
       </c>
       <c r="Z30" t="n">
         <v>107551</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>107613</v>
       </c>
     </row>
     <row r="31">
@@ -2104,6 +2151,9 @@
       </c>
       <c r="Z31" t="n">
         <v>118208</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>116896</v>
       </c>
     </row>
     <row r="32">
@@ -2148,6 +2198,9 @@
       </c>
       <c r="Z32" t="n">
         <v>127747</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>126813</v>
       </c>
     </row>
     <row r="33">
@@ -2190,6 +2243,9 @@
       </c>
       <c r="Z33" t="n">
         <v>136769</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>136577</v>
       </c>
     </row>
     <row r="34">
@@ -2230,6 +2286,9 @@
       </c>
       <c r="Z34" t="n">
         <v>145151</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>145894</v>
       </c>
     </row>
     <row r="35">
@@ -2268,6 +2327,9 @@
       </c>
       <c r="Z35" t="n">
         <v>152631</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>154588</v>
       </c>
     </row>
     <row r="36">
@@ -2304,6 +2366,9 @@
       </c>
       <c r="Z36" t="n">
         <v>158104</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>162108</v>
       </c>
     </row>
     <row r="37">
@@ -2338,6 +2403,9 @@
       </c>
       <c r="Z37" t="n">
         <v>165041</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>169211</v>
       </c>
     </row>
     <row r="38">
@@ -2371,6 +2439,42 @@
       <c r="Z38" t="n">
         <v>171322</v>
       </c>
+      <c r="AA38" t="n">
+        <v>176075</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39" t="n">
+        <v>182374</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2464,6 +2568,9 @@
       </c>
       <c r="Z1" t="s">
         <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -2499,6 +2606,7 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2535,6 +2643,7 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2573,6 +2682,7 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2613,6 +2723,7 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2655,6 +2766,7 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2699,6 +2811,7 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2745,6 +2858,7 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
+      <c r="AA8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2793,6 +2907,7 @@
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
+      <c r="AA9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2843,6 +2958,7 @@
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
+      <c r="AA10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2895,6 +3011,7 @@
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
+      <c r="AA11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2949,6 +3066,7 @@
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
+      <c r="AA12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3005,6 +3123,7 @@
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
+      <c r="AA13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3063,6 +3182,7 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
+      <c r="AA14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3123,6 +3243,7 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
+      <c r="AA15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3183,6 +3304,7 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16"/>
+      <c r="AA16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3243,6 +3365,7 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17"/>
+      <c r="AA17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3303,6 +3426,7 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
+      <c r="AA18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3363,6 +3487,7 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
+      <c r="AA19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3423,6 +3548,7 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
+      <c r="AA20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3483,6 +3609,7 @@
       <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
+      <c r="AA21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3543,6 +3670,7 @@
       <c r="X22"/>
       <c r="Y22"/>
       <c r="Z22"/>
+      <c r="AA22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3603,6 +3731,7 @@
       </c>
       <c r="Y23"/>
       <c r="Z23"/>
+      <c r="AA23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3663,12 +3792,15 @@
         <v>4761</v>
       </c>
       <c r="Z24"/>
+      <c r="AA24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25"/>
+      <c r="B25" t="n">
+        <v>5017</v>
+      </c>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -3721,6 +3853,7 @@
       <c r="Z25" t="n">
         <v>4873</v>
       </c>
+      <c r="AA25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -3776,6 +3909,9 @@
       </c>
       <c r="Z26" t="n">
         <v>5224</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>5348</v>
       </c>
     </row>
     <row r="27">
@@ -3830,6 +3966,9 @@
       </c>
       <c r="Z27" t="n">
         <v>5679</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>5873</v>
       </c>
     </row>
     <row r="28">
@@ -3882,6 +4021,9 @@
       </c>
       <c r="Z28" t="n">
         <v>6071</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6355</v>
       </c>
     </row>
     <row r="29">
@@ -3932,6 +4074,9 @@
       </c>
       <c r="Z29" t="n">
         <v>6559</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6962</v>
       </c>
     </row>
     <row r="30">
@@ -3980,6 +4125,9 @@
       </c>
       <c r="Z30" t="n">
         <v>6870</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>7413</v>
       </c>
     </row>
     <row r="31">
@@ -4026,6 +4174,9 @@
       </c>
       <c r="Z31" t="n">
         <v>7445</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>8148</v>
       </c>
     </row>
     <row r="32">
@@ -4070,6 +4221,9 @@
       </c>
       <c r="Z32" t="n">
         <v>7870</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>8764</v>
       </c>
     </row>
     <row r="33">
@@ -4112,6 +4266,9 @@
       </c>
       <c r="Z33" t="n">
         <v>8261</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>9336</v>
       </c>
     </row>
     <row r="34">
@@ -4152,6 +4309,9 @@
       </c>
       <c r="Z34" t="n">
         <v>8643</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>9888</v>
       </c>
     </row>
     <row r="35">
@@ -4190,6 +4350,9 @@
       </c>
       <c r="Z35" t="n">
         <v>8981</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>10380</v>
       </c>
     </row>
     <row r="36">
@@ -4226,6 +4389,9 @@
       </c>
       <c r="Z36" t="n">
         <v>9232</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>10764</v>
       </c>
     </row>
     <row r="37">
@@ -4260,6 +4426,9 @@
       </c>
       <c r="Z37" t="n">
         <v>9544</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>11206</v>
       </c>
     </row>
     <row r="38">
@@ -4293,6 +4462,42 @@
       <c r="Z38" t="n">
         <v>9823</v>
       </c>
+      <c r="AA38" t="n">
+        <v>11612</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39" t="n">
+        <v>11943</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-13</t>
   </si>
 </sst>
 </file>
@@ -549,6 +552,9 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -584,6 +590,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
+      <c r="AB2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -621,6 +628,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
+      <c r="AB3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -660,6 +668,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
+      <c r="AB4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -701,6 +710,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
+      <c r="AB5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -744,6 +754,7 @@
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
+      <c r="AB6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -789,6 +800,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
+      <c r="AB7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -836,6 +848,7 @@
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
+      <c r="AB8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -885,6 +898,7 @@
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
+      <c r="AB9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -936,6 +950,7 @@
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
+      <c r="AB10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -989,6 +1004,7 @@
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
+      <c r="AB11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1044,6 +1060,7 @@
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
+      <c r="AB12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1101,6 +1118,7 @@
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
+      <c r="AB13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1160,6 +1178,7 @@
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
+      <c r="AB14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1221,6 +1240,7 @@
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
+      <c r="AB15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1282,6 +1302,7 @@
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
+      <c r="AB16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1343,6 +1364,7 @@
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
+      <c r="AB17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1404,6 +1426,7 @@
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
+      <c r="AB18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1465,6 +1488,7 @@
       <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
+      <c r="AB19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1526,6 +1550,7 @@
       <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20"/>
+      <c r="AB20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1587,6 +1612,7 @@
       <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
+      <c r="AB21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1648,6 +1674,7 @@
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
+      <c r="AB22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1709,6 +1736,7 @@
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
+      <c r="AB23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1770,6 +1798,7 @@
       </c>
       <c r="Z24"/>
       <c r="AA24"/>
+      <c r="AB24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1831,12 +1860,15 @@
         <v>71283</v>
       </c>
       <c r="AA25"/>
+      <c r="AB25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26"/>
+      <c r="B26" t="n">
+        <v>78162</v>
+      </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -1890,6 +1922,7 @@
       <c r="AA26" t="n">
         <v>77450</v>
       </c>
+      <c r="AB26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1946,6 +1979,9 @@
       </c>
       <c r="AA27" t="n">
         <v>84157</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>84920</v>
       </c>
     </row>
     <row r="28">
@@ -2001,6 +2037,9 @@
       </c>
       <c r="AA28" t="n">
         <v>91559</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>92411</v>
       </c>
     </row>
     <row r="29">
@@ -2054,6 +2093,9 @@
       </c>
       <c r="AA29" t="n">
         <v>99806</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>100756</v>
       </c>
     </row>
     <row r="30">
@@ -2105,6 +2147,9 @@
       </c>
       <c r="AA30" t="n">
         <v>107613</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>108573</v>
       </c>
     </row>
     <row r="31">
@@ -2154,6 +2199,9 @@
       </c>
       <c r="AA31" t="n">
         <v>116896</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>118002</v>
       </c>
     </row>
     <row r="32">
@@ -2201,6 +2249,9 @@
       </c>
       <c r="AA32" t="n">
         <v>126813</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>127991</v>
       </c>
     </row>
     <row r="33">
@@ -2246,6 +2297,9 @@
       </c>
       <c r="AA33" t="n">
         <v>136577</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>138144</v>
       </c>
     </row>
     <row r="34">
@@ -2289,6 +2343,9 @@
       </c>
       <c r="AA34" t="n">
         <v>145894</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>147911</v>
       </c>
     </row>
     <row r="35">
@@ -2330,6 +2387,9 @@
       </c>
       <c r="AA35" t="n">
         <v>154588</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>157099</v>
       </c>
     </row>
     <row r="36">
@@ -2369,6 +2429,9 @@
       </c>
       <c r="AA36" t="n">
         <v>162108</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>165135</v>
       </c>
     </row>
     <row r="37">
@@ -2406,6 +2469,9 @@
       </c>
       <c r="AA37" t="n">
         <v>169211</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>172733</v>
       </c>
     </row>
     <row r="38">
@@ -2441,6 +2507,9 @@
       </c>
       <c r="AA38" t="n">
         <v>176075</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>180048</v>
       </c>
     </row>
     <row r="39">
@@ -2475,6 +2544,43 @@
       <c r="AA39" t="n">
         <v>182374</v>
       </c>
+      <c r="AB39" t="n">
+        <v>186892</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40" t="n">
+        <v>193040</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2571,6 +2677,9 @@
       </c>
       <c r="AA1" t="s">
         <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -2607,6 +2716,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
+      <c r="AB2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2644,6 +2754,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
+      <c r="AB3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2683,6 +2794,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
+      <c r="AB4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2724,6 +2836,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
+      <c r="AB5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2767,6 +2880,7 @@
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
+      <c r="AB6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2812,6 +2926,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
+      <c r="AB7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2859,6 +2974,7 @@
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
+      <c r="AB8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2908,6 +3024,7 @@
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
+      <c r="AB9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2959,6 +3076,7 @@
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
+      <c r="AB10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3012,6 +3130,7 @@
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
+      <c r="AB11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3067,6 +3186,7 @@
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
+      <c r="AB12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3124,6 +3244,7 @@
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
+      <c r="AB13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3183,6 +3304,7 @@
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
+      <c r="AB14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3244,6 +3366,7 @@
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
+      <c r="AB15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3305,6 +3428,7 @@
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
+      <c r="AB16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3366,6 +3490,7 @@
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
+      <c r="AB17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3427,6 +3552,7 @@
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
+      <c r="AB18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3488,6 +3614,7 @@
       <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
+      <c r="AB19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3549,6 +3676,7 @@
       <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20"/>
+      <c r="AB20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3610,6 +3738,7 @@
       <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
+      <c r="AB21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3671,6 +3800,7 @@
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
+      <c r="AB22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3732,6 +3862,7 @@
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
+      <c r="AB23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3793,6 +3924,7 @@
       </c>
       <c r="Z24"/>
       <c r="AA24"/>
+      <c r="AB24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3854,12 +3986,15 @@
         <v>4873</v>
       </c>
       <c r="AA25"/>
+      <c r="AB25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26"/>
+      <c r="B26" t="n">
+        <v>5466</v>
+      </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -3913,6 +4048,7 @@
       <c r="AA26" t="n">
         <v>5348</v>
       </c>
+      <c r="AB26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -3969,6 +4105,9 @@
       </c>
       <c r="AA27" t="n">
         <v>5873</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>5986</v>
       </c>
     </row>
     <row r="28">
@@ -4024,6 +4163,9 @@
       </c>
       <c r="AA28" t="n">
         <v>6355</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>6559</v>
       </c>
     </row>
     <row r="29">
@@ -4077,6 +4219,9 @@
       </c>
       <c r="AA29" t="n">
         <v>6962</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>7215</v>
       </c>
     </row>
     <row r="30">
@@ -4128,6 +4273,9 @@
       </c>
       <c r="AA30" t="n">
         <v>7413</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7829</v>
       </c>
     </row>
     <row r="31">
@@ -4177,6 +4325,9 @@
       </c>
       <c r="AA31" t="n">
         <v>8148</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8592</v>
       </c>
     </row>
     <row r="32">
@@ -4224,6 +4375,9 @@
       </c>
       <c r="AA32" t="n">
         <v>8764</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9393</v>
       </c>
     </row>
     <row r="33">
@@ -4269,6 +4423,9 @@
       </c>
       <c r="AA33" t="n">
         <v>9336</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>10187</v>
       </c>
     </row>
     <row r="34">
@@ -4312,6 +4469,9 @@
       </c>
       <c r="AA34" t="n">
         <v>9888</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>10955</v>
       </c>
     </row>
     <row r="35">
@@ -4353,6 +4513,9 @@
       </c>
       <c r="AA35" t="n">
         <v>10380</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>11675</v>
       </c>
     </row>
     <row r="36">
@@ -4392,6 +4555,9 @@
       </c>
       <c r="AA36" t="n">
         <v>10764</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>12299</v>
       </c>
     </row>
     <row r="37">
@@ -4429,6 +4595,9 @@
       </c>
       <c r="AA37" t="n">
         <v>11206</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>12903</v>
       </c>
     </row>
     <row r="38">
@@ -4464,6 +4633,9 @@
       </c>
       <c r="AA38" t="n">
         <v>11612</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>13483</v>
       </c>
     </row>
     <row r="39">
@@ -4498,6 +4670,43 @@
       <c r="AA39" t="n">
         <v>11943</v>
       </c>
+      <c r="AB39" t="n">
+        <v>14011</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40" t="n">
+        <v>14503</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-14</t>
   </si>
 </sst>
 </file>
@@ -555,6 +558,9 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -591,6 +597,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
+      <c r="AC2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -629,6 +636,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
+      <c r="AC3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -669,6 +677,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
+      <c r="AC4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -711,6 +720,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
+      <c r="AC5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -755,6 +765,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
+      <c r="AC6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -801,6 +812,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
       <c r="AB7"/>
+      <c r="AC7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -849,6 +861,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
+      <c r="AC8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -899,6 +912,7 @@
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9"/>
+      <c r="AC9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -951,6 +965,7 @@
       <c r="Z10"/>
       <c r="AA10"/>
       <c r="AB10"/>
+      <c r="AC10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1005,6 +1020,7 @@
       <c r="Z11"/>
       <c r="AA11"/>
       <c r="AB11"/>
+      <c r="AC11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1061,6 +1077,7 @@
       <c r="Z12"/>
       <c r="AA12"/>
       <c r="AB12"/>
+      <c r="AC12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1119,6 +1136,7 @@
       <c r="Z13"/>
       <c r="AA13"/>
       <c r="AB13"/>
+      <c r="AC13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1179,6 +1197,7 @@
       <c r="Z14"/>
       <c r="AA14"/>
       <c r="AB14"/>
+      <c r="AC14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1241,6 +1260,7 @@
       <c r="Z15"/>
       <c r="AA15"/>
       <c r="AB15"/>
+      <c r="AC15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1303,6 +1323,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
       <c r="AB16"/>
+      <c r="AC16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1365,6 +1386,7 @@
       <c r="Z17"/>
       <c r="AA17"/>
       <c r="AB17"/>
+      <c r="AC17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1427,6 +1449,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
       <c r="AB18"/>
+      <c r="AC18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1489,6 +1512,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
       <c r="AB19"/>
+      <c r="AC19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1551,6 +1575,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
       <c r="AB20"/>
+      <c r="AC20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1613,6 +1638,7 @@
       <c r="Z21"/>
       <c r="AA21"/>
       <c r="AB21"/>
+      <c r="AC21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1675,6 +1701,7 @@
       <c r="Z22"/>
       <c r="AA22"/>
       <c r="AB22"/>
+      <c r="AC22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1737,6 +1764,7 @@
       <c r="Z23"/>
       <c r="AA23"/>
       <c r="AB23"/>
+      <c r="AC23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1799,6 +1827,7 @@
       <c r="Z24"/>
       <c r="AA24"/>
       <c r="AB24"/>
+      <c r="AC24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1861,6 +1890,7 @@
       </c>
       <c r="AA25"/>
       <c r="AB25"/>
+      <c r="AC25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1923,12 +1953,15 @@
         <v>77450</v>
       </c>
       <c r="AB26"/>
+      <c r="AC26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27"/>
+      <c r="B27" t="n">
+        <v>85380</v>
+      </c>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -1983,6 +2016,7 @@
       <c r="AB27" t="n">
         <v>84920</v>
       </c>
+      <c r="AC27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2040,6 +2074,9 @@
       </c>
       <c r="AB28" t="n">
         <v>92411</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>93111</v>
       </c>
     </row>
     <row r="29">
@@ -2096,6 +2133,9 @@
       </c>
       <c r="AB29" t="n">
         <v>100756</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>101323</v>
       </c>
     </row>
     <row r="30">
@@ -2150,6 +2190,9 @@
       </c>
       <c r="AB30" t="n">
         <v>108573</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>110241</v>
       </c>
     </row>
     <row r="31">
@@ -2202,6 +2245,9 @@
       </c>
       <c r="AB31" t="n">
         <v>118002</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>119803</v>
       </c>
     </row>
     <row r="32">
@@ -2252,6 +2298,9 @@
       </c>
       <c r="AB32" t="n">
         <v>127991</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>130264</v>
       </c>
     </row>
     <row r="33">
@@ -2300,6 +2349,9 @@
       </c>
       <c r="AB33" t="n">
         <v>138144</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>141690</v>
       </c>
     </row>
     <row r="34">
@@ -2346,6 +2398,9 @@
       </c>
       <c r="AB34" t="n">
         <v>147911</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>152338</v>
       </c>
     </row>
     <row r="35">
@@ -2390,6 +2445,9 @@
       </c>
       <c r="AB35" t="n">
         <v>157099</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>162414</v>
       </c>
     </row>
     <row r="36">
@@ -2432,6 +2490,9 @@
       </c>
       <c r="AB36" t="n">
         <v>165135</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>170960</v>
       </c>
     </row>
     <row r="37">
@@ -2472,6 +2533,9 @@
       </c>
       <c r="AB37" t="n">
         <v>172733</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>179848</v>
       </c>
     </row>
     <row r="38">
@@ -2510,6 +2574,9 @@
       </c>
       <c r="AB38" t="n">
         <v>180048</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>188530</v>
       </c>
     </row>
     <row r="39">
@@ -2546,6 +2613,9 @@
       </c>
       <c r="AB39" t="n">
         <v>186892</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>197634</v>
       </c>
     </row>
     <row r="40">
@@ -2581,6 +2651,44 @@
       <c r="AB40" t="n">
         <v>193040</v>
       </c>
+      <c r="AC40" t="n">
+        <v>204842</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41" t="n">
+        <v>211978</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2680,6 +2788,9 @@
       </c>
       <c r="AB1" t="s">
         <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -2717,6 +2828,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
+      <c r="AC2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2755,6 +2867,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
+      <c r="AC3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2795,6 +2908,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
+      <c r="AC4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2837,6 +2951,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
+      <c r="AC5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2881,6 +2996,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
+      <c r="AC6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2927,6 +3043,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
       <c r="AB7"/>
+      <c r="AC7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2975,6 +3092,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
+      <c r="AC8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3025,6 +3143,7 @@
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9"/>
+      <c r="AC9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3077,6 +3196,7 @@
       <c r="Z10"/>
       <c r="AA10"/>
       <c r="AB10"/>
+      <c r="AC10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3131,6 +3251,7 @@
       <c r="Z11"/>
       <c r="AA11"/>
       <c r="AB11"/>
+      <c r="AC11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3187,6 +3308,7 @@
       <c r="Z12"/>
       <c r="AA12"/>
       <c r="AB12"/>
+      <c r="AC12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3245,6 +3367,7 @@
       <c r="Z13"/>
       <c r="AA13"/>
       <c r="AB13"/>
+      <c r="AC13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3305,6 +3428,7 @@
       <c r="Z14"/>
       <c r="AA14"/>
       <c r="AB14"/>
+      <c r="AC14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3367,6 +3491,7 @@
       <c r="Z15"/>
       <c r="AA15"/>
       <c r="AB15"/>
+      <c r="AC15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3429,6 +3554,7 @@
       <c r="Z16"/>
       <c r="AA16"/>
       <c r="AB16"/>
+      <c r="AC16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3491,6 +3617,7 @@
       <c r="Z17"/>
       <c r="AA17"/>
       <c r="AB17"/>
+      <c r="AC17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3553,6 +3680,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
       <c r="AB18"/>
+      <c r="AC18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3615,6 +3743,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
       <c r="AB19"/>
+      <c r="AC19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3677,6 +3806,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
       <c r="AB20"/>
+      <c r="AC20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3739,6 +3869,7 @@
       <c r="Z21"/>
       <c r="AA21"/>
       <c r="AB21"/>
+      <c r="AC21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3801,6 +3932,7 @@
       <c r="Z22"/>
       <c r="AA22"/>
       <c r="AB22"/>
+      <c r="AC22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3863,6 +3995,7 @@
       <c r="Z23"/>
       <c r="AA23"/>
       <c r="AB23"/>
+      <c r="AC23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3925,6 +4058,7 @@
       <c r="Z24"/>
       <c r="AA24"/>
       <c r="AB24"/>
+      <c r="AC24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3987,6 +4121,7 @@
       </c>
       <c r="AA25"/>
       <c r="AB25"/>
+      <c r="AC25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4049,12 +4184,15 @@
         <v>5348</v>
       </c>
       <c r="AB26"/>
+      <c r="AC26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27"/>
+      <c r="B27" t="n">
+        <v>5901</v>
+      </c>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -4109,6 +4247,7 @@
       <c r="AB27" t="n">
         <v>5986</v>
       </c>
+      <c r="AC27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -4166,6 +4305,9 @@
       </c>
       <c r="AB28" t="n">
         <v>6559</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>6498</v>
       </c>
     </row>
     <row r="29">
@@ -4222,6 +4364,9 @@
       </c>
       <c r="AB29" t="n">
         <v>7215</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7132</v>
       </c>
     </row>
     <row r="30">
@@ -4276,6 +4421,9 @@
       </c>
       <c r="AB30" t="n">
         <v>7829</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7690</v>
       </c>
     </row>
     <row r="31">
@@ -4328,6 +4476,9 @@
       </c>
       <c r="AB31" t="n">
         <v>8592</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8430</v>
       </c>
     </row>
     <row r="32">
@@ -4378,6 +4529,9 @@
       </c>
       <c r="AB32" t="n">
         <v>9393</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9144</v>
       </c>
     </row>
     <row r="33">
@@ -4426,6 +4580,9 @@
       </c>
       <c r="AB33" t="n">
         <v>10187</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9851</v>
       </c>
     </row>
     <row r="34">
@@ -4472,6 +4629,9 @@
       </c>
       <c r="AB34" t="n">
         <v>10955</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10531</v>
       </c>
     </row>
     <row r="35">
@@ -4516,6 +4676,9 @@
       </c>
       <c r="AB35" t="n">
         <v>11675</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>11161</v>
       </c>
     </row>
     <row r="36">
@@ -4558,6 +4721,9 @@
       </c>
       <c r="AB36" t="n">
         <v>12299</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>11700</v>
       </c>
     </row>
     <row r="37">
@@ -4598,6 +4764,9 @@
       </c>
       <c r="AB37" t="n">
         <v>12903</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>12243</v>
       </c>
     </row>
     <row r="38">
@@ -4636,6 +4805,9 @@
       </c>
       <c r="AB38" t="n">
         <v>13483</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>12761</v>
       </c>
     </row>
     <row r="39">
@@ -4672,6 +4844,9 @@
       </c>
       <c r="AB39" t="n">
         <v>14011</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>13227</v>
       </c>
     </row>
     <row r="40">
@@ -4707,6 +4882,44 @@
       <c r="AB40" t="n">
         <v>14503</v>
       </c>
+      <c r="AC40" t="n">
+        <v>13665</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41" t="n">
+        <v>14076</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-15</t>
   </si>
 </sst>
 </file>
@@ -561,6 +564,9 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -598,6 +604,7 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
+      <c r="AD2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -637,6 +644,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
+      <c r="AD3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -678,6 +686,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
+      <c r="AD4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -721,6 +730,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
+      <c r="AD5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -766,6 +776,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
+      <c r="AD6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -813,6 +824,7 @@
       <c r="AA7"/>
       <c r="AB7"/>
       <c r="AC7"/>
+      <c r="AD7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -862,6 +874,7 @@
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
+      <c r="AD8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -913,6 +926,7 @@
       <c r="AA9"/>
       <c r="AB9"/>
       <c r="AC9"/>
+      <c r="AD9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -966,6 +980,7 @@
       <c r="AA10"/>
       <c r="AB10"/>
       <c r="AC10"/>
+      <c r="AD10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1021,6 +1036,7 @@
       <c r="AA11"/>
       <c r="AB11"/>
       <c r="AC11"/>
+      <c r="AD11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1078,6 +1094,7 @@
       <c r="AA12"/>
       <c r="AB12"/>
       <c r="AC12"/>
+      <c r="AD12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1137,6 +1154,7 @@
       <c r="AA13"/>
       <c r="AB13"/>
       <c r="AC13"/>
+      <c r="AD13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1198,6 +1216,7 @@
       <c r="AA14"/>
       <c r="AB14"/>
       <c r="AC14"/>
+      <c r="AD14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1261,6 +1280,7 @@
       <c r="AA15"/>
       <c r="AB15"/>
       <c r="AC15"/>
+      <c r="AD15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1324,6 +1344,7 @@
       <c r="AA16"/>
       <c r="AB16"/>
       <c r="AC16"/>
+      <c r="AD16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1387,6 +1408,7 @@
       <c r="AA17"/>
       <c r="AB17"/>
       <c r="AC17"/>
+      <c r="AD17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1450,6 +1472,7 @@
       <c r="AA18"/>
       <c r="AB18"/>
       <c r="AC18"/>
+      <c r="AD18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1513,6 +1536,7 @@
       <c r="AA19"/>
       <c r="AB19"/>
       <c r="AC19"/>
+      <c r="AD19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1576,6 +1600,7 @@
       <c r="AA20"/>
       <c r="AB20"/>
       <c r="AC20"/>
+      <c r="AD20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1639,6 +1664,7 @@
       <c r="AA21"/>
       <c r="AB21"/>
       <c r="AC21"/>
+      <c r="AD21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1702,6 +1728,7 @@
       <c r="AA22"/>
       <c r="AB22"/>
       <c r="AC22"/>
+      <c r="AD22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1765,6 +1792,7 @@
       <c r="AA23"/>
       <c r="AB23"/>
       <c r="AC23"/>
+      <c r="AD23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1828,6 +1856,7 @@
       <c r="AA24"/>
       <c r="AB24"/>
       <c r="AC24"/>
+      <c r="AD24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1891,6 +1920,7 @@
       <c r="AA25"/>
       <c r="AB25"/>
       <c r="AC25"/>
+      <c r="AD25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1954,6 +1984,7 @@
       </c>
       <c r="AB26"/>
       <c r="AC26"/>
+      <c r="AD26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2017,12 +2048,15 @@
         <v>84920</v>
       </c>
       <c r="AC27"/>
+      <c r="AD27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28"/>
+      <c r="B28" t="n">
+        <v>91589</v>
+      </c>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -2078,6 +2112,7 @@
       <c r="AC28" t="n">
         <v>93111</v>
       </c>
+      <c r="AD28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2136,6 +2171,9 @@
       </c>
       <c r="AC29" t="n">
         <v>101323</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>99785</v>
       </c>
     </row>
     <row r="30">
@@ -2193,6 +2231,9 @@
       </c>
       <c r="AC30" t="n">
         <v>110241</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>108368</v>
       </c>
     </row>
     <row r="31">
@@ -2248,6 +2289,9 @@
       </c>
       <c r="AC31" t="n">
         <v>119803</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>117837</v>
       </c>
     </row>
     <row r="32">
@@ -2301,6 +2345,9 @@
       </c>
       <c r="AC32" t="n">
         <v>130264</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>127880</v>
       </c>
     </row>
     <row r="33">
@@ -2352,6 +2399,9 @@
       </c>
       <c r="AC33" t="n">
         <v>141690</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>138725</v>
       </c>
     </row>
     <row r="34">
@@ -2401,6 +2451,9 @@
       </c>
       <c r="AC34" t="n">
         <v>152338</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>148816</v>
       </c>
     </row>
     <row r="35">
@@ -2448,6 +2501,9 @@
       </c>
       <c r="AC35" t="n">
         <v>162414</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>158338</v>
       </c>
     </row>
     <row r="36">
@@ -2493,6 +2549,9 @@
       </c>
       <c r="AC36" t="n">
         <v>170960</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>166448</v>
       </c>
     </row>
     <row r="37">
@@ -2536,6 +2595,9 @@
       </c>
       <c r="AC37" t="n">
         <v>179848</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>174976</v>
       </c>
     </row>
     <row r="38">
@@ -2577,6 +2639,9 @@
       </c>
       <c r="AC38" t="n">
         <v>188530</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>183267</v>
       </c>
     </row>
     <row r="39">
@@ -2616,6 +2681,9 @@
       </c>
       <c r="AC39" t="n">
         <v>197634</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>191803</v>
       </c>
     </row>
     <row r="40">
@@ -2653,6 +2721,9 @@
       </c>
       <c r="AC40" t="n">
         <v>204842</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>198645</v>
       </c>
     </row>
     <row r="41">
@@ -2689,6 +2760,45 @@
       <c r="AC41" t="n">
         <v>211978</v>
       </c>
+      <c r="AD41" t="n">
+        <v>205377</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42" t="n">
+        <v>211351</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2791,6 +2901,9 @@
       </c>
       <c r="AC1" t="s">
         <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -2829,6 +2942,7 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
+      <c r="AD2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2868,6 +2982,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
+      <c r="AD3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2909,6 +3024,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
+      <c r="AD4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2952,6 +3068,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
+      <c r="AD5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2997,6 +3114,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
+      <c r="AD6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3044,6 +3162,7 @@
       <c r="AA7"/>
       <c r="AB7"/>
       <c r="AC7"/>
+      <c r="AD7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3093,6 +3212,7 @@
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
+      <c r="AD8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3144,6 +3264,7 @@
       <c r="AA9"/>
       <c r="AB9"/>
       <c r="AC9"/>
+      <c r="AD9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3197,6 +3318,7 @@
       <c r="AA10"/>
       <c r="AB10"/>
       <c r="AC10"/>
+      <c r="AD10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3252,6 +3374,7 @@
       <c r="AA11"/>
       <c r="AB11"/>
       <c r="AC11"/>
+      <c r="AD11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3309,6 +3432,7 @@
       <c r="AA12"/>
       <c r="AB12"/>
       <c r="AC12"/>
+      <c r="AD12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3368,6 +3492,7 @@
       <c r="AA13"/>
       <c r="AB13"/>
       <c r="AC13"/>
+      <c r="AD13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3429,6 +3554,7 @@
       <c r="AA14"/>
       <c r="AB14"/>
       <c r="AC14"/>
+      <c r="AD14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3492,6 +3618,7 @@
       <c r="AA15"/>
       <c r="AB15"/>
       <c r="AC15"/>
+      <c r="AD15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3555,6 +3682,7 @@
       <c r="AA16"/>
       <c r="AB16"/>
       <c r="AC16"/>
+      <c r="AD16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3618,6 +3746,7 @@
       <c r="AA17"/>
       <c r="AB17"/>
       <c r="AC17"/>
+      <c r="AD17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3681,6 +3810,7 @@
       <c r="AA18"/>
       <c r="AB18"/>
       <c r="AC18"/>
+      <c r="AD18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3744,6 +3874,7 @@
       <c r="AA19"/>
       <c r="AB19"/>
       <c r="AC19"/>
+      <c r="AD19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3807,6 +3938,7 @@
       <c r="AA20"/>
       <c r="AB20"/>
       <c r="AC20"/>
+      <c r="AD20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3870,6 +4002,7 @@
       <c r="AA21"/>
       <c r="AB21"/>
       <c r="AC21"/>
+      <c r="AD21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3933,6 +4066,7 @@
       <c r="AA22"/>
       <c r="AB22"/>
       <c r="AC22"/>
+      <c r="AD22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3996,6 +4130,7 @@
       <c r="AA23"/>
       <c r="AB23"/>
       <c r="AC23"/>
+      <c r="AD23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4059,6 +4194,7 @@
       <c r="AA24"/>
       <c r="AB24"/>
       <c r="AC24"/>
+      <c r="AD24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4122,6 +4258,7 @@
       <c r="AA25"/>
       <c r="AB25"/>
       <c r="AC25"/>
+      <c r="AD25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4185,6 +4322,7 @@
       </c>
       <c r="AB26"/>
       <c r="AC26"/>
+      <c r="AD26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4248,12 +4386,15 @@
         <v>5986</v>
       </c>
       <c r="AC27"/>
+      <c r="AD27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28"/>
+      <c r="B28" t="n">
+        <v>6329</v>
+      </c>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -4309,6 +4450,7 @@
       <c r="AC28" t="n">
         <v>6498</v>
       </c>
+      <c r="AD28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -4367,6 +4509,9 @@
       </c>
       <c r="AC29" t="n">
         <v>7132</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7020</v>
       </c>
     </row>
     <row r="30">
@@ -4424,6 +4569,9 @@
       </c>
       <c r="AC30" t="n">
         <v>7690</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7414</v>
       </c>
     </row>
     <row r="31">
@@ -4479,6 +4627,9 @@
       </c>
       <c r="AC31" t="n">
         <v>8430</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>8235</v>
       </c>
     </row>
     <row r="32">
@@ -4532,6 +4683,9 @@
       </c>
       <c r="AC32" t="n">
         <v>9144</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>8802</v>
       </c>
     </row>
     <row r="33">
@@ -4583,6 +4737,9 @@
       </c>
       <c r="AC33" t="n">
         <v>9851</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>9331</v>
       </c>
     </row>
     <row r="34">
@@ -4632,6 +4789,9 @@
       </c>
       <c r="AC34" t="n">
         <v>10531</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>9851</v>
       </c>
     </row>
     <row r="35">
@@ -4679,6 +4839,9 @@
       </c>
       <c r="AC35" t="n">
         <v>11161</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>10301</v>
       </c>
     </row>
     <row r="36">
@@ -4724,6 +4887,9 @@
       </c>
       <c r="AC36" t="n">
         <v>11700</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>10626</v>
       </c>
     </row>
     <row r="37">
@@ -4767,6 +4933,9 @@
       </c>
       <c r="AC37" t="n">
         <v>12243</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>11067</v>
       </c>
     </row>
     <row r="38">
@@ -4808,6 +4977,9 @@
       </c>
       <c r="AC38" t="n">
         <v>12761</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>11454</v>
       </c>
     </row>
     <row r="39">
@@ -4847,6 +5019,9 @@
       </c>
       <c r="AC39" t="n">
         <v>13227</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>11752</v>
       </c>
     </row>
     <row r="40">
@@ -4884,6 +5059,9 @@
       </c>
       <c r="AC40" t="n">
         <v>13665</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>12095</v>
       </c>
     </row>
     <row r="41">
@@ -4920,6 +5098,45 @@
       <c r="AC41" t="n">
         <v>14076</v>
       </c>
+      <c r="AD41" t="n">
+        <v>12379</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42" t="n">
+        <v>12806</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-16</t>
   </si>
 </sst>
 </file>
@@ -567,6 +570,9 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -605,6 +611,7 @@
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
+      <c r="AE2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -645,6 +652,7 @@
       <c r="AB3"/>
       <c r="AC3"/>
       <c r="AD3"/>
+      <c r="AE3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -687,6 +695,7 @@
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
+      <c r="AE4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -731,6 +740,7 @@
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
+      <c r="AE5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -777,6 +787,7 @@
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
+      <c r="AE6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -825,6 +836,7 @@
       <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7"/>
+      <c r="AE7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -875,6 +887,7 @@
       <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8"/>
+      <c r="AE8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -927,6 +940,7 @@
       <c r="AB9"/>
       <c r="AC9"/>
       <c r="AD9"/>
+      <c r="AE9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -981,6 +995,7 @@
       <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10"/>
+      <c r="AE10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1037,6 +1052,7 @@
       <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11"/>
+      <c r="AE11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1095,6 +1111,7 @@
       <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12"/>
+      <c r="AE12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1155,6 +1172,7 @@
       <c r="AB13"/>
       <c r="AC13"/>
       <c r="AD13"/>
+      <c r="AE13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1217,6 +1235,7 @@
       <c r="AB14"/>
       <c r="AC14"/>
       <c r="AD14"/>
+      <c r="AE14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1281,6 +1300,7 @@
       <c r="AB15"/>
       <c r="AC15"/>
       <c r="AD15"/>
+      <c r="AE15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1345,6 +1365,7 @@
       <c r="AB16"/>
       <c r="AC16"/>
       <c r="AD16"/>
+      <c r="AE16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1409,6 +1430,7 @@
       <c r="AB17"/>
       <c r="AC17"/>
       <c r="AD17"/>
+      <c r="AE17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1473,6 +1495,7 @@
       <c r="AB18"/>
       <c r="AC18"/>
       <c r="AD18"/>
+      <c r="AE18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1537,6 +1560,7 @@
       <c r="AB19"/>
       <c r="AC19"/>
       <c r="AD19"/>
+      <c r="AE19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1601,6 +1625,7 @@
       <c r="AB20"/>
       <c r="AC20"/>
       <c r="AD20"/>
+      <c r="AE20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1665,6 +1690,7 @@
       <c r="AB21"/>
       <c r="AC21"/>
       <c r="AD21"/>
+      <c r="AE21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1729,6 +1755,7 @@
       <c r="AB22"/>
       <c r="AC22"/>
       <c r="AD22"/>
+      <c r="AE22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1793,6 +1820,7 @@
       <c r="AB23"/>
       <c r="AC23"/>
       <c r="AD23"/>
+      <c r="AE23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1857,6 +1885,7 @@
       <c r="AB24"/>
       <c r="AC24"/>
       <c r="AD24"/>
+      <c r="AE24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1921,6 +1950,7 @@
       <c r="AB25"/>
       <c r="AC25"/>
       <c r="AD25"/>
+      <c r="AE25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1985,6 +2015,7 @@
       <c r="AB26"/>
       <c r="AC26"/>
       <c r="AD26"/>
+      <c r="AE26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2049,6 +2080,7 @@
       </c>
       <c r="AC27"/>
       <c r="AD27"/>
+      <c r="AE27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2113,12 +2145,15 @@
         <v>93111</v>
       </c>
       <c r="AD28"/>
+      <c r="AE28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="n">
+        <v>96559</v>
+      </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -2175,6 +2210,7 @@
       <c r="AD29" t="n">
         <v>99785</v>
       </c>
+      <c r="AE29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2234,6 +2270,9 @@
       </c>
       <c r="AD30" t="n">
         <v>108368</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>104339</v>
       </c>
     </row>
     <row r="31">
@@ -2292,6 +2331,9 @@
       </c>
       <c r="AD31" t="n">
         <v>117837</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>112925</v>
       </c>
     </row>
     <row r="32">
@@ -2348,6 +2390,9 @@
       </c>
       <c r="AD32" t="n">
         <v>127880</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>121944</v>
       </c>
     </row>
     <row r="33">
@@ -2402,6 +2447,9 @@
       </c>
       <c r="AD33" t="n">
         <v>138725</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>130957</v>
       </c>
     </row>
     <row r="34">
@@ -2454,6 +2502,9 @@
       </c>
       <c r="AD34" t="n">
         <v>148816</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>139531</v>
       </c>
     </row>
     <row r="35">
@@ -2504,6 +2555,9 @@
       </c>
       <c r="AD35" t="n">
         <v>158338</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>147587</v>
       </c>
     </row>
     <row r="36">
@@ -2552,6 +2606,9 @@
       </c>
       <c r="AD36" t="n">
         <v>166448</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>154685</v>
       </c>
     </row>
     <row r="37">
@@ -2598,6 +2655,9 @@
       </c>
       <c r="AD37" t="n">
         <v>174976</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>161263</v>
       </c>
     </row>
     <row r="38">
@@ -2642,6 +2702,9 @@
       </c>
       <c r="AD38" t="n">
         <v>183267</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>167652</v>
       </c>
     </row>
     <row r="39">
@@ -2684,6 +2747,9 @@
       </c>
       <c r="AD39" t="n">
         <v>191803</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>173638</v>
       </c>
     </row>
     <row r="40">
@@ -2724,6 +2790,9 @@
       </c>
       <c r="AD40" t="n">
         <v>198645</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>178962</v>
       </c>
     </row>
     <row r="41">
@@ -2762,6 +2831,9 @@
       </c>
       <c r="AD41" t="n">
         <v>205377</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>184140</v>
       </c>
     </row>
     <row r="42">
@@ -2799,6 +2871,46 @@
       <c r="AD42" t="n">
         <v>211351</v>
       </c>
+      <c r="AE42" t="n">
+        <v>189206</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43" t="n">
+        <v>193987</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2904,6 +3016,9 @@
       </c>
       <c r="AD1" t="s">
         <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -2943,6 +3058,7 @@
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
+      <c r="AE2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2983,6 +3099,7 @@
       <c r="AB3"/>
       <c r="AC3"/>
       <c r="AD3"/>
+      <c r="AE3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3025,6 +3142,7 @@
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
+      <c r="AE4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3069,6 +3187,7 @@
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
+      <c r="AE5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3115,6 +3234,7 @@
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
+      <c r="AE6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3163,6 +3283,7 @@
       <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7"/>
+      <c r="AE7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3213,6 +3334,7 @@
       <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8"/>
+      <c r="AE8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3265,6 +3387,7 @@
       <c r="AB9"/>
       <c r="AC9"/>
       <c r="AD9"/>
+      <c r="AE9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3319,6 +3442,7 @@
       <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10"/>
+      <c r="AE10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3375,6 +3499,7 @@
       <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11"/>
+      <c r="AE11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3433,6 +3558,7 @@
       <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12"/>
+      <c r="AE12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3493,6 +3619,7 @@
       <c r="AB13"/>
       <c r="AC13"/>
       <c r="AD13"/>
+      <c r="AE13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3555,6 +3682,7 @@
       <c r="AB14"/>
       <c r="AC14"/>
       <c r="AD14"/>
+      <c r="AE14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3619,6 +3747,7 @@
       <c r="AB15"/>
       <c r="AC15"/>
       <c r="AD15"/>
+      <c r="AE15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3683,6 +3812,7 @@
       <c r="AB16"/>
       <c r="AC16"/>
       <c r="AD16"/>
+      <c r="AE16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3747,6 +3877,7 @@
       <c r="AB17"/>
       <c r="AC17"/>
       <c r="AD17"/>
+      <c r="AE17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3811,6 +3942,7 @@
       <c r="AB18"/>
       <c r="AC18"/>
       <c r="AD18"/>
+      <c r="AE18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3875,6 +4007,7 @@
       <c r="AB19"/>
       <c r="AC19"/>
       <c r="AD19"/>
+      <c r="AE19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3939,6 +4072,7 @@
       <c r="AB20"/>
       <c r="AC20"/>
       <c r="AD20"/>
+      <c r="AE20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4003,6 +4137,7 @@
       <c r="AB21"/>
       <c r="AC21"/>
       <c r="AD21"/>
+      <c r="AE21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4067,6 +4202,7 @@
       <c r="AB22"/>
       <c r="AC22"/>
       <c r="AD22"/>
+      <c r="AE22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4131,6 +4267,7 @@
       <c r="AB23"/>
       <c r="AC23"/>
       <c r="AD23"/>
+      <c r="AE23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4195,6 +4332,7 @@
       <c r="AB24"/>
       <c r="AC24"/>
       <c r="AD24"/>
+      <c r="AE24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4259,6 +4397,7 @@
       <c r="AB25"/>
       <c r="AC25"/>
       <c r="AD25"/>
+      <c r="AE25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4323,6 +4462,7 @@
       <c r="AB26"/>
       <c r="AC26"/>
       <c r="AD26"/>
+      <c r="AE26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4387,6 +4527,7 @@
       </c>
       <c r="AC27"/>
       <c r="AD27"/>
+      <c r="AE27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -4451,12 +4592,15 @@
         <v>6498</v>
       </c>
       <c r="AD28"/>
+      <c r="AE28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="n">
+        <v>6750</v>
+      </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -4513,6 +4657,7 @@
       <c r="AD29" t="n">
         <v>7020</v>
       </c>
+      <c r="AE29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -4572,6 +4717,9 @@
       </c>
       <c r="AD30" t="n">
         <v>7414</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>7204</v>
       </c>
     </row>
     <row r="31">
@@ -4630,6 +4778,9 @@
       </c>
       <c r="AD31" t="n">
         <v>8235</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>7723</v>
       </c>
     </row>
     <row r="32">
@@ -4686,6 +4837,9 @@
       </c>
       <c r="AD32" t="n">
         <v>8802</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>8283</v>
       </c>
     </row>
     <row r="33">
@@ -4740,6 +4894,9 @@
       </c>
       <c r="AD33" t="n">
         <v>9331</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>8876</v>
       </c>
     </row>
     <row r="34">
@@ -4792,6 +4949,9 @@
       </c>
       <c r="AD34" t="n">
         <v>9851</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>9445</v>
       </c>
     </row>
     <row r="35">
@@ -4842,6 +5002,9 @@
       </c>
       <c r="AD35" t="n">
         <v>10301</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>9991</v>
       </c>
     </row>
     <row r="36">
@@ -4890,6 +5053,9 @@
       </c>
       <c r="AD36" t="n">
         <v>10626</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>10492</v>
       </c>
     </row>
     <row r="37">
@@ -4936,6 +5102,9 @@
       </c>
       <c r="AD37" t="n">
         <v>11067</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>10941</v>
       </c>
     </row>
     <row r="38">
@@ -4980,6 +5149,9 @@
       </c>
       <c r="AD38" t="n">
         <v>11454</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>11386</v>
       </c>
     </row>
     <row r="39">
@@ -5022,6 +5194,9 @@
       </c>
       <c r="AD39" t="n">
         <v>11752</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>11825</v>
       </c>
     </row>
     <row r="40">
@@ -5062,6 +5237,9 @@
       </c>
       <c r="AD40" t="n">
         <v>12095</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>12193</v>
       </c>
     </row>
     <row r="41">
@@ -5100,6 +5278,9 @@
       </c>
       <c r="AD41" t="n">
         <v>12379</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>12562</v>
       </c>
     </row>
     <row r="42">
@@ -5137,6 +5318,46 @@
       <c r="AD42" t="n">
         <v>12806</v>
       </c>
+      <c r="AE42" t="n">
+        <v>12885</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43" t="n">
+        <v>13201</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-17</t>
   </si>
 </sst>
 </file>
@@ -573,6 +576,9 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -612,6 +618,7 @@
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
+      <c r="AF2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -653,6 +660,7 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
+      <c r="AF3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -696,6 +704,7 @@
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
+      <c r="AF4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -741,6 +750,7 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
+      <c r="AF5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -788,6 +798,7 @@
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
+      <c r="AF6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -837,6 +848,7 @@
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
+      <c r="AF7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -888,6 +900,7 @@
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
+      <c r="AF8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -941,6 +954,7 @@
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
+      <c r="AF9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -996,6 +1010,7 @@
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
+      <c r="AF10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1053,6 +1068,7 @@
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
+      <c r="AF11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1112,6 +1128,7 @@
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
+      <c r="AF12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1173,6 +1190,7 @@
       <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13"/>
+      <c r="AF13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1236,6 +1254,7 @@
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14"/>
+      <c r="AF14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1301,6 +1320,7 @@
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15"/>
+      <c r="AF15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1366,6 +1386,7 @@
       <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16"/>
+      <c r="AF16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1431,6 +1452,7 @@
       <c r="AC17"/>
       <c r="AD17"/>
       <c r="AE17"/>
+      <c r="AF17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1496,6 +1518,7 @@
       <c r="AC18"/>
       <c r="AD18"/>
       <c r="AE18"/>
+      <c r="AF18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1561,6 +1584,7 @@
       <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19"/>
+      <c r="AF19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1626,6 +1650,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
       <c r="AE20"/>
+      <c r="AF20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1691,6 +1716,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
       <c r="AE21"/>
+      <c r="AF21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1756,6 +1782,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
+      <c r="AF22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1821,6 +1848,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
       <c r="AE23"/>
+      <c r="AF23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1886,6 +1914,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
       <c r="AE24"/>
+      <c r="AF24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1951,6 +1980,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25"/>
+      <c r="AF25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2016,6 +2046,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
       <c r="AE26"/>
+      <c r="AF26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2081,13 +2112,14 @@
       <c r="AC27"/>
       <c r="AD27"/>
       <c r="AE27"/>
+      <c r="AF27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>91589</v>
+        <v>91299</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -2146,13 +2178,14 @@
       </c>
       <c r="AD28"/>
       <c r="AE28"/>
+      <c r="AF28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>96559</v>
+        <v>96396</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -2211,12 +2244,15 @@
         <v>99785</v>
       </c>
       <c r="AE29"/>
+      <c r="AF29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="n">
+        <v>101147</v>
+      </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -2274,6 +2310,7 @@
       <c r="AE30" t="n">
         <v>104339</v>
       </c>
+      <c r="AF30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2334,6 +2371,9 @@
       </c>
       <c r="AE31" t="n">
         <v>112925</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>109699</v>
       </c>
     </row>
     <row r="32">
@@ -2393,6 +2433,9 @@
       </c>
       <c r="AE32" t="n">
         <v>121944</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>117719</v>
       </c>
     </row>
     <row r="33">
@@ -2450,6 +2493,9 @@
       </c>
       <c r="AE33" t="n">
         <v>130957</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>125946</v>
       </c>
     </row>
     <row r="34">
@@ -2505,6 +2551,9 @@
       </c>
       <c r="AE34" t="n">
         <v>139531</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>133821</v>
       </c>
     </row>
     <row r="35">
@@ -2558,6 +2607,9 @@
       </c>
       <c r="AE35" t="n">
         <v>147587</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>141186</v>
       </c>
     </row>
     <row r="36">
@@ -2609,6 +2661,9 @@
       </c>
       <c r="AE36" t="n">
         <v>154685</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>147572</v>
       </c>
     </row>
     <row r="37">
@@ -2658,6 +2713,9 @@
       </c>
       <c r="AE37" t="n">
         <v>161263</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>153791</v>
       </c>
     </row>
     <row r="38">
@@ -2705,6 +2763,9 @@
       </c>
       <c r="AE38" t="n">
         <v>167652</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>159822</v>
       </c>
     </row>
     <row r="39">
@@ -2750,6 +2811,9 @@
       </c>
       <c r="AE39" t="n">
         <v>173638</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>165510</v>
       </c>
     </row>
     <row r="40">
@@ -2793,6 +2857,9 @@
       </c>
       <c r="AE40" t="n">
         <v>178962</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>170606</v>
       </c>
     </row>
     <row r="41">
@@ -2834,6 +2901,9 @@
       </c>
       <c r="AE41" t="n">
         <v>184140</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>175511</v>
       </c>
     </row>
     <row r="42">
@@ -2873,6 +2943,9 @@
       </c>
       <c r="AE42" t="n">
         <v>189206</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>180446</v>
       </c>
     </row>
     <row r="43">
@@ -2911,6 +2984,47 @@
       <c r="AE43" t="n">
         <v>193987</v>
       </c>
+      <c r="AF43" t="n">
+        <v>184565</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44" t="n">
+        <v>188615</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3019,6 +3133,9 @@
       </c>
       <c r="AE1" t="s">
         <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -3059,6 +3176,7 @@
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
+      <c r="AF2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3100,6 +3218,7 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
+      <c r="AF3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3143,6 +3262,7 @@
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
+      <c r="AF4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3188,6 +3308,7 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
+      <c r="AF5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3235,6 +3356,7 @@
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
+      <c r="AF6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3284,6 +3406,7 @@
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
+      <c r="AF7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3335,6 +3458,7 @@
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
+      <c r="AF8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3388,6 +3512,7 @@
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
+      <c r="AF9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3443,6 +3568,7 @@
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
+      <c r="AF10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3500,6 +3626,7 @@
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
+      <c r="AF11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3559,6 +3686,7 @@
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
+      <c r="AF12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3620,6 +3748,7 @@
       <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13"/>
+      <c r="AF13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3683,6 +3812,7 @@
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14"/>
+      <c r="AF14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3748,6 +3878,7 @@
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15"/>
+      <c r="AF15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3813,6 +3944,7 @@
       <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16"/>
+      <c r="AF16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3878,6 +4010,7 @@
       <c r="AC17"/>
       <c r="AD17"/>
       <c r="AE17"/>
+      <c r="AF17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3943,6 +4076,7 @@
       <c r="AC18"/>
       <c r="AD18"/>
       <c r="AE18"/>
+      <c r="AF18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4008,6 +4142,7 @@
       <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19"/>
+      <c r="AF19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4073,6 +4208,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
       <c r="AE20"/>
+      <c r="AF20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4138,6 +4274,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
       <c r="AE21"/>
+      <c r="AF21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4203,6 +4340,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
+      <c r="AF22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4268,6 +4406,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
       <c r="AE23"/>
+      <c r="AF23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4333,6 +4472,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
       <c r="AE24"/>
+      <c r="AF24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4398,6 +4538,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25"/>
+      <c r="AF25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4463,6 +4604,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
       <c r="AE26"/>
+      <c r="AF26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4528,6 +4670,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
       <c r="AE27"/>
+      <c r="AF27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -4593,13 +4736,14 @@
       </c>
       <c r="AD28"/>
       <c r="AE28"/>
+      <c r="AF28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>6750</v>
+        <v>6724</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -4658,12 +4802,15 @@
         <v>7020</v>
       </c>
       <c r="AE29"/>
+      <c r="AF29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="n">
+        <v>7025</v>
+      </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -4721,6 +4868,7 @@
       <c r="AE30" t="n">
         <v>7204</v>
       </c>
+      <c r="AF30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -4781,6 +4929,9 @@
       </c>
       <c r="AE31" t="n">
         <v>7723</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>7590</v>
       </c>
     </row>
     <row r="32">
@@ -4840,6 +4991,9 @@
       </c>
       <c r="AE32" t="n">
         <v>8283</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>8095</v>
       </c>
     </row>
     <row r="33">
@@ -4897,6 +5051,9 @@
       </c>
       <c r="AE33" t="n">
         <v>8876</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>8604</v>
       </c>
     </row>
     <row r="34">
@@ -4952,6 +5109,9 @@
       </c>
       <c r="AE34" t="n">
         <v>9445</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>9086</v>
       </c>
     </row>
     <row r="35">
@@ -5005,6 +5165,9 @@
       </c>
       <c r="AE35" t="n">
         <v>9991</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9529</v>
       </c>
     </row>
     <row r="36">
@@ -5056,6 +5219,9 @@
       </c>
       <c r="AE36" t="n">
         <v>10492</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>9904</v>
       </c>
     </row>
     <row r="37">
@@ -5105,6 +5271,9 @@
       </c>
       <c r="AE37" t="n">
         <v>10941</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>10277</v>
       </c>
     </row>
     <row r="38">
@@ -5152,6 +5321,9 @@
       </c>
       <c r="AE38" t="n">
         <v>11386</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>10637</v>
       </c>
     </row>
     <row r="39">
@@ -5197,6 +5369,9 @@
       </c>
       <c r="AE39" t="n">
         <v>11825</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>10969</v>
       </c>
     </row>
     <row r="40">
@@ -5240,6 +5415,9 @@
       </c>
       <c r="AE40" t="n">
         <v>12193</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>11267</v>
       </c>
     </row>
     <row r="41">
@@ -5281,6 +5459,9 @@
       </c>
       <c r="AE41" t="n">
         <v>12562</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>11547</v>
       </c>
     </row>
     <row r="42">
@@ -5320,6 +5501,9 @@
       </c>
       <c r="AE42" t="n">
         <v>12885</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>11840</v>
       </c>
     </row>
     <row r="43">
@@ -5358,6 +5542,47 @@
       <c r="AE43" t="n">
         <v>13201</v>
       </c>
+      <c r="AF43" t="n">
+        <v>12070</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44" t="n">
+        <v>12302</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-18</t>
   </si>
 </sst>
 </file>
@@ -579,6 +582,9 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -619,6 +625,7 @@
       <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2"/>
+      <c r="AG2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -661,6 +668,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
+      <c r="AG3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -705,6 +713,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
       <c r="AF4"/>
+      <c r="AG4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -751,6 +760,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
       <c r="AF5"/>
+      <c r="AG5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -799,6 +809,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
       <c r="AF6"/>
+      <c r="AG6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -849,6 +860,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
       <c r="AF7"/>
+      <c r="AG7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -901,6 +913,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
       <c r="AF8"/>
+      <c r="AG8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -955,6 +968,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
       <c r="AF9"/>
+      <c r="AG9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1011,6 +1025,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
       <c r="AF10"/>
+      <c r="AG10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1069,6 +1084,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
       <c r="AF11"/>
+      <c r="AG11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1129,6 +1145,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
       <c r="AF12"/>
+      <c r="AG12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1191,6 +1208,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
       <c r="AF13"/>
+      <c r="AG13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1255,6 +1273,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
       <c r="AF14"/>
+      <c r="AG14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1321,6 +1340,7 @@
       <c r="AD15"/>
       <c r="AE15"/>
       <c r="AF15"/>
+      <c r="AG15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1387,6 +1407,7 @@
       <c r="AD16"/>
       <c r="AE16"/>
       <c r="AF16"/>
+      <c r="AG16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1453,6 +1474,7 @@
       <c r="AD17"/>
       <c r="AE17"/>
       <c r="AF17"/>
+      <c r="AG17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1519,6 +1541,7 @@
       <c r="AD18"/>
       <c r="AE18"/>
       <c r="AF18"/>
+      <c r="AG18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1585,6 +1608,7 @@
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19"/>
+      <c r="AG19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1651,6 +1675,7 @@
       <c r="AD20"/>
       <c r="AE20"/>
       <c r="AF20"/>
+      <c r="AG20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1717,6 +1742,7 @@
       <c r="AD21"/>
       <c r="AE21"/>
       <c r="AF21"/>
+      <c r="AG21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1783,6 +1809,7 @@
       <c r="AD22"/>
       <c r="AE22"/>
       <c r="AF22"/>
+      <c r="AG22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1849,6 +1876,7 @@
       <c r="AD23"/>
       <c r="AE23"/>
       <c r="AF23"/>
+      <c r="AG23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1915,6 +1943,7 @@
       <c r="AD24"/>
       <c r="AE24"/>
       <c r="AF24"/>
+      <c r="AG24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1981,6 +2010,7 @@
       <c r="AD25"/>
       <c r="AE25"/>
       <c r="AF25"/>
+      <c r="AG25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2047,6 +2077,7 @@
       <c r="AD26"/>
       <c r="AE26"/>
       <c r="AF26"/>
+      <c r="AG26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2113,6 +2144,7 @@
       <c r="AD27"/>
       <c r="AE27"/>
       <c r="AF27"/>
+      <c r="AG27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2179,6 +2211,7 @@
       <c r="AD28"/>
       <c r="AE28"/>
       <c r="AF28"/>
+      <c r="AG28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2245,6 +2278,7 @@
       </c>
       <c r="AE29"/>
       <c r="AF29"/>
+      <c r="AG29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2311,12 +2345,15 @@
         <v>104339</v>
       </c>
       <c r="AF30"/>
+      <c r="AG30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31"/>
+      <c r="B31" t="n">
+        <v>105222</v>
+      </c>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -2375,6 +2412,7 @@
       <c r="AF31" t="n">
         <v>109699</v>
       </c>
+      <c r="AG31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2436,6 +2474,9 @@
       </c>
       <c r="AF32" t="n">
         <v>117719</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>112589</v>
       </c>
     </row>
     <row r="33">
@@ -2496,6 +2537,9 @@
       </c>
       <c r="AF33" t="n">
         <v>125946</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>120544</v>
       </c>
     </row>
     <row r="34">
@@ -2554,6 +2598,9 @@
       </c>
       <c r="AF34" t="n">
         <v>133821</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>128057</v>
       </c>
     </row>
     <row r="35">
@@ -2610,6 +2657,9 @@
       </c>
       <c r="AF35" t="n">
         <v>141186</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>135377</v>
       </c>
     </row>
     <row r="36">
@@ -2664,6 +2714,9 @@
       </c>
       <c r="AF36" t="n">
         <v>147572</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>142267</v>
       </c>
     </row>
     <row r="37">
@@ -2716,6 +2769,9 @@
       </c>
       <c r="AF37" t="n">
         <v>153791</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>148013</v>
       </c>
     </row>
     <row r="38">
@@ -2766,6 +2822,9 @@
       </c>
       <c r="AF38" t="n">
         <v>159822</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>153847</v>
       </c>
     </row>
     <row r="39">
@@ -2814,6 +2873,9 @@
       </c>
       <c r="AF39" t="n">
         <v>165510</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>159846</v>
       </c>
     </row>
     <row r="40">
@@ -2860,6 +2922,9 @@
       </c>
       <c r="AF40" t="n">
         <v>170606</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>164555</v>
       </c>
     </row>
     <row r="41">
@@ -2904,6 +2969,9 @@
       </c>
       <c r="AF41" t="n">
         <v>175511</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>169414</v>
       </c>
     </row>
     <row r="42">
@@ -2946,6 +3014,9 @@
       </c>
       <c r="AF42" t="n">
         <v>180446</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>173186</v>
       </c>
     </row>
     <row r="43">
@@ -2986,6 +3057,9 @@
       </c>
       <c r="AF43" t="n">
         <v>184565</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>177317</v>
       </c>
     </row>
     <row r="44">
@@ -3025,6 +3099,48 @@
       <c r="AF44" t="n">
         <v>188615</v>
       </c>
+      <c r="AG44" t="n">
+        <v>180789</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45" t="n">
+        <v>184393</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3136,6 +3252,9 @@
       </c>
       <c r="AF1" t="s">
         <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -3177,6 +3296,7 @@
       <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2"/>
+      <c r="AG2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3219,6 +3339,7 @@
       <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
+      <c r="AG3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3263,6 +3384,7 @@
       <c r="AD4"/>
       <c r="AE4"/>
       <c r="AF4"/>
+      <c r="AG4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3309,6 +3431,7 @@
       <c r="AD5"/>
       <c r="AE5"/>
       <c r="AF5"/>
+      <c r="AG5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3357,6 +3480,7 @@
       <c r="AD6"/>
       <c r="AE6"/>
       <c r="AF6"/>
+      <c r="AG6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3407,6 +3531,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
       <c r="AF7"/>
+      <c r="AG7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3459,6 +3584,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
       <c r="AF8"/>
+      <c r="AG8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3513,6 +3639,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
       <c r="AF9"/>
+      <c r="AG9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3569,6 +3696,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
       <c r="AF10"/>
+      <c r="AG10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3627,6 +3755,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
       <c r="AF11"/>
+      <c r="AG11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3687,6 +3816,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
       <c r="AF12"/>
+      <c r="AG12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3749,6 +3879,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
       <c r="AF13"/>
+      <c r="AG13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3813,6 +3944,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
       <c r="AF14"/>
+      <c r="AG14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3879,6 +4011,7 @@
       <c r="AD15"/>
       <c r="AE15"/>
       <c r="AF15"/>
+      <c r="AG15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3945,6 +4078,7 @@
       <c r="AD16"/>
       <c r="AE16"/>
       <c r="AF16"/>
+      <c r="AG16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4011,6 +4145,7 @@
       <c r="AD17"/>
       <c r="AE17"/>
       <c r="AF17"/>
+      <c r="AG17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4077,6 +4212,7 @@
       <c r="AD18"/>
       <c r="AE18"/>
       <c r="AF18"/>
+      <c r="AG18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4143,6 +4279,7 @@
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19"/>
+      <c r="AG19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4209,6 +4346,7 @@
       <c r="AD20"/>
       <c r="AE20"/>
       <c r="AF20"/>
+      <c r="AG20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4275,6 +4413,7 @@
       <c r="AD21"/>
       <c r="AE21"/>
       <c r="AF21"/>
+      <c r="AG21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4341,6 +4480,7 @@
       <c r="AD22"/>
       <c r="AE22"/>
       <c r="AF22"/>
+      <c r="AG22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4407,6 +4547,7 @@
       <c r="AD23"/>
       <c r="AE23"/>
       <c r="AF23"/>
+      <c r="AG23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4473,6 +4614,7 @@
       <c r="AD24"/>
       <c r="AE24"/>
       <c r="AF24"/>
+      <c r="AG24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4539,6 +4681,7 @@
       <c r="AD25"/>
       <c r="AE25"/>
       <c r="AF25"/>
+      <c r="AG25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4605,6 +4748,7 @@
       <c r="AD26"/>
       <c r="AE26"/>
       <c r="AF26"/>
+      <c r="AG26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4671,6 +4815,7 @@
       <c r="AD27"/>
       <c r="AE27"/>
       <c r="AF27"/>
+      <c r="AG27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -4737,6 +4882,7 @@
       <c r="AD28"/>
       <c r="AE28"/>
       <c r="AF28"/>
+      <c r="AG28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -4803,6 +4949,7 @@
       </c>
       <c r="AE29"/>
       <c r="AF29"/>
+      <c r="AG29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -4869,12 +5016,15 @@
         <v>7204</v>
       </c>
       <c r="AF30"/>
+      <c r="AG30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31"/>
+      <c r="B31" t="n">
+        <v>7288</v>
+      </c>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -4933,6 +5083,7 @@
       <c r="AF31" t="n">
         <v>7590</v>
       </c>
+      <c r="AG31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -4994,6 +5145,9 @@
       </c>
       <c r="AF32" t="n">
         <v>8095</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>7810</v>
       </c>
     </row>
     <row r="33">
@@ -5054,6 +5208,9 @@
       </c>
       <c r="AF33" t="n">
         <v>8604</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>8338</v>
       </c>
     </row>
     <row r="34">
@@ -5112,6 +5269,9 @@
       </c>
       <c r="AF34" t="n">
         <v>9086</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>8836</v>
       </c>
     </row>
     <row r="35">
@@ -5168,6 +5328,9 @@
       </c>
       <c r="AF35" t="n">
         <v>9529</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>9315</v>
       </c>
     </row>
     <row r="36">
@@ -5222,6 +5385,9 @@
       </c>
       <c r="AF36" t="n">
         <v>9904</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9754</v>
       </c>
     </row>
     <row r="37">
@@ -5274,6 +5440,9 @@
       </c>
       <c r="AF37" t="n">
         <v>10277</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>10138</v>
       </c>
     </row>
     <row r="38">
@@ -5324,6 +5493,9 @@
       </c>
       <c r="AF38" t="n">
         <v>10637</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>10527</v>
       </c>
     </row>
     <row r="39">
@@ -5372,6 +5544,9 @@
       </c>
       <c r="AF39" t="n">
         <v>10969</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>10918</v>
       </c>
     </row>
     <row r="40">
@@ -5418,6 +5593,9 @@
       </c>
       <c r="AF40" t="n">
         <v>11267</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>11236</v>
       </c>
     </row>
     <row r="41">
@@ -5462,6 +5640,9 @@
       </c>
       <c r="AF41" t="n">
         <v>11547</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>11550</v>
       </c>
     </row>
     <row r="42">
@@ -5504,6 +5685,9 @@
       </c>
       <c r="AF42" t="n">
         <v>11840</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>11821</v>
       </c>
     </row>
     <row r="43">
@@ -5544,6 +5728,9 @@
       </c>
       <c r="AF43" t="n">
         <v>12070</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>12084</v>
       </c>
     </row>
     <row r="44">
@@ -5583,6 +5770,48 @@
       <c r="AF44" t="n">
         <v>12302</v>
       </c>
+      <c r="AG44" t="n">
+        <v>12319</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45" t="n">
+        <v>12558</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-19</t>
   </si>
 </sst>
 </file>
@@ -585,6 +588,9 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -626,6 +632,7 @@
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
+      <c r="AH2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -669,6 +676,7 @@
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
+      <c r="AH3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -714,6 +722,7 @@
       <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4"/>
+      <c r="AH4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -761,6 +770,7 @@
       <c r="AE5"/>
       <c r="AF5"/>
       <c r="AG5"/>
+      <c r="AH5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -810,6 +820,7 @@
       <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6"/>
+      <c r="AH6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -861,6 +872,7 @@
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7"/>
+      <c r="AH7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -914,6 +926,7 @@
       <c r="AE8"/>
       <c r="AF8"/>
       <c r="AG8"/>
+      <c r="AH8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -969,6 +982,7 @@
       <c r="AE9"/>
       <c r="AF9"/>
       <c r="AG9"/>
+      <c r="AH9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1026,6 +1040,7 @@
       <c r="AE10"/>
       <c r="AF10"/>
       <c r="AG10"/>
+      <c r="AH10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1085,6 +1100,7 @@
       <c r="AE11"/>
       <c r="AF11"/>
       <c r="AG11"/>
+      <c r="AH11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1146,6 +1162,7 @@
       <c r="AE12"/>
       <c r="AF12"/>
       <c r="AG12"/>
+      <c r="AH12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1209,6 +1226,7 @@
       <c r="AE13"/>
       <c r="AF13"/>
       <c r="AG13"/>
+      <c r="AH13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1274,6 +1292,7 @@
       <c r="AE14"/>
       <c r="AF14"/>
       <c r="AG14"/>
+      <c r="AH14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1341,6 +1360,7 @@
       <c r="AE15"/>
       <c r="AF15"/>
       <c r="AG15"/>
+      <c r="AH15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1408,6 +1428,7 @@
       <c r="AE16"/>
       <c r="AF16"/>
       <c r="AG16"/>
+      <c r="AH16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1475,6 +1496,7 @@
       <c r="AE17"/>
       <c r="AF17"/>
       <c r="AG17"/>
+      <c r="AH17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1542,6 +1564,7 @@
       <c r="AE18"/>
       <c r="AF18"/>
       <c r="AG18"/>
+      <c r="AH18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1609,6 +1632,7 @@
       <c r="AE19"/>
       <c r="AF19"/>
       <c r="AG19"/>
+      <c r="AH19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1676,6 +1700,7 @@
       <c r="AE20"/>
       <c r="AF20"/>
       <c r="AG20"/>
+      <c r="AH20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1743,6 +1768,7 @@
       <c r="AE21"/>
       <c r="AF21"/>
       <c r="AG21"/>
+      <c r="AH21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1810,6 +1836,7 @@
       <c r="AE22"/>
       <c r="AF22"/>
       <c r="AG22"/>
+      <c r="AH22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1877,6 +1904,7 @@
       <c r="AE23"/>
       <c r="AF23"/>
       <c r="AG23"/>
+      <c r="AH23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1944,6 +1972,7 @@
       <c r="AE24"/>
       <c r="AF24"/>
       <c r="AG24"/>
+      <c r="AH24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2011,6 +2040,7 @@
       <c r="AE25"/>
       <c r="AF25"/>
       <c r="AG25"/>
+      <c r="AH25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2078,6 +2108,7 @@
       <c r="AE26"/>
       <c r="AF26"/>
       <c r="AG26"/>
+      <c r="AH26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2145,6 +2176,7 @@
       <c r="AE27"/>
       <c r="AF27"/>
       <c r="AG27"/>
+      <c r="AH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2212,6 +2244,7 @@
       <c r="AE28"/>
       <c r="AF28"/>
       <c r="AG28"/>
+      <c r="AH28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2279,6 +2312,7 @@
       <c r="AE29"/>
       <c r="AF29"/>
       <c r="AG29"/>
+      <c r="AH29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2346,13 +2380,14 @@
       </c>
       <c r="AF30"/>
       <c r="AG30"/>
+      <c r="AH30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>105222</v>
+        <v>107780</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -2413,12 +2448,15 @@
         <v>109699</v>
       </c>
       <c r="AG31"/>
+      <c r="AH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32"/>
+      <c r="B32" t="n">
+        <v>114715</v>
+      </c>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -2478,6 +2516,7 @@
       <c r="AG32" t="n">
         <v>112589</v>
       </c>
+      <c r="AH32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2540,6 +2579,9 @@
       </c>
       <c r="AG33" t="n">
         <v>120544</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>123085</v>
       </c>
     </row>
     <row r="34">
@@ -2601,6 +2643,9 @@
       </c>
       <c r="AG34" t="n">
         <v>128057</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>130735</v>
       </c>
     </row>
     <row r="35">
@@ -2660,6 +2705,9 @@
       </c>
       <c r="AG35" t="n">
         <v>135377</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>137934</v>
       </c>
     </row>
     <row r="36">
@@ -2717,6 +2765,9 @@
       </c>
       <c r="AG36" t="n">
         <v>142267</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>143674</v>
       </c>
     </row>
     <row r="37">
@@ -2772,6 +2823,9 @@
       </c>
       <c r="AG37" t="n">
         <v>148013</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>149970</v>
       </c>
     </row>
     <row r="38">
@@ -2825,6 +2879,9 @@
       </c>
       <c r="AG38" t="n">
         <v>153847</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>156123</v>
       </c>
     </row>
     <row r="39">
@@ -2876,6 +2933,9 @@
       </c>
       <c r="AG39" t="n">
         <v>159846</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>162697</v>
       </c>
     </row>
     <row r="40">
@@ -2925,6 +2985,9 @@
       </c>
       <c r="AG40" t="n">
         <v>164555</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>167780</v>
       </c>
     </row>
     <row r="41">
@@ -2972,6 +3035,9 @@
       </c>
       <c r="AG41" t="n">
         <v>169414</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>172715</v>
       </c>
     </row>
     <row r="42">
@@ -3017,6 +3083,9 @@
       </c>
       <c r="AG42" t="n">
         <v>173186</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>176630</v>
       </c>
     </row>
     <row r="43">
@@ -3060,6 +3129,9 @@
       </c>
       <c r="AG43" t="n">
         <v>177317</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>180773</v>
       </c>
     </row>
     <row r="44">
@@ -3101,6 +3173,9 @@
       </c>
       <c r="AG44" t="n">
         <v>180789</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>184671</v>
       </c>
     </row>
     <row r="45">
@@ -3141,6 +3216,49 @@
       <c r="AG45" t="n">
         <v>184393</v>
       </c>
+      <c r="AH45" t="n">
+        <v>188755</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46" t="n">
+        <v>192203</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3255,6 +3373,9 @@
       </c>
       <c r="AG1" t="s">
         <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -3297,6 +3418,7 @@
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
+      <c r="AH2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3340,6 +3462,7 @@
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
+      <c r="AH3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3385,6 +3508,7 @@
       <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4"/>
+      <c r="AH4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3432,6 +3556,7 @@
       <c r="AE5"/>
       <c r="AF5"/>
       <c r="AG5"/>
+      <c r="AH5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3481,6 +3606,7 @@
       <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6"/>
+      <c r="AH6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3532,6 +3658,7 @@
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7"/>
+      <c r="AH7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3585,6 +3712,7 @@
       <c r="AE8"/>
       <c r="AF8"/>
       <c r="AG8"/>
+      <c r="AH8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3640,6 +3768,7 @@
       <c r="AE9"/>
       <c r="AF9"/>
       <c r="AG9"/>
+      <c r="AH9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3697,6 +3826,7 @@
       <c r="AE10"/>
       <c r="AF10"/>
       <c r="AG10"/>
+      <c r="AH10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3756,6 +3886,7 @@
       <c r="AE11"/>
       <c r="AF11"/>
       <c r="AG11"/>
+      <c r="AH11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3817,6 +3948,7 @@
       <c r="AE12"/>
       <c r="AF12"/>
       <c r="AG12"/>
+      <c r="AH12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3880,6 +4012,7 @@
       <c r="AE13"/>
       <c r="AF13"/>
       <c r="AG13"/>
+      <c r="AH13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3945,6 +4078,7 @@
       <c r="AE14"/>
       <c r="AF14"/>
       <c r="AG14"/>
+      <c r="AH14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -4012,6 +4146,7 @@
       <c r="AE15"/>
       <c r="AF15"/>
       <c r="AG15"/>
+      <c r="AH15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4079,6 +4214,7 @@
       <c r="AE16"/>
       <c r="AF16"/>
       <c r="AG16"/>
+      <c r="AH16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4146,6 +4282,7 @@
       <c r="AE17"/>
       <c r="AF17"/>
       <c r="AG17"/>
+      <c r="AH17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4213,6 +4350,7 @@
       <c r="AE18"/>
       <c r="AF18"/>
       <c r="AG18"/>
+      <c r="AH18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4280,6 +4418,7 @@
       <c r="AE19"/>
       <c r="AF19"/>
       <c r="AG19"/>
+      <c r="AH19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4347,6 +4486,7 @@
       <c r="AE20"/>
       <c r="AF20"/>
       <c r="AG20"/>
+      <c r="AH20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4414,6 +4554,7 @@
       <c r="AE21"/>
       <c r="AF21"/>
       <c r="AG21"/>
+      <c r="AH21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4481,6 +4622,7 @@
       <c r="AE22"/>
       <c r="AF22"/>
       <c r="AG22"/>
+      <c r="AH22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4548,6 +4690,7 @@
       <c r="AE23"/>
       <c r="AF23"/>
       <c r="AG23"/>
+      <c r="AH23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4615,6 +4758,7 @@
       <c r="AE24"/>
       <c r="AF24"/>
       <c r="AG24"/>
+      <c r="AH24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4682,6 +4826,7 @@
       <c r="AE25"/>
       <c r="AF25"/>
       <c r="AG25"/>
+      <c r="AH25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4749,6 +4894,7 @@
       <c r="AE26"/>
       <c r="AF26"/>
       <c r="AG26"/>
+      <c r="AH26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4816,6 +4962,7 @@
       <c r="AE27"/>
       <c r="AF27"/>
       <c r="AG27"/>
+      <c r="AH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -4883,6 +5030,7 @@
       <c r="AE28"/>
       <c r="AF28"/>
       <c r="AG28"/>
+      <c r="AH28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -4950,6 +5098,7 @@
       <c r="AE29"/>
       <c r="AF29"/>
       <c r="AG29"/>
+      <c r="AH29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -5017,13 +5166,14 @@
       </c>
       <c r="AF30"/>
       <c r="AG30"/>
+      <c r="AH30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>7288</v>
+        <v>7321</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -5084,12 +5234,15 @@
         <v>7590</v>
       </c>
       <c r="AG31"/>
+      <c r="AH31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32"/>
+      <c r="B32" t="n">
+        <v>7921</v>
+      </c>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -5149,6 +5302,7 @@
       <c r="AG32" t="n">
         <v>7810</v>
       </c>
+      <c r="AH32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -5211,6 +5365,9 @@
       </c>
       <c r="AG33" t="n">
         <v>8338</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>8364</v>
       </c>
     </row>
     <row r="34">
@@ -5272,6 +5429,9 @@
       </c>
       <c r="AG34" t="n">
         <v>8836</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>8829</v>
       </c>
     </row>
     <row r="35">
@@ -5331,6 +5491,9 @@
       </c>
       <c r="AG35" t="n">
         <v>9315</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>9268</v>
       </c>
     </row>
     <row r="36">
@@ -5388,6 +5551,9 @@
       </c>
       <c r="AG36" t="n">
         <v>9754</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>9660</v>
       </c>
     </row>
     <row r="37">
@@ -5443,6 +5609,9 @@
       </c>
       <c r="AG37" t="n">
         <v>10138</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>10015</v>
       </c>
     </row>
     <row r="38">
@@ -5496,6 +5665,9 @@
       </c>
       <c r="AG38" t="n">
         <v>10527</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>10366</v>
       </c>
     </row>
     <row r="39">
@@ -5547,6 +5719,9 @@
       </c>
       <c r="AG39" t="n">
         <v>10918</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>10710</v>
       </c>
     </row>
     <row r="40">
@@ -5596,6 +5771,9 @@
       </c>
       <c r="AG40" t="n">
         <v>11236</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>10996</v>
       </c>
     </row>
     <row r="41">
@@ -5643,6 +5821,9 @@
       </c>
       <c r="AG41" t="n">
         <v>11550</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>11281</v>
       </c>
     </row>
     <row r="42">
@@ -5688,6 +5869,9 @@
       </c>
       <c r="AG42" t="n">
         <v>11821</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>11535</v>
       </c>
     </row>
     <row r="43">
@@ -5731,6 +5915,9 @@
       </c>
       <c r="AG43" t="n">
         <v>12084</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>11769</v>
       </c>
     </row>
     <row r="44">
@@ -5772,6 +5959,9 @@
       </c>
       <c r="AG44" t="n">
         <v>12319</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>11984</v>
       </c>
     </row>
     <row r="45">
@@ -5812,6 +6002,49 @@
       <c r="AG45" t="n">
         <v>12558</v>
       </c>
+      <c r="AH45" t="n">
+        <v>12201</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46" t="n">
+        <v>12421</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-20</t>
   </si>
 </sst>
 </file>
@@ -591,6 +594,9 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -633,6 +639,7 @@
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
+      <c r="AI2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -677,6 +684,7 @@
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
+      <c r="AI3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -723,6 +731,7 @@
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
+      <c r="AI4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -771,6 +780,7 @@
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
+      <c r="AI5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -821,6 +831,7 @@
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
+      <c r="AI6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -873,6 +884,7 @@
       <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7"/>
+      <c r="AI7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -927,6 +939,7 @@
       <c r="AF8"/>
       <c r="AG8"/>
       <c r="AH8"/>
+      <c r="AI8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -983,6 +996,7 @@
       <c r="AF9"/>
       <c r="AG9"/>
       <c r="AH9"/>
+      <c r="AI9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1041,6 +1055,7 @@
       <c r="AF10"/>
       <c r="AG10"/>
       <c r="AH10"/>
+      <c r="AI10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1101,6 +1116,7 @@
       <c r="AF11"/>
       <c r="AG11"/>
       <c r="AH11"/>
+      <c r="AI11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1163,6 +1179,7 @@
       <c r="AF12"/>
       <c r="AG12"/>
       <c r="AH12"/>
+      <c r="AI12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1227,6 +1244,7 @@
       <c r="AF13"/>
       <c r="AG13"/>
       <c r="AH13"/>
+      <c r="AI13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1293,6 +1311,7 @@
       <c r="AF14"/>
       <c r="AG14"/>
       <c r="AH14"/>
+      <c r="AI14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1361,6 +1380,7 @@
       <c r="AF15"/>
       <c r="AG15"/>
       <c r="AH15"/>
+      <c r="AI15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1429,6 +1449,7 @@
       <c r="AF16"/>
       <c r="AG16"/>
       <c r="AH16"/>
+      <c r="AI16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1497,6 +1518,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
+      <c r="AI17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1565,6 +1587,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
       <c r="AH18"/>
+      <c r="AI18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1633,6 +1656,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
       <c r="AH19"/>
+      <c r="AI19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1701,6 +1725,7 @@
       <c r="AF20"/>
       <c r="AG20"/>
       <c r="AH20"/>
+      <c r="AI20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1769,6 +1794,7 @@
       <c r="AF21"/>
       <c r="AG21"/>
       <c r="AH21"/>
+      <c r="AI21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1837,6 +1863,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
       <c r="AH22"/>
+      <c r="AI22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1905,6 +1932,7 @@
       <c r="AF23"/>
       <c r="AG23"/>
       <c r="AH23"/>
+      <c r="AI23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1973,6 +2001,7 @@
       <c r="AF24"/>
       <c r="AG24"/>
       <c r="AH24"/>
+      <c r="AI24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2041,6 +2070,7 @@
       <c r="AF25"/>
       <c r="AG25"/>
       <c r="AH25"/>
+      <c r="AI25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2109,6 +2139,7 @@
       <c r="AF26"/>
       <c r="AG26"/>
       <c r="AH26"/>
+      <c r="AI26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2177,6 +2208,7 @@
       <c r="AF27"/>
       <c r="AG27"/>
       <c r="AH27"/>
+      <c r="AI27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2245,6 +2277,7 @@
       <c r="AF28"/>
       <c r="AG28"/>
       <c r="AH28"/>
+      <c r="AI28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2313,6 +2346,7 @@
       <c r="AF29"/>
       <c r="AG29"/>
       <c r="AH29"/>
+      <c r="AI29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2381,6 +2415,7 @@
       <c r="AF30"/>
       <c r="AG30"/>
       <c r="AH30"/>
+      <c r="AI30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2449,6 +2484,7 @@
       </c>
       <c r="AG31"/>
       <c r="AH31"/>
+      <c r="AI31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2517,12 +2553,15 @@
         <v>112589</v>
       </c>
       <c r="AH32"/>
+      <c r="AI32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="n">
+        <v>125218</v>
+      </c>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -2583,6 +2622,7 @@
       <c r="AH33" t="n">
         <v>123085</v>
       </c>
+      <c r="AI33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2646,6 +2686,9 @@
       </c>
       <c r="AH34" t="n">
         <v>130735</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>134005</v>
       </c>
     </row>
     <row r="35">
@@ -2708,6 +2751,9 @@
       </c>
       <c r="AH35" t="n">
         <v>137934</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>142591</v>
       </c>
     </row>
     <row r="36">
@@ -2768,6 +2814,9 @@
       </c>
       <c r="AH36" t="n">
         <v>143674</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>150754</v>
       </c>
     </row>
     <row r="37">
@@ -2826,6 +2875,9 @@
       </c>
       <c r="AH37" t="n">
         <v>149970</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>157802</v>
       </c>
     </row>
     <row r="38">
@@ -2882,6 +2934,9 @@
       </c>
       <c r="AH38" t="n">
         <v>156123</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>164903</v>
       </c>
     </row>
     <row r="39">
@@ -2936,6 +2991,9 @@
       </c>
       <c r="AH39" t="n">
         <v>162697</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>172253</v>
       </c>
     </row>
     <row r="40">
@@ -2988,6 +3046,9 @@
       </c>
       <c r="AH40" t="n">
         <v>167780</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>178227</v>
       </c>
     </row>
     <row r="41">
@@ -3038,6 +3099,9 @@
       </c>
       <c r="AH41" t="n">
         <v>172715</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>184377</v>
       </c>
     </row>
     <row r="42">
@@ -3086,6 +3150,9 @@
       </c>
       <c r="AH42" t="n">
         <v>176630</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>189342</v>
       </c>
     </row>
     <row r="43">
@@ -3132,6 +3199,9 @@
       </c>
       <c r="AH43" t="n">
         <v>180773</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>194518</v>
       </c>
     </row>
     <row r="44">
@@ -3176,6 +3246,9 @@
       </c>
       <c r="AH44" t="n">
         <v>184671</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>199012</v>
       </c>
     </row>
     <row r="45">
@@ -3218,6 +3291,9 @@
       </c>
       <c r="AH45" t="n">
         <v>188755</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>203603</v>
       </c>
     </row>
     <row r="46">
@@ -3259,6 +3335,50 @@
       <c r="AH46" t="n">
         <v>192203</v>
       </c>
+      <c r="AI46" t="n">
+        <v>208168</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47" t="n">
+        <v>212154</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3376,6 +3496,9 @@
       </c>
       <c r="AH1" t="s">
         <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -3419,6 +3542,7 @@
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
+      <c r="AI2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3463,6 +3587,7 @@
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
+      <c r="AI3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3509,6 +3634,7 @@
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
+      <c r="AI4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3557,6 +3683,7 @@
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
+      <c r="AI5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3607,6 +3734,7 @@
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
+      <c r="AI6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3659,6 +3787,7 @@
       <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7"/>
+      <c r="AI7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3713,6 +3842,7 @@
       <c r="AF8"/>
       <c r="AG8"/>
       <c r="AH8"/>
+      <c r="AI8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3769,6 +3899,7 @@
       <c r="AF9"/>
       <c r="AG9"/>
       <c r="AH9"/>
+      <c r="AI9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3827,6 +3958,7 @@
       <c r="AF10"/>
       <c r="AG10"/>
       <c r="AH10"/>
+      <c r="AI10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3887,6 +4019,7 @@
       <c r="AF11"/>
       <c r="AG11"/>
       <c r="AH11"/>
+      <c r="AI11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3949,6 +4082,7 @@
       <c r="AF12"/>
       <c r="AG12"/>
       <c r="AH12"/>
+      <c r="AI12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -4013,6 +4147,7 @@
       <c r="AF13"/>
       <c r="AG13"/>
       <c r="AH13"/>
+      <c r="AI13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -4079,6 +4214,7 @@
       <c r="AF14"/>
       <c r="AG14"/>
       <c r="AH14"/>
+      <c r="AI14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -4147,6 +4283,7 @@
       <c r="AF15"/>
       <c r="AG15"/>
       <c r="AH15"/>
+      <c r="AI15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4215,6 +4352,7 @@
       <c r="AF16"/>
       <c r="AG16"/>
       <c r="AH16"/>
+      <c r="AI16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4283,6 +4421,7 @@
       <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
+      <c r="AI17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4351,6 +4490,7 @@
       <c r="AF18"/>
       <c r="AG18"/>
       <c r="AH18"/>
+      <c r="AI18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4419,6 +4559,7 @@
       <c r="AF19"/>
       <c r="AG19"/>
       <c r="AH19"/>
+      <c r="AI19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4487,6 +4628,7 @@
       <c r="AF20"/>
       <c r="AG20"/>
       <c r="AH20"/>
+      <c r="AI20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4555,6 +4697,7 @@
       <c r="AF21"/>
       <c r="AG21"/>
       <c r="AH21"/>
+      <c r="AI21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4623,6 +4766,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
       <c r="AH22"/>
+      <c r="AI22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4691,6 +4835,7 @@
       <c r="AF23"/>
       <c r="AG23"/>
       <c r="AH23"/>
+      <c r="AI23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4759,6 +4904,7 @@
       <c r="AF24"/>
       <c r="AG24"/>
       <c r="AH24"/>
+      <c r="AI24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4827,6 +4973,7 @@
       <c r="AF25"/>
       <c r="AG25"/>
       <c r="AH25"/>
+      <c r="AI25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4895,6 +5042,7 @@
       <c r="AF26"/>
       <c r="AG26"/>
       <c r="AH26"/>
+      <c r="AI26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4963,6 +5111,7 @@
       <c r="AF27"/>
       <c r="AG27"/>
       <c r="AH27"/>
+      <c r="AI27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -5031,6 +5180,7 @@
       <c r="AF28"/>
       <c r="AG28"/>
       <c r="AH28"/>
+      <c r="AI28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -5099,6 +5249,7 @@
       <c r="AF29"/>
       <c r="AG29"/>
       <c r="AH29"/>
+      <c r="AI29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -5167,6 +5318,7 @@
       <c r="AF30"/>
       <c r="AG30"/>
       <c r="AH30"/>
+      <c r="AI30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -5235,6 +5387,7 @@
       </c>
       <c r="AG31"/>
       <c r="AH31"/>
+      <c r="AI31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -5303,12 +5456,15 @@
         <v>7810</v>
       </c>
       <c r="AH32"/>
+      <c r="AI32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="n">
+        <v>8536</v>
+      </c>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -5369,6 +5525,7 @@
       <c r="AH33" t="n">
         <v>8364</v>
       </c>
+      <c r="AI33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -5432,6 +5589,9 @@
       </c>
       <c r="AH34" t="n">
         <v>8829</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>9033</v>
       </c>
     </row>
     <row r="35">
@@ -5494,6 +5654,9 @@
       </c>
       <c r="AH35" t="n">
         <v>9268</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>9520</v>
       </c>
     </row>
     <row r="36">
@@ -5554,6 +5717,9 @@
       </c>
       <c r="AH36" t="n">
         <v>9660</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>9971</v>
       </c>
     </row>
     <row r="37">
@@ -5612,6 +5778,9 @@
       </c>
       <c r="AH37" t="n">
         <v>10015</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>10352</v>
       </c>
     </row>
     <row r="38">
@@ -5668,6 +5837,9 @@
       </c>
       <c r="AH38" t="n">
         <v>10366</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>10738</v>
       </c>
     </row>
     <row r="39">
@@ -5722,6 +5894,9 @@
       </c>
       <c r="AH39" t="n">
         <v>10710</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>11134</v>
       </c>
     </row>
     <row r="40">
@@ -5774,6 +5949,9 @@
       </c>
       <c r="AH40" t="n">
         <v>10996</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>11446</v>
       </c>
     </row>
     <row r="41">
@@ -5824,6 +6002,9 @@
       </c>
       <c r="AH41" t="n">
         <v>11281</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>11773</v>
       </c>
     </row>
     <row r="42">
@@ -5872,6 +6053,9 @@
       </c>
       <c r="AH42" t="n">
         <v>11535</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>12032</v>
       </c>
     </row>
     <row r="43">
@@ -5918,6 +6102,9 @@
       </c>
       <c r="AH43" t="n">
         <v>11769</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>12308</v>
       </c>
     </row>
     <row r="44">
@@ -5962,6 +6149,9 @@
       </c>
       <c r="AH44" t="n">
         <v>11984</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>12543</v>
       </c>
     </row>
     <row r="45">
@@ -6004,6 +6194,9 @@
       </c>
       <c r="AH45" t="n">
         <v>12201</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>12789</v>
       </c>
     </row>
     <row r="46">
@@ -6045,6 +6238,50 @@
       <c r="AH46" t="n">
         <v>12421</v>
       </c>
+      <c r="AI46" t="n">
+        <v>13037</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47" t="n">
+        <v>13253</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-21</t>
   </si>
 </sst>
 </file>
@@ -597,6 +600,9 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -640,6 +646,7 @@
       <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2"/>
+      <c r="AJ2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -685,6 +692,7 @@
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
+      <c r="AJ3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -732,6 +740,7 @@
       <c r="AG4"/>
       <c r="AH4"/>
       <c r="AI4"/>
+      <c r="AJ4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -781,6 +790,7 @@
       <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -832,6 +842,7 @@
       <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -885,6 +896,7 @@
       <c r="AG7"/>
       <c r="AH7"/>
       <c r="AI7"/>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -940,6 +952,7 @@
       <c r="AG8"/>
       <c r="AH8"/>
       <c r="AI8"/>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -997,6 +1010,7 @@
       <c r="AG9"/>
       <c r="AH9"/>
       <c r="AI9"/>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1056,6 +1070,7 @@
       <c r="AG10"/>
       <c r="AH10"/>
       <c r="AI10"/>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1117,6 +1132,7 @@
       <c r="AG11"/>
       <c r="AH11"/>
       <c r="AI11"/>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1180,6 +1196,7 @@
       <c r="AG12"/>
       <c r="AH12"/>
       <c r="AI12"/>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1245,6 +1262,7 @@
       <c r="AG13"/>
       <c r="AH13"/>
       <c r="AI13"/>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1312,6 +1330,7 @@
       <c r="AG14"/>
       <c r="AH14"/>
       <c r="AI14"/>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1381,6 +1400,7 @@
       <c r="AG15"/>
       <c r="AH15"/>
       <c r="AI15"/>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1450,6 +1470,7 @@
       <c r="AG16"/>
       <c r="AH16"/>
       <c r="AI16"/>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1519,6 +1540,7 @@
       <c r="AG17"/>
       <c r="AH17"/>
       <c r="AI17"/>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1588,6 +1610,7 @@
       <c r="AG18"/>
       <c r="AH18"/>
       <c r="AI18"/>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1657,6 +1680,7 @@
       <c r="AG19"/>
       <c r="AH19"/>
       <c r="AI19"/>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1726,6 +1750,7 @@
       <c r="AG20"/>
       <c r="AH20"/>
       <c r="AI20"/>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1795,6 +1820,7 @@
       <c r="AG21"/>
       <c r="AH21"/>
       <c r="AI21"/>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1864,6 +1890,7 @@
       <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1933,6 +1960,7 @@
       <c r="AG23"/>
       <c r="AH23"/>
       <c r="AI23"/>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2002,6 +2030,7 @@
       <c r="AG24"/>
       <c r="AH24"/>
       <c r="AI24"/>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2071,6 +2100,7 @@
       <c r="AG25"/>
       <c r="AH25"/>
       <c r="AI25"/>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2140,6 +2170,7 @@
       <c r="AG26"/>
       <c r="AH26"/>
       <c r="AI26"/>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2209,6 +2240,7 @@
       <c r="AG27"/>
       <c r="AH27"/>
       <c r="AI27"/>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2278,6 +2310,7 @@
       <c r="AG28"/>
       <c r="AH28"/>
       <c r="AI28"/>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2347,6 +2380,7 @@
       <c r="AG29"/>
       <c r="AH29"/>
       <c r="AI29"/>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2416,6 +2450,7 @@
       <c r="AG30"/>
       <c r="AH30"/>
       <c r="AI30"/>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2485,6 +2520,7 @@
       <c r="AG31"/>
       <c r="AH31"/>
       <c r="AI31"/>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2554,6 +2590,7 @@
       </c>
       <c r="AH32"/>
       <c r="AI32"/>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2623,12 +2660,15 @@
         <v>123085</v>
       </c>
       <c r="AI33"/>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34"/>
+      <c r="B34" t="n">
+        <v>135106</v>
+      </c>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -2690,6 +2730,7 @@
       <c r="AI34" t="n">
         <v>134005</v>
       </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -2754,6 +2795,9 @@
       </c>
       <c r="AI35" t="n">
         <v>142591</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>144602</v>
       </c>
     </row>
     <row r="36">
@@ -2817,6 +2861,9 @@
       </c>
       <c r="AI36" t="n">
         <v>150754</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>153710</v>
       </c>
     </row>
     <row r="37">
@@ -2878,6 +2925,9 @@
       </c>
       <c r="AI37" t="n">
         <v>157802</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>161787</v>
       </c>
     </row>
     <row r="38">
@@ -2937,6 +2987,9 @@
       </c>
       <c r="AI38" t="n">
         <v>164903</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>169926</v>
       </c>
     </row>
     <row r="39">
@@ -2994,6 +3047,9 @@
       </c>
       <c r="AI39" t="n">
         <v>172253</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>178377</v>
       </c>
     </row>
     <row r="40">
@@ -3049,6 +3105,9 @@
       </c>
       <c r="AI40" t="n">
         <v>178227</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>185476</v>
       </c>
     </row>
     <row r="41">
@@ -3102,6 +3161,9 @@
       </c>
       <c r="AI41" t="n">
         <v>184377</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>192765</v>
       </c>
     </row>
     <row r="42">
@@ -3153,6 +3215,9 @@
       </c>
       <c r="AI42" t="n">
         <v>189342</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>198802</v>
       </c>
     </row>
     <row r="43">
@@ -3202,6 +3267,9 @@
       </c>
       <c r="AI43" t="n">
         <v>194518</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>204955</v>
       </c>
     </row>
     <row r="44">
@@ -3249,6 +3317,9 @@
       </c>
       <c r="AI44" t="n">
         <v>199012</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>210362</v>
       </c>
     </row>
     <row r="45">
@@ -3294,6 +3365,9 @@
       </c>
       <c r="AI45" t="n">
         <v>203603</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>215842</v>
       </c>
     </row>
     <row r="46">
@@ -3337,6 +3411,9 @@
       </c>
       <c r="AI46" t="n">
         <v>208168</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>221290</v>
       </c>
     </row>
     <row r="47">
@@ -3379,6 +3456,51 @@
       <c r="AI47" t="n">
         <v>212154</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>226070</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48" t="n">
+        <v>230871</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3499,6 +3621,9 @@
       </c>
       <c r="AI1" t="s">
         <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -3543,6 +3668,7 @@
       <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2"/>
+      <c r="AJ2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3588,6 +3714,7 @@
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
+      <c r="AJ3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3635,6 +3762,7 @@
       <c r="AG4"/>
       <c r="AH4"/>
       <c r="AI4"/>
+      <c r="AJ4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3684,6 +3812,7 @@
       <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3735,6 +3864,7 @@
       <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3788,6 +3918,7 @@
       <c r="AG7"/>
       <c r="AH7"/>
       <c r="AI7"/>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3843,6 +3974,7 @@
       <c r="AG8"/>
       <c r="AH8"/>
       <c r="AI8"/>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3900,6 +4032,7 @@
       <c r="AG9"/>
       <c r="AH9"/>
       <c r="AI9"/>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3959,6 +4092,7 @@
       <c r="AG10"/>
       <c r="AH10"/>
       <c r="AI10"/>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4020,6 +4154,7 @@
       <c r="AG11"/>
       <c r="AH11"/>
       <c r="AI11"/>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -4083,6 +4218,7 @@
       <c r="AG12"/>
       <c r="AH12"/>
       <c r="AI12"/>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -4148,6 +4284,7 @@
       <c r="AG13"/>
       <c r="AH13"/>
       <c r="AI13"/>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -4215,6 +4352,7 @@
       <c r="AG14"/>
       <c r="AH14"/>
       <c r="AI14"/>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -4284,6 +4422,7 @@
       <c r="AG15"/>
       <c r="AH15"/>
       <c r="AI15"/>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4353,6 +4492,7 @@
       <c r="AG16"/>
       <c r="AH16"/>
       <c r="AI16"/>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4422,6 +4562,7 @@
       <c r="AG17"/>
       <c r="AH17"/>
       <c r="AI17"/>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4491,6 +4632,7 @@
       <c r="AG18"/>
       <c r="AH18"/>
       <c r="AI18"/>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4560,6 +4702,7 @@
       <c r="AG19"/>
       <c r="AH19"/>
       <c r="AI19"/>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4629,6 +4772,7 @@
       <c r="AG20"/>
       <c r="AH20"/>
       <c r="AI20"/>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4698,6 +4842,7 @@
       <c r="AG21"/>
       <c r="AH21"/>
       <c r="AI21"/>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4767,6 +4912,7 @@
       <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4836,6 +4982,7 @@
       <c r="AG23"/>
       <c r="AH23"/>
       <c r="AI23"/>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4905,6 +5052,7 @@
       <c r="AG24"/>
       <c r="AH24"/>
       <c r="AI24"/>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4974,6 +5122,7 @@
       <c r="AG25"/>
       <c r="AH25"/>
       <c r="AI25"/>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -5043,6 +5192,7 @@
       <c r="AG26"/>
       <c r="AH26"/>
       <c r="AI26"/>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -5112,6 +5262,7 @@
       <c r="AG27"/>
       <c r="AH27"/>
       <c r="AI27"/>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -5181,6 +5332,7 @@
       <c r="AG28"/>
       <c r="AH28"/>
       <c r="AI28"/>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -5250,6 +5402,7 @@
       <c r="AG29"/>
       <c r="AH29"/>
       <c r="AI29"/>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -5319,6 +5472,7 @@
       <c r="AG30"/>
       <c r="AH30"/>
       <c r="AI30"/>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -5388,6 +5542,7 @@
       <c r="AG31"/>
       <c r="AH31"/>
       <c r="AI31"/>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -5457,13 +5612,14 @@
       </c>
       <c r="AH32"/>
       <c r="AI32"/>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>8536</v>
+        <v>8535</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -5526,12 +5682,15 @@
         <v>8364</v>
       </c>
       <c r="AI33"/>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34"/>
+      <c r="B34" t="n">
+        <v>9146</v>
+      </c>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -5593,6 +5752,7 @@
       <c r="AI34" t="n">
         <v>9033</v>
       </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -5657,6 +5817,9 @@
       </c>
       <c r="AI35" t="n">
         <v>9520</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>9744</v>
       </c>
     </row>
     <row r="36">
@@ -5720,6 +5883,9 @@
       </c>
       <c r="AI36" t="n">
         <v>9971</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>10246</v>
       </c>
     </row>
     <row r="37">
@@ -5781,6 +5947,9 @@
       </c>
       <c r="AI37" t="n">
         <v>10352</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>10812</v>
       </c>
     </row>
     <row r="38">
@@ -5840,6 +6009,9 @@
       </c>
       <c r="AI38" t="n">
         <v>10738</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>11380</v>
       </c>
     </row>
     <row r="39">
@@ -5897,6 +6069,9 @@
       </c>
       <c r="AI39" t="n">
         <v>11134</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>12017</v>
       </c>
     </row>
     <row r="40">
@@ -5952,6 +6127,9 @@
       </c>
       <c r="AI40" t="n">
         <v>11446</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>12535</v>
       </c>
     </row>
     <row r="41">
@@ -6005,6 +6183,9 @@
       </c>
       <c r="AI41" t="n">
         <v>11773</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>13052</v>
       </c>
     </row>
     <row r="42">
@@ -6056,6 +6237,9 @@
       </c>
       <c r="AI42" t="n">
         <v>12032</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>13458</v>
       </c>
     </row>
     <row r="43">
@@ -6105,6 +6289,9 @@
       </c>
       <c r="AI43" t="n">
         <v>12308</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>13914</v>
       </c>
     </row>
     <row r="44">
@@ -6152,6 +6339,9 @@
       </c>
       <c r="AI44" t="n">
         <v>12543</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>14339</v>
       </c>
     </row>
     <row r="45">
@@ -6197,6 +6387,9 @@
       </c>
       <c r="AI45" t="n">
         <v>12789</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>14782</v>
       </c>
     </row>
     <row r="46">
@@ -6240,6 +6433,9 @@
       </c>
       <c r="AI46" t="n">
         <v>13037</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>15158</v>
       </c>
     </row>
     <row r="47">
@@ -6282,6 +6478,51 @@
       <c r="AI47" t="n">
         <v>13253</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>15632</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48" t="n">
+        <v>15999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-23</t>
   </si>
 </sst>
 </file>
@@ -603,6 +609,12 @@
       <c r="AJ1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -647,6 +659,8 @@
       <c r="AH2"/>
       <c r="AI2"/>
       <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -693,6 +707,8 @@
       <c r="AH3"/>
       <c r="AI3"/>
       <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -741,6 +757,8 @@
       <c r="AH4"/>
       <c r="AI4"/>
       <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -791,6 +809,8 @@
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -843,6 +863,8 @@
       <c r="AH6"/>
       <c r="AI6"/>
       <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -897,6 +919,8 @@
       <c r="AH7"/>
       <c r="AI7"/>
       <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -953,6 +977,8 @@
       <c r="AH8"/>
       <c r="AI8"/>
       <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1011,6 +1037,8 @@
       <c r="AH9"/>
       <c r="AI9"/>
       <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1071,6 +1099,8 @@
       <c r="AH10"/>
       <c r="AI10"/>
       <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1133,6 +1163,8 @@
       <c r="AH11"/>
       <c r="AI11"/>
       <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1197,6 +1229,8 @@
       <c r="AH12"/>
       <c r="AI12"/>
       <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1263,6 +1297,8 @@
       <c r="AH13"/>
       <c r="AI13"/>
       <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1331,6 +1367,8 @@
       <c r="AH14"/>
       <c r="AI14"/>
       <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1401,6 +1439,8 @@
       <c r="AH15"/>
       <c r="AI15"/>
       <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1471,6 +1511,8 @@
       <c r="AH16"/>
       <c r="AI16"/>
       <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1541,6 +1583,8 @@
       <c r="AH17"/>
       <c r="AI17"/>
       <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1611,6 +1655,8 @@
       <c r="AH18"/>
       <c r="AI18"/>
       <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1681,6 +1727,8 @@
       <c r="AH19"/>
       <c r="AI19"/>
       <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1751,6 +1799,8 @@
       <c r="AH20"/>
       <c r="AI20"/>
       <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1821,6 +1871,8 @@
       <c r="AH21"/>
       <c r="AI21"/>
       <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1891,6 +1943,8 @@
       <c r="AH22"/>
       <c r="AI22"/>
       <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1961,6 +2015,8 @@
       <c r="AH23"/>
       <c r="AI23"/>
       <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2031,6 +2087,8 @@
       <c r="AH24"/>
       <c r="AI24"/>
       <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2101,6 +2159,8 @@
       <c r="AH25"/>
       <c r="AI25"/>
       <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2171,6 +2231,8 @@
       <c r="AH26"/>
       <c r="AI26"/>
       <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2241,6 +2303,8 @@
       <c r="AH27"/>
       <c r="AI27"/>
       <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2311,6 +2375,8 @@
       <c r="AH28"/>
       <c r="AI28"/>
       <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2381,6 +2447,8 @@
       <c r="AH29"/>
       <c r="AI29"/>
       <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2451,6 +2519,8 @@
       <c r="AH30"/>
       <c r="AI30"/>
       <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2521,6 +2591,8 @@
       <c r="AH31"/>
       <c r="AI31"/>
       <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2591,6 +2663,8 @@
       <c r="AH32"/>
       <c r="AI32"/>
       <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2661,6 +2735,8 @@
       </c>
       <c r="AI33"/>
       <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2731,12 +2807,16 @@
         <v>134005</v>
       </c>
       <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35"/>
+      <c r="B35" t="n">
+        <v>145328</v>
+      </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -2799,12 +2879,16 @@
       <c r="AJ35" t="n">
         <v>144602</v>
       </c>
+      <c r="AK35"/>
+      <c r="AL35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36"/>
+      <c r="B36" t="n">
+        <v>155939</v>
+      </c>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -2865,6 +2949,10 @@
       <c r="AJ36" t="n">
         <v>153710</v>
       </c>
+      <c r="AK36" t="n">
+        <v>154855</v>
+      </c>
+      <c r="AL36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -2928,6 +3016,12 @@
       </c>
       <c r="AJ37" t="n">
         <v>161787</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>165583</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>167569</v>
       </c>
     </row>
     <row r="38">
@@ -2990,6 +3084,12 @@
       </c>
       <c r="AJ38" t="n">
         <v>169926</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>176686</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>179945</v>
       </c>
     </row>
     <row r="39">
@@ -3050,6 +3150,12 @@
       </c>
       <c r="AJ39" t="n">
         <v>178377</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>189045</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>194042</v>
       </c>
     </row>
     <row r="40">
@@ -3108,6 +3214,12 @@
       </c>
       <c r="AJ40" t="n">
         <v>185476</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>200128</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>208309</v>
       </c>
     </row>
     <row r="41">
@@ -3164,6 +3276,12 @@
       </c>
       <c r="AJ41" t="n">
         <v>192765</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>211471</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>223380</v>
       </c>
     </row>
     <row r="42">
@@ -3218,6 +3336,12 @@
       </c>
       <c r="AJ42" t="n">
         <v>198802</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>221676</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>238478</v>
       </c>
     </row>
     <row r="43">
@@ -3270,6 +3394,12 @@
       </c>
       <c r="AJ43" t="n">
         <v>204955</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>232449</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>255191</v>
       </c>
     </row>
     <row r="44">
@@ -3320,6 +3450,12 @@
       </c>
       <c r="AJ44" t="n">
         <v>210362</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>243057</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>273037</v>
       </c>
     </row>
     <row r="45">
@@ -3368,6 +3504,12 @@
       </c>
       <c r="AJ45" t="n">
         <v>215842</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>253985</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>292401</v>
       </c>
     </row>
     <row r="46">
@@ -3414,6 +3556,12 @@
       </c>
       <c r="AJ46" t="n">
         <v>221290</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>264099</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>311728</v>
       </c>
     </row>
     <row r="47">
@@ -3458,6 +3606,12 @@
       </c>
       <c r="AJ47" t="n">
         <v>226070</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>275553</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>335023</v>
       </c>
     </row>
     <row r="48">
@@ -3501,6 +3655,102 @@
       <c r="AJ48" t="n">
         <v>230871</v>
       </c>
+      <c r="AK48" t="n">
+        <v>285383</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>358048</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49" t="n">
+        <v>294939</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>382227</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50" t="n">
+        <v>407482</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3624,6 +3874,12 @@
       </c>
       <c r="AJ1" t="s">
         <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -3669,6 +3925,8 @@
       <c r="AH2"/>
       <c r="AI2"/>
       <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3715,6 +3973,8 @@
       <c r="AH3"/>
       <c r="AI3"/>
       <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3763,6 +4023,8 @@
       <c r="AH4"/>
       <c r="AI4"/>
       <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3813,6 +4075,8 @@
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3865,6 +4129,8 @@
       <c r="AH6"/>
       <c r="AI6"/>
       <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3919,6 +4185,8 @@
       <c r="AH7"/>
       <c r="AI7"/>
       <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3975,6 +4243,8 @@
       <c r="AH8"/>
       <c r="AI8"/>
       <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -4033,6 +4303,8 @@
       <c r="AH9"/>
       <c r="AI9"/>
       <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -4093,6 +4365,8 @@
       <c r="AH10"/>
       <c r="AI10"/>
       <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4155,6 +4429,8 @@
       <c r="AH11"/>
       <c r="AI11"/>
       <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -4219,6 +4495,8 @@
       <c r="AH12"/>
       <c r="AI12"/>
       <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -4285,6 +4563,8 @@
       <c r="AH13"/>
       <c r="AI13"/>
       <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -4353,6 +4633,8 @@
       <c r="AH14"/>
       <c r="AI14"/>
       <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -4423,6 +4705,8 @@
       <c r="AH15"/>
       <c r="AI15"/>
       <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4493,6 +4777,8 @@
       <c r="AH16"/>
       <c r="AI16"/>
       <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4563,6 +4849,8 @@
       <c r="AH17"/>
       <c r="AI17"/>
       <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4633,6 +4921,8 @@
       <c r="AH18"/>
       <c r="AI18"/>
       <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4703,6 +4993,8 @@
       <c r="AH19"/>
       <c r="AI19"/>
       <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4773,6 +5065,8 @@
       <c r="AH20"/>
       <c r="AI20"/>
       <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4843,6 +5137,8 @@
       <c r="AH21"/>
       <c r="AI21"/>
       <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4913,6 +5209,8 @@
       <c r="AH22"/>
       <c r="AI22"/>
       <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4983,6 +5281,8 @@
       <c r="AH23"/>
       <c r="AI23"/>
       <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -5053,6 +5353,8 @@
       <c r="AH24"/>
       <c r="AI24"/>
       <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -5123,6 +5425,8 @@
       <c r="AH25"/>
       <c r="AI25"/>
       <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -5193,6 +5497,8 @@
       <c r="AH26"/>
       <c r="AI26"/>
       <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -5263,6 +5569,8 @@
       <c r="AH27"/>
       <c r="AI27"/>
       <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -5333,6 +5641,8 @@
       <c r="AH28"/>
       <c r="AI28"/>
       <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -5403,6 +5713,8 @@
       <c r="AH29"/>
       <c r="AI29"/>
       <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -5473,6 +5785,8 @@
       <c r="AH30"/>
       <c r="AI30"/>
       <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -5543,6 +5857,8 @@
       <c r="AH31"/>
       <c r="AI31"/>
       <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -5613,6 +5929,8 @@
       <c r="AH32"/>
       <c r="AI32"/>
       <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -5683,6 +6001,8 @@
       </c>
       <c r="AI33"/>
       <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -5753,12 +6073,16 @@
         <v>9033</v>
       </c>
       <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35"/>
+      <c r="B35" t="n">
+        <v>9897</v>
+      </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -5821,12 +6145,16 @@
       <c r="AJ35" t="n">
         <v>9744</v>
       </c>
+      <c r="AK35"/>
+      <c r="AL35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36"/>
+      <c r="B36" t="n">
+        <v>10627</v>
+      </c>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -5887,6 +6215,10 @@
       <c r="AJ36" t="n">
         <v>10246</v>
       </c>
+      <c r="AK36" t="n">
+        <v>10492</v>
+      </c>
+      <c r="AL36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -5950,6 +6282,12 @@
       </c>
       <c r="AJ37" t="n">
         <v>10812</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>11218</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>11026</v>
       </c>
     </row>
     <row r="38">
@@ -6012,6 +6350,12 @@
       </c>
       <c r="AJ38" t="n">
         <v>11380</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>11986</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>11455</v>
       </c>
     </row>
     <row r="39">
@@ -6072,6 +6416,12 @@
       </c>
       <c r="AJ39" t="n">
         <v>12017</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>12883</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>11863</v>
       </c>
     </row>
     <row r="40">
@@ -6130,6 +6480,12 @@
       </c>
       <c r="AJ40" t="n">
         <v>12535</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>13714</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>12229</v>
       </c>
     </row>
     <row r="41">
@@ -6186,6 +6542,12 @@
       </c>
       <c r="AJ41" t="n">
         <v>13052</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>14579</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>12569</v>
       </c>
     </row>
     <row r="42">
@@ -6240,6 +6602,12 @@
       </c>
       <c r="AJ42" t="n">
         <v>13458</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>15355</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>12910</v>
       </c>
     </row>
     <row r="43">
@@ -6292,6 +6660,12 @@
       </c>
       <c r="AJ43" t="n">
         <v>13914</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>16213</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>13225</v>
       </c>
     </row>
     <row r="44">
@@ -6342,6 +6716,12 @@
       </c>
       <c r="AJ44" t="n">
         <v>14339</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>17080</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>13530</v>
       </c>
     </row>
     <row r="45">
@@ -6390,6 +6770,12 @@
       </c>
       <c r="AJ45" t="n">
         <v>14782</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>18000</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>13832</v>
       </c>
     </row>
     <row r="46">
@@ -6436,6 +6822,12 @@
       </c>
       <c r="AJ46" t="n">
         <v>15158</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>18847</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>14109</v>
       </c>
     </row>
     <row r="47">
@@ -6480,6 +6872,12 @@
       </c>
       <c r="AJ47" t="n">
         <v>15632</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>19881</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>14438</v>
       </c>
     </row>
     <row r="48">
@@ -6523,6 +6921,102 @@
       <c r="AJ48" t="n">
         <v>15999</v>
       </c>
+      <c r="AK48" t="n">
+        <v>20810</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>14743</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49" t="n">
+        <v>21740</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>15051</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50" t="n">
+        <v>15351</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-24</t>
   </si>
 </sst>
 </file>
@@ -615,6 +618,9 @@
       <c r="AL1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -661,6 +667,7 @@
       <c r="AJ2"/>
       <c r="AK2"/>
       <c r="AL2"/>
+      <c r="AM2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -709,6 +716,7 @@
       <c r="AJ3"/>
       <c r="AK3"/>
       <c r="AL3"/>
+      <c r="AM3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -759,6 +767,7 @@
       <c r="AJ4"/>
       <c r="AK4"/>
       <c r="AL4"/>
+      <c r="AM4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -811,6 +820,7 @@
       <c r="AJ5"/>
       <c r="AK5"/>
       <c r="AL5"/>
+      <c r="AM5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -865,6 +875,7 @@
       <c r="AJ6"/>
       <c r="AK6"/>
       <c r="AL6"/>
+      <c r="AM6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -921,6 +932,7 @@
       <c r="AJ7"/>
       <c r="AK7"/>
       <c r="AL7"/>
+      <c r="AM7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -979,6 +991,7 @@
       <c r="AJ8"/>
       <c r="AK8"/>
       <c r="AL8"/>
+      <c r="AM8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1039,6 +1052,7 @@
       <c r="AJ9"/>
       <c r="AK9"/>
       <c r="AL9"/>
+      <c r="AM9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1101,6 +1115,7 @@
       <c r="AJ10"/>
       <c r="AK10"/>
       <c r="AL10"/>
+      <c r="AM10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1165,6 +1180,7 @@
       <c r="AJ11"/>
       <c r="AK11"/>
       <c r="AL11"/>
+      <c r="AM11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1231,6 +1247,7 @@
       <c r="AJ12"/>
       <c r="AK12"/>
       <c r="AL12"/>
+      <c r="AM12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1299,6 +1316,7 @@
       <c r="AJ13"/>
       <c r="AK13"/>
       <c r="AL13"/>
+      <c r="AM13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1369,6 +1387,7 @@
       <c r="AJ14"/>
       <c r="AK14"/>
       <c r="AL14"/>
+      <c r="AM14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1441,6 +1460,7 @@
       <c r="AJ15"/>
       <c r="AK15"/>
       <c r="AL15"/>
+      <c r="AM15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1513,6 +1533,7 @@
       <c r="AJ16"/>
       <c r="AK16"/>
       <c r="AL16"/>
+      <c r="AM16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1585,6 +1606,7 @@
       <c r="AJ17"/>
       <c r="AK17"/>
       <c r="AL17"/>
+      <c r="AM17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1657,6 +1679,7 @@
       <c r="AJ18"/>
       <c r="AK18"/>
       <c r="AL18"/>
+      <c r="AM18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1729,6 +1752,7 @@
       <c r="AJ19"/>
       <c r="AK19"/>
       <c r="AL19"/>
+      <c r="AM19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1801,6 +1825,7 @@
       <c r="AJ20"/>
       <c r="AK20"/>
       <c r="AL20"/>
+      <c r="AM20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1873,6 +1898,7 @@
       <c r="AJ21"/>
       <c r="AK21"/>
       <c r="AL21"/>
+      <c r="AM21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1945,6 +1971,7 @@
       <c r="AJ22"/>
       <c r="AK22"/>
       <c r="AL22"/>
+      <c r="AM22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2017,6 +2044,7 @@
       <c r="AJ23"/>
       <c r="AK23"/>
       <c r="AL23"/>
+      <c r="AM23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2089,6 +2117,7 @@
       <c r="AJ24"/>
       <c r="AK24"/>
       <c r="AL24"/>
+      <c r="AM24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2161,6 +2190,7 @@
       <c r="AJ25"/>
       <c r="AK25"/>
       <c r="AL25"/>
+      <c r="AM25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2233,6 +2263,7 @@
       <c r="AJ26"/>
       <c r="AK26"/>
       <c r="AL26"/>
+      <c r="AM26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2305,6 +2336,7 @@
       <c r="AJ27"/>
       <c r="AK27"/>
       <c r="AL27"/>
+      <c r="AM27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2377,6 +2409,7 @@
       <c r="AJ28"/>
       <c r="AK28"/>
       <c r="AL28"/>
+      <c r="AM28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2449,6 +2482,7 @@
       <c r="AJ29"/>
       <c r="AK29"/>
       <c r="AL29"/>
+      <c r="AM29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2521,6 +2555,7 @@
       <c r="AJ30"/>
       <c r="AK30"/>
       <c r="AL30"/>
+      <c r="AM30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2593,6 +2628,7 @@
       <c r="AJ31"/>
       <c r="AK31"/>
       <c r="AL31"/>
+      <c r="AM31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2665,6 +2701,7 @@
       <c r="AJ32"/>
       <c r="AK32"/>
       <c r="AL32"/>
+      <c r="AM32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2737,6 +2774,7 @@
       <c r="AJ33"/>
       <c r="AK33"/>
       <c r="AL33"/>
+      <c r="AM33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2809,6 +2847,7 @@
       <c r="AJ34"/>
       <c r="AK34"/>
       <c r="AL34"/>
+      <c r="AM34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -2881,6 +2920,7 @@
       </c>
       <c r="AK35"/>
       <c r="AL35"/>
+      <c r="AM35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -2953,12 +2993,15 @@
         <v>154855</v>
       </c>
       <c r="AL36"/>
+      <c r="AM36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37"/>
+      <c r="B37" t="n">
+        <v>162699</v>
+      </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -3023,6 +3066,7 @@
       <c r="AL37" t="n">
         <v>167569</v>
       </c>
+      <c r="AM37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -3090,6 +3134,9 @@
       </c>
       <c r="AL38" t="n">
         <v>179945</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>172358</v>
       </c>
     </row>
     <row r="39">
@@ -3156,6 +3203,9 @@
       </c>
       <c r="AL39" t="n">
         <v>194042</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>181761</v>
       </c>
     </row>
     <row r="40">
@@ -3220,6 +3270,9 @@
       </c>
       <c r="AL40" t="n">
         <v>208309</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>190605</v>
       </c>
     </row>
     <row r="41">
@@ -3282,6 +3335,9 @@
       </c>
       <c r="AL41" t="n">
         <v>223380</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>199268</v>
       </c>
     </row>
     <row r="42">
@@ -3342,6 +3398,9 @@
       </c>
       <c r="AL42" t="n">
         <v>238478</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>208090</v>
       </c>
     </row>
     <row r="43">
@@ -3400,6 +3459,9 @@
       </c>
       <c r="AL43" t="n">
         <v>255191</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>216896</v>
       </c>
     </row>
     <row r="44">
@@ -3456,6 +3518,9 @@
       </c>
       <c r="AL44" t="n">
         <v>273037</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>225569</v>
       </c>
     </row>
     <row r="45">
@@ -3510,6 +3575,9 @@
       </c>
       <c r="AL45" t="n">
         <v>292401</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>234029</v>
       </c>
     </row>
     <row r="46">
@@ -3562,6 +3630,9 @@
       </c>
       <c r="AL46" t="n">
         <v>311728</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>242300</v>
       </c>
     </row>
     <row r="47">
@@ -3612,6 +3683,9 @@
       </c>
       <c r="AL47" t="n">
         <v>335023</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>250483</v>
       </c>
     </row>
     <row r="48">
@@ -3660,6 +3734,9 @@
       </c>
       <c r="AL48" t="n">
         <v>358048</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>257653</v>
       </c>
     </row>
     <row r="49">
@@ -3706,6 +3783,9 @@
       </c>
       <c r="AL49" t="n">
         <v>382227</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>264478</v>
       </c>
     </row>
     <row r="50">
@@ -3751,6 +3831,54 @@
       <c r="AL50" t="n">
         <v>407482</v>
       </c>
+      <c r="AM50" t="n">
+        <v>270856</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51" t="n">
+        <v>277035</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3880,6 +4008,9 @@
       </c>
       <c r="AL1" t="s">
         <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -3927,6 +4058,7 @@
       <c r="AJ2"/>
       <c r="AK2"/>
       <c r="AL2"/>
+      <c r="AM2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3975,6 +4107,7 @@
       <c r="AJ3"/>
       <c r="AK3"/>
       <c r="AL3"/>
+      <c r="AM3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4025,6 +4158,7 @@
       <c r="AJ4"/>
       <c r="AK4"/>
       <c r="AL4"/>
+      <c r="AM4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4077,6 +4211,7 @@
       <c r="AJ5"/>
       <c r="AK5"/>
       <c r="AL5"/>
+      <c r="AM5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4131,6 +4266,7 @@
       <c r="AJ6"/>
       <c r="AK6"/>
       <c r="AL6"/>
+      <c r="AM6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4187,6 +4323,7 @@
       <c r="AJ7"/>
       <c r="AK7"/>
       <c r="AL7"/>
+      <c r="AM7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4245,6 +4382,7 @@
       <c r="AJ8"/>
       <c r="AK8"/>
       <c r="AL8"/>
+      <c r="AM8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -4305,6 +4443,7 @@
       <c r="AJ9"/>
       <c r="AK9"/>
       <c r="AL9"/>
+      <c r="AM9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -4367,6 +4506,7 @@
       <c r="AJ10"/>
       <c r="AK10"/>
       <c r="AL10"/>
+      <c r="AM10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4431,6 +4571,7 @@
       <c r="AJ11"/>
       <c r="AK11"/>
       <c r="AL11"/>
+      <c r="AM11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -4497,6 +4638,7 @@
       <c r="AJ12"/>
       <c r="AK12"/>
       <c r="AL12"/>
+      <c r="AM12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -4565,6 +4707,7 @@
       <c r="AJ13"/>
       <c r="AK13"/>
       <c r="AL13"/>
+      <c r="AM13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -4635,6 +4778,7 @@
       <c r="AJ14"/>
       <c r="AK14"/>
       <c r="AL14"/>
+      <c r="AM14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -4707,6 +4851,7 @@
       <c r="AJ15"/>
       <c r="AK15"/>
       <c r="AL15"/>
+      <c r="AM15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4779,6 +4924,7 @@
       <c r="AJ16"/>
       <c r="AK16"/>
       <c r="AL16"/>
+      <c r="AM16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4851,6 +4997,7 @@
       <c r="AJ17"/>
       <c r="AK17"/>
       <c r="AL17"/>
+      <c r="AM17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4923,6 +5070,7 @@
       <c r="AJ18"/>
       <c r="AK18"/>
       <c r="AL18"/>
+      <c r="AM18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4995,6 +5143,7 @@
       <c r="AJ19"/>
       <c r="AK19"/>
       <c r="AL19"/>
+      <c r="AM19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -5067,6 +5216,7 @@
       <c r="AJ20"/>
       <c r="AK20"/>
       <c r="AL20"/>
+      <c r="AM20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -5139,6 +5289,7 @@
       <c r="AJ21"/>
       <c r="AK21"/>
       <c r="AL21"/>
+      <c r="AM21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -5211,6 +5362,7 @@
       <c r="AJ22"/>
       <c r="AK22"/>
       <c r="AL22"/>
+      <c r="AM22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -5283,6 +5435,7 @@
       <c r="AJ23"/>
       <c r="AK23"/>
       <c r="AL23"/>
+      <c r="AM23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -5355,6 +5508,7 @@
       <c r="AJ24"/>
       <c r="AK24"/>
       <c r="AL24"/>
+      <c r="AM24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -5427,6 +5581,7 @@
       <c r="AJ25"/>
       <c r="AK25"/>
       <c r="AL25"/>
+      <c r="AM25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -5499,6 +5654,7 @@
       <c r="AJ26"/>
       <c r="AK26"/>
       <c r="AL26"/>
+      <c r="AM26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -5571,6 +5727,7 @@
       <c r="AJ27"/>
       <c r="AK27"/>
       <c r="AL27"/>
+      <c r="AM27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -5643,6 +5800,7 @@
       <c r="AJ28"/>
       <c r="AK28"/>
       <c r="AL28"/>
+      <c r="AM28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -5715,6 +5873,7 @@
       <c r="AJ29"/>
       <c r="AK29"/>
       <c r="AL29"/>
+      <c r="AM29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -5787,6 +5946,7 @@
       <c r="AJ30"/>
       <c r="AK30"/>
       <c r="AL30"/>
+      <c r="AM30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -5859,6 +6019,7 @@
       <c r="AJ31"/>
       <c r="AK31"/>
       <c r="AL31"/>
+      <c r="AM31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -5931,6 +6092,7 @@
       <c r="AJ32"/>
       <c r="AK32"/>
       <c r="AL32"/>
+      <c r="AM32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -6003,6 +6165,7 @@
       <c r="AJ33"/>
       <c r="AK33"/>
       <c r="AL33"/>
+      <c r="AM33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -6075,6 +6238,7 @@
       <c r="AJ34"/>
       <c r="AK34"/>
       <c r="AL34"/>
+      <c r="AM34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -6147,6 +6311,7 @@
       </c>
       <c r="AK35"/>
       <c r="AL35"/>
+      <c r="AM35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -6219,12 +6384,15 @@
         <v>10492</v>
       </c>
       <c r="AL36"/>
+      <c r="AM36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37"/>
+      <c r="B37" t="n">
+        <v>11123</v>
+      </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -6289,6 +6457,7 @@
       <c r="AL37" t="n">
         <v>11026</v>
       </c>
+      <c r="AM37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -6356,6 +6525,9 @@
       </c>
       <c r="AL38" t="n">
         <v>11455</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>11746</v>
       </c>
     </row>
     <row r="39">
@@ -6422,6 +6594,9 @@
       </c>
       <c r="AL39" t="n">
         <v>11863</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>12396</v>
       </c>
     </row>
     <row r="40">
@@ -6486,6 +6661,9 @@
       </c>
       <c r="AL40" t="n">
         <v>12229</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>12952</v>
       </c>
     </row>
     <row r="41">
@@ -6548,6 +6726,9 @@
       </c>
       <c r="AL41" t="n">
         <v>12569</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>13494</v>
       </c>
     </row>
     <row r="42">
@@ -6608,6 +6789,9 @@
       </c>
       <c r="AL42" t="n">
         <v>12910</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>13968</v>
       </c>
     </row>
     <row r="43">
@@ -6666,6 +6850,9 @@
       </c>
       <c r="AL43" t="n">
         <v>13225</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>14485</v>
       </c>
     </row>
     <row r="44">
@@ -6722,6 +6909,9 @@
       </c>
       <c r="AL44" t="n">
         <v>13530</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>14960</v>
       </c>
     </row>
     <row r="45">
@@ -6776,6 +6966,9 @@
       </c>
       <c r="AL45" t="n">
         <v>13832</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>15434</v>
       </c>
     </row>
     <row r="46">
@@ -6828,6 +7021,9 @@
       </c>
       <c r="AL46" t="n">
         <v>14109</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>15864</v>
       </c>
     </row>
     <row r="47">
@@ -6878,6 +7074,9 @@
       </c>
       <c r="AL47" t="n">
         <v>14438</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>16337</v>
       </c>
     </row>
     <row r="48">
@@ -6926,6 +7125,9 @@
       </c>
       <c r="AL48" t="n">
         <v>14743</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>16737</v>
       </c>
     </row>
     <row r="49">
@@ -6972,6 +7174,9 @@
       </c>
       <c r="AL49" t="n">
         <v>15051</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>17128</v>
       </c>
     </row>
     <row r="50">
@@ -7017,6 +7222,54 @@
       <c r="AL50" t="n">
         <v>15351</v>
       </c>
+      <c r="AM50" t="n">
+        <v>17494</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51" t="n">
+        <v>17864</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-25</t>
   </si>
 </sst>
 </file>
@@ -621,6 +624,9 @@
       <c r="AM1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -668,6 +674,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
+      <c r="AN2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -717,6 +724,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>
+      <c r="AN3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -768,6 +776,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
       <c r="AM4"/>
+      <c r="AN4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -821,6 +830,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
       <c r="AM5"/>
+      <c r="AN5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -876,6 +886,7 @@
       <c r="AK6"/>
       <c r="AL6"/>
       <c r="AM6"/>
+      <c r="AN6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -933,6 +944,7 @@
       <c r="AK7"/>
       <c r="AL7"/>
       <c r="AM7"/>
+      <c r="AN7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -992,6 +1004,7 @@
       <c r="AK8"/>
       <c r="AL8"/>
       <c r="AM8"/>
+      <c r="AN8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1053,6 +1066,7 @@
       <c r="AK9"/>
       <c r="AL9"/>
       <c r="AM9"/>
+      <c r="AN9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1116,6 +1130,7 @@
       <c r="AK10"/>
       <c r="AL10"/>
       <c r="AM10"/>
+      <c r="AN10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1181,6 +1196,7 @@
       <c r="AK11"/>
       <c r="AL11"/>
       <c r="AM11"/>
+      <c r="AN11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1248,6 +1264,7 @@
       <c r="AK12"/>
       <c r="AL12"/>
       <c r="AM12"/>
+      <c r="AN12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1317,6 +1334,7 @@
       <c r="AK13"/>
       <c r="AL13"/>
       <c r="AM13"/>
+      <c r="AN13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1388,6 +1406,7 @@
       <c r="AK14"/>
       <c r="AL14"/>
       <c r="AM14"/>
+      <c r="AN14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1461,6 +1480,7 @@
       <c r="AK15"/>
       <c r="AL15"/>
       <c r="AM15"/>
+      <c r="AN15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1534,6 +1554,7 @@
       <c r="AK16"/>
       <c r="AL16"/>
       <c r="AM16"/>
+      <c r="AN16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1607,6 +1628,7 @@
       <c r="AK17"/>
       <c r="AL17"/>
       <c r="AM17"/>
+      <c r="AN17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1680,6 +1702,7 @@
       <c r="AK18"/>
       <c r="AL18"/>
       <c r="AM18"/>
+      <c r="AN18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1753,6 +1776,7 @@
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19"/>
+      <c r="AN19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1826,6 +1850,7 @@
       <c r="AK20"/>
       <c r="AL20"/>
       <c r="AM20"/>
+      <c r="AN20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1899,6 +1924,7 @@
       <c r="AK21"/>
       <c r="AL21"/>
       <c r="AM21"/>
+      <c r="AN21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1972,6 +1998,7 @@
       <c r="AK22"/>
       <c r="AL22"/>
       <c r="AM22"/>
+      <c r="AN22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2045,6 +2072,7 @@
       <c r="AK23"/>
       <c r="AL23"/>
       <c r="AM23"/>
+      <c r="AN23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2118,6 +2146,7 @@
       <c r="AK24"/>
       <c r="AL24"/>
       <c r="AM24"/>
+      <c r="AN24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2191,6 +2220,7 @@
       <c r="AK25"/>
       <c r="AL25"/>
       <c r="AM25"/>
+      <c r="AN25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2264,6 +2294,7 @@
       <c r="AK26"/>
       <c r="AL26"/>
       <c r="AM26"/>
+      <c r="AN26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2337,6 +2368,7 @@
       <c r="AK27"/>
       <c r="AL27"/>
       <c r="AM27"/>
+      <c r="AN27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2410,6 +2442,7 @@
       <c r="AK28"/>
       <c r="AL28"/>
       <c r="AM28"/>
+      <c r="AN28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2483,6 +2516,7 @@
       <c r="AK29"/>
       <c r="AL29"/>
       <c r="AM29"/>
+      <c r="AN29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2556,6 +2590,7 @@
       <c r="AK30"/>
       <c r="AL30"/>
       <c r="AM30"/>
+      <c r="AN30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2629,6 +2664,7 @@
       <c r="AK31"/>
       <c r="AL31"/>
       <c r="AM31"/>
+      <c r="AN31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2702,6 +2738,7 @@
       <c r="AK32"/>
       <c r="AL32"/>
       <c r="AM32"/>
+      <c r="AN32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2775,6 +2812,7 @@
       <c r="AK33"/>
       <c r="AL33"/>
       <c r="AM33"/>
+      <c r="AN33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2848,6 +2886,7 @@
       <c r="AK34"/>
       <c r="AL34"/>
       <c r="AM34"/>
+      <c r="AN34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -2921,6 +2960,7 @@
       <c r="AK35"/>
       <c r="AL35"/>
       <c r="AM35"/>
+      <c r="AN35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -2994,6 +3034,7 @@
       </c>
       <c r="AL36"/>
       <c r="AM36"/>
+      <c r="AN36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3067,12 +3108,15 @@
         <v>167569</v>
       </c>
       <c r="AM37"/>
+      <c r="AN37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38"/>
+      <c r="B38" t="n">
+        <v>168331</v>
+      </c>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -3138,6 +3182,7 @@
       <c r="AM38" t="n">
         <v>172358</v>
       </c>
+      <c r="AN38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -3206,6 +3251,9 @@
       </c>
       <c r="AM39" t="n">
         <v>181761</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>176061</v>
       </c>
     </row>
     <row r="40">
@@ -3273,6 +3321,9 @@
       </c>
       <c r="AM40" t="n">
         <v>190605</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>183027</v>
       </c>
     </row>
     <row r="41">
@@ -3338,6 +3389,9 @@
       </c>
       <c r="AM41" t="n">
         <v>199268</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>189675</v>
       </c>
     </row>
     <row r="42">
@@ -3401,6 +3455,9 @@
       </c>
       <c r="AM42" t="n">
         <v>208090</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>196845</v>
       </c>
     </row>
     <row r="43">
@@ -3462,6 +3519,9 @@
       </c>
       <c r="AM43" t="n">
         <v>216896</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>203680</v>
       </c>
     </row>
     <row r="44">
@@ -3521,6 +3581,9 @@
       </c>
       <c r="AM44" t="n">
         <v>225569</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>210425</v>
       </c>
     </row>
     <row r="45">
@@ -3578,6 +3641,9 @@
       </c>
       <c r="AM45" t="n">
         <v>234029</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>216819</v>
       </c>
     </row>
     <row r="46">
@@ -3633,6 +3699,9 @@
       </c>
       <c r="AM46" t="n">
         <v>242300</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>223163</v>
       </c>
     </row>
     <row r="47">
@@ -3686,6 +3755,9 @@
       </c>
       <c r="AM47" t="n">
         <v>250483</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>229213</v>
       </c>
     </row>
     <row r="48">
@@ -3737,6 +3809,9 @@
       </c>
       <c r="AM48" t="n">
         <v>257653</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>234135</v>
       </c>
     </row>
     <row r="49">
@@ -3786,6 +3861,9 @@
       </c>
       <c r="AM49" t="n">
         <v>264478</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>238780</v>
       </c>
     </row>
     <row r="50">
@@ -3833,6 +3911,9 @@
       </c>
       <c r="AM50" t="n">
         <v>270856</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>243015</v>
       </c>
     </row>
     <row r="51">
@@ -3879,6 +3960,55 @@
       <c r="AM51" t="n">
         <v>277035</v>
       </c>
+      <c r="AN51" t="n">
+        <v>247221</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52" t="n">
+        <v>250867</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4011,6 +4141,9 @@
       </c>
       <c r="AM1" t="s">
         <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -4059,6 +4192,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
+      <c r="AN2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -4108,6 +4242,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>
+      <c r="AN3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4159,6 +4294,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
       <c r="AM4"/>
+      <c r="AN4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4212,6 +4348,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
       <c r="AM5"/>
+      <c r="AN5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4267,6 +4404,7 @@
       <c r="AK6"/>
       <c r="AL6"/>
       <c r="AM6"/>
+      <c r="AN6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4324,6 +4462,7 @@
       <c r="AK7"/>
       <c r="AL7"/>
       <c r="AM7"/>
+      <c r="AN7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4383,6 +4522,7 @@
       <c r="AK8"/>
       <c r="AL8"/>
       <c r="AM8"/>
+      <c r="AN8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -4444,6 +4584,7 @@
       <c r="AK9"/>
       <c r="AL9"/>
       <c r="AM9"/>
+      <c r="AN9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -4507,6 +4648,7 @@
       <c r="AK10"/>
       <c r="AL10"/>
       <c r="AM10"/>
+      <c r="AN10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4572,6 +4714,7 @@
       <c r="AK11"/>
       <c r="AL11"/>
       <c r="AM11"/>
+      <c r="AN11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -4639,6 +4782,7 @@
       <c r="AK12"/>
       <c r="AL12"/>
       <c r="AM12"/>
+      <c r="AN12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -4708,6 +4852,7 @@
       <c r="AK13"/>
       <c r="AL13"/>
       <c r="AM13"/>
+      <c r="AN13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -4779,6 +4924,7 @@
       <c r="AK14"/>
       <c r="AL14"/>
       <c r="AM14"/>
+      <c r="AN14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -4852,6 +4998,7 @@
       <c r="AK15"/>
       <c r="AL15"/>
       <c r="AM15"/>
+      <c r="AN15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4925,6 +5072,7 @@
       <c r="AK16"/>
       <c r="AL16"/>
       <c r="AM16"/>
+      <c r="AN16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4998,6 +5146,7 @@
       <c r="AK17"/>
       <c r="AL17"/>
       <c r="AM17"/>
+      <c r="AN17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -5071,6 +5220,7 @@
       <c r="AK18"/>
       <c r="AL18"/>
       <c r="AM18"/>
+      <c r="AN18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -5144,6 +5294,7 @@
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19"/>
+      <c r="AN19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -5217,6 +5368,7 @@
       <c r="AK20"/>
       <c r="AL20"/>
       <c r="AM20"/>
+      <c r="AN20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -5290,6 +5442,7 @@
       <c r="AK21"/>
       <c r="AL21"/>
       <c r="AM21"/>
+      <c r="AN21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -5363,6 +5516,7 @@
       <c r="AK22"/>
       <c r="AL22"/>
       <c r="AM22"/>
+      <c r="AN22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -5436,6 +5590,7 @@
       <c r="AK23"/>
       <c r="AL23"/>
       <c r="AM23"/>
+      <c r="AN23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -5509,6 +5664,7 @@
       <c r="AK24"/>
       <c r="AL24"/>
       <c r="AM24"/>
+      <c r="AN24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -5582,6 +5738,7 @@
       <c r="AK25"/>
       <c r="AL25"/>
       <c r="AM25"/>
+      <c r="AN25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -5655,6 +5812,7 @@
       <c r="AK26"/>
       <c r="AL26"/>
       <c r="AM26"/>
+      <c r="AN26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -5728,6 +5886,7 @@
       <c r="AK27"/>
       <c r="AL27"/>
       <c r="AM27"/>
+      <c r="AN27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -5801,6 +5960,7 @@
       <c r="AK28"/>
       <c r="AL28"/>
       <c r="AM28"/>
+      <c r="AN28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -5874,6 +6034,7 @@
       <c r="AK29"/>
       <c r="AL29"/>
       <c r="AM29"/>
+      <c r="AN29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -5947,6 +6108,7 @@
       <c r="AK30"/>
       <c r="AL30"/>
       <c r="AM30"/>
+      <c r="AN30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -6020,6 +6182,7 @@
       <c r="AK31"/>
       <c r="AL31"/>
       <c r="AM31"/>
+      <c r="AN31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -6093,6 +6256,7 @@
       <c r="AK32"/>
       <c r="AL32"/>
       <c r="AM32"/>
+      <c r="AN32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -6166,6 +6330,7 @@
       <c r="AK33"/>
       <c r="AL33"/>
       <c r="AM33"/>
+      <c r="AN33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -6239,6 +6404,7 @@
       <c r="AK34"/>
       <c r="AL34"/>
       <c r="AM34"/>
+      <c r="AN34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -6312,6 +6478,7 @@
       <c r="AK35"/>
       <c r="AL35"/>
       <c r="AM35"/>
+      <c r="AN35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -6385,6 +6552,7 @@
       </c>
       <c r="AL36"/>
       <c r="AM36"/>
+      <c r="AN36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -6458,12 +6626,15 @@
         <v>11026</v>
       </c>
       <c r="AM37"/>
+      <c r="AN37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38"/>
+      <c r="B38" t="n">
+        <v>11519</v>
+      </c>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -6529,6 +6700,7 @@
       <c r="AM38" t="n">
         <v>11746</v>
       </c>
+      <c r="AN38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -6597,6 +6769,9 @@
       </c>
       <c r="AM39" t="n">
         <v>12396</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>12093</v>
       </c>
     </row>
     <row r="40">
@@ -6664,6 +6839,9 @@
       </c>
       <c r="AM40" t="n">
         <v>12952</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>12583</v>
       </c>
     </row>
     <row r="41">
@@ -6729,6 +6907,9 @@
       </c>
       <c r="AM41" t="n">
         <v>13494</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>13067</v>
       </c>
     </row>
     <row r="42">
@@ -6792,6 +6973,9 @@
       </c>
       <c r="AM42" t="n">
         <v>13968</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>13541</v>
       </c>
     </row>
     <row r="43">
@@ -6853,6 +7037,9 @@
       </c>
       <c r="AM43" t="n">
         <v>14485</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>14007</v>
       </c>
     </row>
     <row r="44">
@@ -6912,6 +7099,9 @@
       </c>
       <c r="AM44" t="n">
         <v>14960</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>14430</v>
       </c>
     </row>
     <row r="45">
@@ -6969,6 +7159,9 @@
       </c>
       <c r="AM45" t="n">
         <v>15434</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>14837</v>
       </c>
     </row>
     <row r="46">
@@ -7024,6 +7217,9 @@
       </c>
       <c r="AM46" t="n">
         <v>15864</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>15259</v>
       </c>
     </row>
     <row r="47">
@@ -7077,6 +7273,9 @@
       </c>
       <c r="AM47" t="n">
         <v>16337</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>15610</v>
       </c>
     </row>
     <row r="48">
@@ -7128,6 +7327,9 @@
       </c>
       <c r="AM48" t="n">
         <v>16737</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>15934</v>
       </c>
     </row>
     <row r="49">
@@ -7177,6 +7379,9 @@
       </c>
       <c r="AM49" t="n">
         <v>17128</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>16254</v>
       </c>
     </row>
     <row r="50">
@@ -7224,6 +7429,9 @@
       </c>
       <c r="AM50" t="n">
         <v>17494</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>16541</v>
       </c>
     </row>
     <row r="51">
@@ -7270,6 +7478,55 @@
       <c r="AM51" t="n">
         <v>17864</v>
       </c>
+      <c r="AN51" t="n">
+        <v>16848</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52" t="n">
+        <v>17148</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-26</t>
   </si>
 </sst>
 </file>
@@ -627,6 +630,9 @@
       <c r="AN1" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -675,6 +681,7 @@
       <c r="AL2"/>
       <c r="AM2"/>
       <c r="AN2"/>
+      <c r="AO2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -725,6 +732,7 @@
       <c r="AL3"/>
       <c r="AM3"/>
       <c r="AN3"/>
+      <c r="AO3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -777,6 +785,7 @@
       <c r="AL4"/>
       <c r="AM4"/>
       <c r="AN4"/>
+      <c r="AO4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -831,6 +840,7 @@
       <c r="AL5"/>
       <c r="AM5"/>
       <c r="AN5"/>
+      <c r="AO5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -887,6 +897,7 @@
       <c r="AL6"/>
       <c r="AM6"/>
       <c r="AN6"/>
+      <c r="AO6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -945,6 +956,7 @@
       <c r="AL7"/>
       <c r="AM7"/>
       <c r="AN7"/>
+      <c r="AO7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1005,6 +1017,7 @@
       <c r="AL8"/>
       <c r="AM8"/>
       <c r="AN8"/>
+      <c r="AO8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1067,6 +1080,7 @@
       <c r="AL9"/>
       <c r="AM9"/>
       <c r="AN9"/>
+      <c r="AO9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1131,6 +1145,7 @@
       <c r="AL10"/>
       <c r="AM10"/>
       <c r="AN10"/>
+      <c r="AO10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1197,6 +1212,7 @@
       <c r="AL11"/>
       <c r="AM11"/>
       <c r="AN11"/>
+      <c r="AO11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1265,6 +1281,7 @@
       <c r="AL12"/>
       <c r="AM12"/>
       <c r="AN12"/>
+      <c r="AO12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1335,6 +1352,7 @@
       <c r="AL13"/>
       <c r="AM13"/>
       <c r="AN13"/>
+      <c r="AO13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1407,6 +1425,7 @@
       <c r="AL14"/>
       <c r="AM14"/>
       <c r="AN14"/>
+      <c r="AO14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1481,6 +1500,7 @@
       <c r="AL15"/>
       <c r="AM15"/>
       <c r="AN15"/>
+      <c r="AO15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1555,6 +1575,7 @@
       <c r="AL16"/>
       <c r="AM16"/>
       <c r="AN16"/>
+      <c r="AO16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1629,6 +1650,7 @@
       <c r="AL17"/>
       <c r="AM17"/>
       <c r="AN17"/>
+      <c r="AO17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1703,6 +1725,7 @@
       <c r="AL18"/>
       <c r="AM18"/>
       <c r="AN18"/>
+      <c r="AO18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1777,6 +1800,7 @@
       <c r="AL19"/>
       <c r="AM19"/>
       <c r="AN19"/>
+      <c r="AO19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1851,6 +1875,7 @@
       <c r="AL20"/>
       <c r="AM20"/>
       <c r="AN20"/>
+      <c r="AO20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1925,6 +1950,7 @@
       <c r="AL21"/>
       <c r="AM21"/>
       <c r="AN21"/>
+      <c r="AO21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1999,6 +2025,7 @@
       <c r="AL22"/>
       <c r="AM22"/>
       <c r="AN22"/>
+      <c r="AO22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2073,6 +2100,7 @@
       <c r="AL23"/>
       <c r="AM23"/>
       <c r="AN23"/>
+      <c r="AO23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2147,6 +2175,7 @@
       <c r="AL24"/>
       <c r="AM24"/>
       <c r="AN24"/>
+      <c r="AO24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2221,6 +2250,7 @@
       <c r="AL25"/>
       <c r="AM25"/>
       <c r="AN25"/>
+      <c r="AO25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2295,6 +2325,7 @@
       <c r="AL26"/>
       <c r="AM26"/>
       <c r="AN26"/>
+      <c r="AO26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2369,6 +2400,7 @@
       <c r="AL27"/>
       <c r="AM27"/>
       <c r="AN27"/>
+      <c r="AO27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2443,6 +2475,7 @@
       <c r="AL28"/>
       <c r="AM28"/>
       <c r="AN28"/>
+      <c r="AO28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2517,6 +2550,7 @@
       <c r="AL29"/>
       <c r="AM29"/>
       <c r="AN29"/>
+      <c r="AO29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2591,6 +2625,7 @@
       <c r="AL30"/>
       <c r="AM30"/>
       <c r="AN30"/>
+      <c r="AO30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2665,6 +2700,7 @@
       <c r="AL31"/>
       <c r="AM31"/>
       <c r="AN31"/>
+      <c r="AO31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2739,6 +2775,7 @@
       <c r="AL32"/>
       <c r="AM32"/>
       <c r="AN32"/>
+      <c r="AO32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2813,6 +2850,7 @@
       <c r="AL33"/>
       <c r="AM33"/>
       <c r="AN33"/>
+      <c r="AO33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2887,6 +2925,7 @@
       <c r="AL34"/>
       <c r="AM34"/>
       <c r="AN34"/>
+      <c r="AO34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -2961,6 +3000,7 @@
       <c r="AL35"/>
       <c r="AM35"/>
       <c r="AN35"/>
+      <c r="AO35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -3035,6 +3075,7 @@
       <c r="AL36"/>
       <c r="AM36"/>
       <c r="AN36"/>
+      <c r="AO36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3109,6 +3150,7 @@
       </c>
       <c r="AM37"/>
       <c r="AN37"/>
+      <c r="AO37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -3183,12 +3225,15 @@
         <v>172358</v>
       </c>
       <c r="AN38"/>
+      <c r="AO38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39"/>
+      <c r="B39" t="n">
+        <v>177589</v>
+      </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -3255,6 +3300,7 @@
       <c r="AN39" t="n">
         <v>176061</v>
       </c>
+      <c r="AO39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -3324,6 +3370,9 @@
       </c>
       <c r="AN40" t="n">
         <v>183027</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>185403</v>
       </c>
     </row>
     <row r="41">
@@ -3392,6 +3441,9 @@
       </c>
       <c r="AN41" t="n">
         <v>189675</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>192836</v>
       </c>
     </row>
     <row r="42">
@@ -3458,6 +3510,9 @@
       </c>
       <c r="AN42" t="n">
         <v>196845</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>200288</v>
       </c>
     </row>
     <row r="43">
@@ -3522,6 +3577,9 @@
       </c>
       <c r="AN43" t="n">
         <v>203680</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>207462</v>
       </c>
     </row>
     <row r="44">
@@ -3584,6 +3642,9 @@
       </c>
       <c r="AN44" t="n">
         <v>210425</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>214755</v>
       </c>
     </row>
     <row r="45">
@@ -3644,6 +3705,9 @@
       </c>
       <c r="AN45" t="n">
         <v>216819</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>222123</v>
       </c>
     </row>
     <row r="46">
@@ -3702,6 +3766,9 @@
       </c>
       <c r="AN46" t="n">
         <v>223163</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>228900</v>
       </c>
     </row>
     <row r="47">
@@ -3758,6 +3825,9 @@
       </c>
       <c r="AN47" t="n">
         <v>229213</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>237063</v>
       </c>
     </row>
     <row r="48">
@@ -3812,6 +3882,9 @@
       </c>
       <c r="AN48" t="n">
         <v>234135</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>243739</v>
       </c>
     </row>
     <row r="49">
@@ -3864,6 +3937,9 @@
       </c>
       <c r="AN49" t="n">
         <v>238780</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>250125</v>
       </c>
     </row>
     <row r="50">
@@ -3914,6 +3990,9 @@
       </c>
       <c r="AN50" t="n">
         <v>243015</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>255917</v>
       </c>
     </row>
     <row r="51">
@@ -3962,6 +4041,9 @@
       </c>
       <c r="AN51" t="n">
         <v>247221</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>261615</v>
       </c>
     </row>
     <row r="52">
@@ -4009,6 +4091,56 @@
       <c r="AN52" t="n">
         <v>250867</v>
       </c>
+      <c r="AO52" t="n">
+        <v>266301</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53"/>
+      <c r="AO53" t="n">
+        <v>271985</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4144,6 +4276,9 @@
       </c>
       <c r="AN1" t="s">
         <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -4193,6 +4328,7 @@
       <c r="AL2"/>
       <c r="AM2"/>
       <c r="AN2"/>
+      <c r="AO2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -4243,6 +4379,7 @@
       <c r="AL3"/>
       <c r="AM3"/>
       <c r="AN3"/>
+      <c r="AO3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4295,6 +4432,7 @@
       <c r="AL4"/>
       <c r="AM4"/>
       <c r="AN4"/>
+      <c r="AO4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4349,6 +4487,7 @@
       <c r="AL5"/>
       <c r="AM5"/>
       <c r="AN5"/>
+      <c r="AO5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4405,6 +4544,7 @@
       <c r="AL6"/>
       <c r="AM6"/>
       <c r="AN6"/>
+      <c r="AO6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4463,6 +4603,7 @@
       <c r="AL7"/>
       <c r="AM7"/>
       <c r="AN7"/>
+      <c r="AO7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4523,6 +4664,7 @@
       <c r="AL8"/>
       <c r="AM8"/>
       <c r="AN8"/>
+      <c r="AO8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -4585,6 +4727,7 @@
       <c r="AL9"/>
       <c r="AM9"/>
       <c r="AN9"/>
+      <c r="AO9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -4649,6 +4792,7 @@
       <c r="AL10"/>
       <c r="AM10"/>
       <c r="AN10"/>
+      <c r="AO10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4715,6 +4859,7 @@
       <c r="AL11"/>
       <c r="AM11"/>
       <c r="AN11"/>
+      <c r="AO11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -4783,6 +4928,7 @@
       <c r="AL12"/>
       <c r="AM12"/>
       <c r="AN12"/>
+      <c r="AO12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -4853,6 +4999,7 @@
       <c r="AL13"/>
       <c r="AM13"/>
       <c r="AN13"/>
+      <c r="AO13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -4925,6 +5072,7 @@
       <c r="AL14"/>
       <c r="AM14"/>
       <c r="AN14"/>
+      <c r="AO14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -4999,6 +5147,7 @@
       <c r="AL15"/>
       <c r="AM15"/>
       <c r="AN15"/>
+      <c r="AO15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -5073,6 +5222,7 @@
       <c r="AL16"/>
       <c r="AM16"/>
       <c r="AN16"/>
+      <c r="AO16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -5147,6 +5297,7 @@
       <c r="AL17"/>
       <c r="AM17"/>
       <c r="AN17"/>
+      <c r="AO17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -5221,6 +5372,7 @@
       <c r="AL18"/>
       <c r="AM18"/>
       <c r="AN18"/>
+      <c r="AO18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -5295,6 +5447,7 @@
       <c r="AL19"/>
       <c r="AM19"/>
       <c r="AN19"/>
+      <c r="AO19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -5369,6 +5522,7 @@
       <c r="AL20"/>
       <c r="AM20"/>
       <c r="AN20"/>
+      <c r="AO20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -5443,6 +5597,7 @@
       <c r="AL21"/>
       <c r="AM21"/>
       <c r="AN21"/>
+      <c r="AO21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -5517,6 +5672,7 @@
       <c r="AL22"/>
       <c r="AM22"/>
       <c r="AN22"/>
+      <c r="AO22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -5591,6 +5747,7 @@
       <c r="AL23"/>
       <c r="AM23"/>
       <c r="AN23"/>
+      <c r="AO23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -5665,6 +5822,7 @@
       <c r="AL24"/>
       <c r="AM24"/>
       <c r="AN24"/>
+      <c r="AO24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -5739,6 +5897,7 @@
       <c r="AL25"/>
       <c r="AM25"/>
       <c r="AN25"/>
+      <c r="AO25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -5813,6 +5972,7 @@
       <c r="AL26"/>
       <c r="AM26"/>
       <c r="AN26"/>
+      <c r="AO26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -5887,6 +6047,7 @@
       <c r="AL27"/>
       <c r="AM27"/>
       <c r="AN27"/>
+      <c r="AO27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -5961,6 +6122,7 @@
       <c r="AL28"/>
       <c r="AM28"/>
       <c r="AN28"/>
+      <c r="AO28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -6035,6 +6197,7 @@
       <c r="AL29"/>
       <c r="AM29"/>
       <c r="AN29"/>
+      <c r="AO29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -6109,6 +6272,7 @@
       <c r="AL30"/>
       <c r="AM30"/>
       <c r="AN30"/>
+      <c r="AO30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -6183,6 +6347,7 @@
       <c r="AL31"/>
       <c r="AM31"/>
       <c r="AN31"/>
+      <c r="AO31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -6257,6 +6422,7 @@
       <c r="AL32"/>
       <c r="AM32"/>
       <c r="AN32"/>
+      <c r="AO32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -6331,6 +6497,7 @@
       <c r="AL33"/>
       <c r="AM33"/>
       <c r="AN33"/>
+      <c r="AO33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -6405,6 +6572,7 @@
       <c r="AL34"/>
       <c r="AM34"/>
       <c r="AN34"/>
+      <c r="AO34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -6479,6 +6647,7 @@
       <c r="AL35"/>
       <c r="AM35"/>
       <c r="AN35"/>
+      <c r="AO35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -6553,6 +6722,7 @@
       <c r="AL36"/>
       <c r="AM36"/>
       <c r="AN36"/>
+      <c r="AO36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -6627,6 +6797,7 @@
       </c>
       <c r="AM37"/>
       <c r="AN37"/>
+      <c r="AO37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -6701,12 +6872,15 @@
         <v>11746</v>
       </c>
       <c r="AN38"/>
+      <c r="AO38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39"/>
+      <c r="B39" t="n">
+        <v>12400</v>
+      </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -6773,6 +6947,7 @@
       <c r="AN39" t="n">
         <v>12093</v>
       </c>
+      <c r="AO39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -6842,6 +7017,9 @@
       </c>
       <c r="AN40" t="n">
         <v>12583</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>12869</v>
       </c>
     </row>
     <row r="41">
@@ -6910,6 +7088,9 @@
       </c>
       <c r="AN41" t="n">
         <v>13067</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>13413</v>
       </c>
     </row>
     <row r="42">
@@ -6976,6 +7157,9 @@
       </c>
       <c r="AN42" t="n">
         <v>13541</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>13951</v>
       </c>
     </row>
     <row r="43">
@@ -7040,6 +7224,9 @@
       </c>
       <c r="AN43" t="n">
         <v>14007</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>14476</v>
       </c>
     </row>
     <row r="44">
@@ -7102,6 +7289,9 @@
       </c>
       <c r="AN44" t="n">
         <v>14430</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>14969</v>
       </c>
     </row>
     <row r="45">
@@ -7162,6 +7352,9 @@
       </c>
       <c r="AN45" t="n">
         <v>14837</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>15446</v>
       </c>
     </row>
     <row r="46">
@@ -7220,6 +7413,9 @@
       </c>
       <c r="AN46" t="n">
         <v>15259</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>15923</v>
       </c>
     </row>
     <row r="47">
@@ -7276,6 +7472,9 @@
       </c>
       <c r="AN47" t="n">
         <v>15610</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>16370</v>
       </c>
     </row>
     <row r="48">
@@ -7330,6 +7529,9 @@
       </c>
       <c r="AN48" t="n">
         <v>15934</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>16752</v>
       </c>
     </row>
     <row r="49">
@@ -7382,6 +7584,9 @@
       </c>
       <c r="AN49" t="n">
         <v>16254</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>17124</v>
       </c>
     </row>
     <row r="50">
@@ -7432,6 +7637,9 @@
       </c>
       <c r="AN50" t="n">
         <v>16541</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>17454</v>
       </c>
     </row>
     <row r="51">
@@ -7480,6 +7688,9 @@
       </c>
       <c r="AN51" t="n">
         <v>16848</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>17801</v>
       </c>
     </row>
     <row r="52">
@@ -7527,6 +7738,56 @@
       <c r="AN52" t="n">
         <v>17148</v>
       </c>
+      <c r="AO52" t="n">
+        <v>18121</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53"/>
+      <c r="AO53" t="n">
+        <v>18482</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-27</t>
   </si>
 </sst>
 </file>
@@ -633,6 +636,9 @@
       <c r="AO1" t="s">
         <v>40</v>
       </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -682,6 +688,7 @@
       <c r="AM2"/>
       <c r="AN2"/>
       <c r="AO2"/>
+      <c r="AP2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -733,6 +740,7 @@
       <c r="AM3"/>
       <c r="AN3"/>
       <c r="AO3"/>
+      <c r="AP3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -786,6 +794,7 @@
       <c r="AM4"/>
       <c r="AN4"/>
       <c r="AO4"/>
+      <c r="AP4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -841,6 +850,7 @@
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5"/>
+      <c r="AP5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -898,6 +908,7 @@
       <c r="AM6"/>
       <c r="AN6"/>
       <c r="AO6"/>
+      <c r="AP6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -957,6 +968,7 @@
       <c r="AM7"/>
       <c r="AN7"/>
       <c r="AO7"/>
+      <c r="AP7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1018,6 +1030,7 @@
       <c r="AM8"/>
       <c r="AN8"/>
       <c r="AO8"/>
+      <c r="AP8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1081,6 +1094,7 @@
       <c r="AM9"/>
       <c r="AN9"/>
       <c r="AO9"/>
+      <c r="AP9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1146,6 +1160,7 @@
       <c r="AM10"/>
       <c r="AN10"/>
       <c r="AO10"/>
+      <c r="AP10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1213,6 +1228,7 @@
       <c r="AM11"/>
       <c r="AN11"/>
       <c r="AO11"/>
+      <c r="AP11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1282,6 +1298,7 @@
       <c r="AM12"/>
       <c r="AN12"/>
       <c r="AO12"/>
+      <c r="AP12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1353,6 +1370,7 @@
       <c r="AM13"/>
       <c r="AN13"/>
       <c r="AO13"/>
+      <c r="AP13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1426,6 +1444,7 @@
       <c r="AM14"/>
       <c r="AN14"/>
       <c r="AO14"/>
+      <c r="AP14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1501,6 +1520,7 @@
       <c r="AM15"/>
       <c r="AN15"/>
       <c r="AO15"/>
+      <c r="AP15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1576,6 +1596,7 @@
       <c r="AM16"/>
       <c r="AN16"/>
       <c r="AO16"/>
+      <c r="AP16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1651,6 +1672,7 @@
       <c r="AM17"/>
       <c r="AN17"/>
       <c r="AO17"/>
+      <c r="AP17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1726,6 +1748,7 @@
       <c r="AM18"/>
       <c r="AN18"/>
       <c r="AO18"/>
+      <c r="AP18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1801,6 +1824,7 @@
       <c r="AM19"/>
       <c r="AN19"/>
       <c r="AO19"/>
+      <c r="AP19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1876,6 +1900,7 @@
       <c r="AM20"/>
       <c r="AN20"/>
       <c r="AO20"/>
+      <c r="AP20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1951,6 +1976,7 @@
       <c r="AM21"/>
       <c r="AN21"/>
       <c r="AO21"/>
+      <c r="AP21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2026,6 +2052,7 @@
       <c r="AM22"/>
       <c r="AN22"/>
       <c r="AO22"/>
+      <c r="AP22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2101,6 +2128,7 @@
       <c r="AM23"/>
       <c r="AN23"/>
       <c r="AO23"/>
+      <c r="AP23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2176,6 +2204,7 @@
       <c r="AM24"/>
       <c r="AN24"/>
       <c r="AO24"/>
+      <c r="AP24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2251,6 +2280,7 @@
       <c r="AM25"/>
       <c r="AN25"/>
       <c r="AO25"/>
+      <c r="AP25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2326,6 +2356,7 @@
       <c r="AM26"/>
       <c r="AN26"/>
       <c r="AO26"/>
+      <c r="AP26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2401,6 +2432,7 @@
       <c r="AM27"/>
       <c r="AN27"/>
       <c r="AO27"/>
+      <c r="AP27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2476,6 +2508,7 @@
       <c r="AM28"/>
       <c r="AN28"/>
       <c r="AO28"/>
+      <c r="AP28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2551,6 +2584,7 @@
       <c r="AM29"/>
       <c r="AN29"/>
       <c r="AO29"/>
+      <c r="AP29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2626,6 +2660,7 @@
       <c r="AM30"/>
       <c r="AN30"/>
       <c r="AO30"/>
+      <c r="AP30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2701,6 +2736,7 @@
       <c r="AM31"/>
       <c r="AN31"/>
       <c r="AO31"/>
+      <c r="AP31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2776,6 +2812,7 @@
       <c r="AM32"/>
       <c r="AN32"/>
       <c r="AO32"/>
+      <c r="AP32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2851,6 +2888,7 @@
       <c r="AM33"/>
       <c r="AN33"/>
       <c r="AO33"/>
+      <c r="AP33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2926,6 +2964,7 @@
       <c r="AM34"/>
       <c r="AN34"/>
       <c r="AO34"/>
+      <c r="AP34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -3001,6 +3040,7 @@
       <c r="AM35"/>
       <c r="AN35"/>
       <c r="AO35"/>
+      <c r="AP35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -3076,6 +3116,7 @@
       <c r="AM36"/>
       <c r="AN36"/>
       <c r="AO36"/>
+      <c r="AP36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3151,6 +3192,7 @@
       <c r="AM37"/>
       <c r="AN37"/>
       <c r="AO37"/>
+      <c r="AP37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -3226,6 +3268,7 @@
       </c>
       <c r="AN38"/>
       <c r="AO38"/>
+      <c r="AP38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -3301,12 +3344,15 @@
         <v>176061</v>
       </c>
       <c r="AO39"/>
+      <c r="AP39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40"/>
+      <c r="B40" t="n">
+        <v>188974</v>
+      </c>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -3374,6 +3420,7 @@
       <c r="AO40" t="n">
         <v>185403</v>
       </c>
+      <c r="AP40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -3444,6 +3491,9 @@
       </c>
       <c r="AO41" t="n">
         <v>192836</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>198789</v>
       </c>
     </row>
     <row r="42">
@@ -3513,6 +3563,9 @@
       </c>
       <c r="AO42" t="n">
         <v>200288</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>208422</v>
       </c>
     </row>
     <row r="43">
@@ -3580,6 +3633,9 @@
       </c>
       <c r="AO43" t="n">
         <v>207462</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>218062</v>
       </c>
     </row>
     <row r="44">
@@ -3645,6 +3701,9 @@
       </c>
       <c r="AO44" t="n">
         <v>214755</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>228065</v>
       </c>
     </row>
     <row r="45">
@@ -3708,6 +3767,9 @@
       </c>
       <c r="AO45" t="n">
         <v>222123</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>238548</v>
       </c>
     </row>
     <row r="46">
@@ -3769,6 +3831,9 @@
       </c>
       <c r="AO46" t="n">
         <v>228900</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>248500</v>
       </c>
     </row>
     <row r="47">
@@ -3828,6 +3893,9 @@
       </c>
       <c r="AO47" t="n">
         <v>237063</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>260606</v>
       </c>
     </row>
     <row r="48">
@@ -3885,6 +3953,9 @@
       </c>
       <c r="AO48" t="n">
         <v>243739</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>271647</v>
       </c>
     </row>
     <row r="49">
@@ -3940,6 +4011,9 @@
       </c>
       <c r="AO49" t="n">
         <v>250125</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>282694</v>
       </c>
     </row>
     <row r="50">
@@ -3993,6 +4067,9 @@
       </c>
       <c r="AO50" t="n">
         <v>255917</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>293375</v>
       </c>
     </row>
     <row r="51">
@@ -4044,6 +4121,9 @@
       </c>
       <c r="AO51" t="n">
         <v>261615</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>304129</v>
       </c>
     </row>
     <row r="52">
@@ -4093,6 +4173,9 @@
       </c>
       <c r="AO52" t="n">
         <v>266301</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>313956</v>
       </c>
     </row>
     <row r="53">
@@ -4141,6 +4224,57 @@
       <c r="AO53" t="n">
         <v>271985</v>
       </c>
+      <c r="AP53" t="n">
+        <v>325005</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54" t="n">
+        <v>335718</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4279,6 +4413,9 @@
       </c>
       <c r="AO1" t="s">
         <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -4329,6 +4466,7 @@
       <c r="AM2"/>
       <c r="AN2"/>
       <c r="AO2"/>
+      <c r="AP2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -4380,6 +4518,7 @@
       <c r="AM3"/>
       <c r="AN3"/>
       <c r="AO3"/>
+      <c r="AP3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4433,6 +4572,7 @@
       <c r="AM4"/>
       <c r="AN4"/>
       <c r="AO4"/>
+      <c r="AP4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4488,6 +4628,7 @@
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5"/>
+      <c r="AP5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4545,6 +4686,7 @@
       <c r="AM6"/>
       <c r="AN6"/>
       <c r="AO6"/>
+      <c r="AP6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4604,6 +4746,7 @@
       <c r="AM7"/>
       <c r="AN7"/>
       <c r="AO7"/>
+      <c r="AP7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4665,6 +4808,7 @@
       <c r="AM8"/>
       <c r="AN8"/>
       <c r="AO8"/>
+      <c r="AP8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -4728,6 +4872,7 @@
       <c r="AM9"/>
       <c r="AN9"/>
       <c r="AO9"/>
+      <c r="AP9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -4793,6 +4938,7 @@
       <c r="AM10"/>
       <c r="AN10"/>
       <c r="AO10"/>
+      <c r="AP10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4860,6 +5006,7 @@
       <c r="AM11"/>
       <c r="AN11"/>
       <c r="AO11"/>
+      <c r="AP11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -4929,6 +5076,7 @@
       <c r="AM12"/>
       <c r="AN12"/>
       <c r="AO12"/>
+      <c r="AP12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -5000,6 +5148,7 @@
       <c r="AM13"/>
       <c r="AN13"/>
       <c r="AO13"/>
+      <c r="AP13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -5073,6 +5222,7 @@
       <c r="AM14"/>
       <c r="AN14"/>
       <c r="AO14"/>
+      <c r="AP14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -5148,6 +5298,7 @@
       <c r="AM15"/>
       <c r="AN15"/>
       <c r="AO15"/>
+      <c r="AP15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -5223,6 +5374,7 @@
       <c r="AM16"/>
       <c r="AN16"/>
       <c r="AO16"/>
+      <c r="AP16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -5298,6 +5450,7 @@
       <c r="AM17"/>
       <c r="AN17"/>
       <c r="AO17"/>
+      <c r="AP17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -5373,6 +5526,7 @@
       <c r="AM18"/>
       <c r="AN18"/>
       <c r="AO18"/>
+      <c r="AP18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -5448,6 +5602,7 @@
       <c r="AM19"/>
       <c r="AN19"/>
       <c r="AO19"/>
+      <c r="AP19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -5523,6 +5678,7 @@
       <c r="AM20"/>
       <c r="AN20"/>
       <c r="AO20"/>
+      <c r="AP20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -5598,6 +5754,7 @@
       <c r="AM21"/>
       <c r="AN21"/>
       <c r="AO21"/>
+      <c r="AP21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -5673,6 +5830,7 @@
       <c r="AM22"/>
       <c r="AN22"/>
       <c r="AO22"/>
+      <c r="AP22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -5748,6 +5906,7 @@
       <c r="AM23"/>
       <c r="AN23"/>
       <c r="AO23"/>
+      <c r="AP23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -5823,6 +5982,7 @@
       <c r="AM24"/>
       <c r="AN24"/>
       <c r="AO24"/>
+      <c r="AP24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -5898,6 +6058,7 @@
       <c r="AM25"/>
       <c r="AN25"/>
       <c r="AO25"/>
+      <c r="AP25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -5973,6 +6134,7 @@
       <c r="AM26"/>
       <c r="AN26"/>
       <c r="AO26"/>
+      <c r="AP26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -6048,6 +6210,7 @@
       <c r="AM27"/>
       <c r="AN27"/>
       <c r="AO27"/>
+      <c r="AP27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -6123,6 +6286,7 @@
       <c r="AM28"/>
       <c r="AN28"/>
       <c r="AO28"/>
+      <c r="AP28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -6198,6 +6362,7 @@
       <c r="AM29"/>
       <c r="AN29"/>
       <c r="AO29"/>
+      <c r="AP29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -6273,6 +6438,7 @@
       <c r="AM30"/>
       <c r="AN30"/>
       <c r="AO30"/>
+      <c r="AP30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -6348,6 +6514,7 @@
       <c r="AM31"/>
       <c r="AN31"/>
       <c r="AO31"/>
+      <c r="AP31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -6423,6 +6590,7 @@
       <c r="AM32"/>
       <c r="AN32"/>
       <c r="AO32"/>
+      <c r="AP32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -6498,6 +6666,7 @@
       <c r="AM33"/>
       <c r="AN33"/>
       <c r="AO33"/>
+      <c r="AP33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -6573,6 +6742,7 @@
       <c r="AM34"/>
       <c r="AN34"/>
       <c r="AO34"/>
+      <c r="AP34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -6648,6 +6818,7 @@
       <c r="AM35"/>
       <c r="AN35"/>
       <c r="AO35"/>
+      <c r="AP35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -6723,6 +6894,7 @@
       <c r="AM36"/>
       <c r="AN36"/>
       <c r="AO36"/>
+      <c r="AP36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -6798,6 +6970,7 @@
       <c r="AM37"/>
       <c r="AN37"/>
       <c r="AO37"/>
+      <c r="AP37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -6873,6 +7046,7 @@
       </c>
       <c r="AN38"/>
       <c r="AO38"/>
+      <c r="AP38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -6948,12 +7122,15 @@
         <v>12093</v>
       </c>
       <c r="AO39"/>
+      <c r="AP39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40"/>
+      <c r="B40" t="n">
+        <v>13149</v>
+      </c>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -7021,6 +7198,7 @@
       <c r="AO40" t="n">
         <v>12869</v>
       </c>
+      <c r="AP40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -7091,6 +7269,9 @@
       </c>
       <c r="AO41" t="n">
         <v>13413</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>13939</v>
       </c>
     </row>
     <row r="42">
@@ -7160,6 +7341,9 @@
       </c>
       <c r="AO42" t="n">
         <v>13951</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>14668</v>
       </c>
     </row>
     <row r="43">
@@ -7227,6 +7411,9 @@
       </c>
       <c r="AO43" t="n">
         <v>14476</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>15406</v>
       </c>
     </row>
     <row r="44">
@@ -7292,6 +7479,9 @@
       </c>
       <c r="AO44" t="n">
         <v>14969</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>16140</v>
       </c>
     </row>
     <row r="45">
@@ -7355,6 +7545,9 @@
       </c>
       <c r="AO45" t="n">
         <v>15446</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>16886</v>
       </c>
     </row>
     <row r="46">
@@ -7416,6 +7609,9 @@
       </c>
       <c r="AO46" t="n">
         <v>15923</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>17609</v>
       </c>
     </row>
     <row r="47">
@@ -7475,6 +7671,9 @@
       </c>
       <c r="AO47" t="n">
         <v>16370</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>18383</v>
       </c>
     </row>
     <row r="48">
@@ -7532,6 +7731,9 @@
       </c>
       <c r="AO48" t="n">
         <v>16752</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>19084</v>
       </c>
     </row>
     <row r="49">
@@ -7587,6 +7789,9 @@
       </c>
       <c r="AO49" t="n">
         <v>17124</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>19766</v>
       </c>
     </row>
     <row r="50">
@@ -7640,6 +7845,9 @@
       </c>
       <c r="AO50" t="n">
         <v>17454</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>20408</v>
       </c>
     </row>
     <row r="51">
@@ -7691,6 +7899,9 @@
       </c>
       <c r="AO51" t="n">
         <v>17801</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>21037</v>
       </c>
     </row>
     <row r="52">
@@ -7740,6 +7951,9 @@
       </c>
       <c r="AO52" t="n">
         <v>18121</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>21620</v>
       </c>
     </row>
     <row r="53">
@@ -7788,6 +8002,57 @@
       <c r="AO53" t="n">
         <v>18482</v>
       </c>
+      <c r="AP53" t="n">
+        <v>22244</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54" t="n">
+        <v>22841</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forecasts_table.xlsx
+++ b/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-28</t>
   </si>
 </sst>
 </file>
@@ -639,6 +642,9 @@
       <c r="AP1" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -689,6 +695,7 @@
       <c r="AN2"/>
       <c r="AO2"/>
       <c r="AP2"/>
+      <c r="AQ2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -741,6 +748,7 @@
       <c r="AN3"/>
       <c r="AO3"/>
       <c r="AP3"/>
+      <c r="AQ3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -795,6 +803,7 @@
       <c r="AN4"/>
       <c r="AO4"/>
       <c r="AP4"/>
+      <c r="AQ4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -851,6 +860,7 @@
       <c r="AN5"/>
       <c r="AO5"/>
       <c r="AP5"/>
+      <c r="AQ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -909,6 +919,7 @@
       <c r="AN6"/>
       <c r="AO6"/>
       <c r="AP6"/>
+      <c r="AQ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -969,6 +980,7 @@
       <c r="AN7"/>
       <c r="AO7"/>
       <c r="AP7"/>
+      <c r="AQ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1031,6 +1043,7 @@
       <c r="AN8"/>
       <c r="AO8"/>
       <c r="AP8"/>
+      <c r="AQ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1095,6 +1108,7 @@
       <c r="AN9"/>
       <c r="AO9"/>
       <c r="AP9"/>
+      <c r="AQ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1161,6 +1175,7 @@
       <c r="AN10"/>
       <c r="AO10"/>
       <c r="AP10"/>
+      <c r="AQ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1229,6 +1244,7 @@
       <c r="AN11"/>
       <c r="AO11"/>
       <c r="AP11"/>
+      <c r="AQ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1299,6 +1315,7 @@
       <c r="AN12"/>
       <c r="AO12"/>
       <c r="AP12"/>
+      <c r="AQ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1371,6 +1388,7 @@
       <c r="AN13"/>
       <c r="AO13"/>
       <c r="AP13"/>
+      <c r="AQ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1445,6 +1463,7 @@
       <c r="AN14"/>
       <c r="AO14"/>
       <c r="AP14"/>
+      <c r="AQ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1521,6 +1540,7 @@
       <c r="AN15"/>
       <c r="AO15"/>
       <c r="AP15"/>
+      <c r="AQ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1597,6 +1617,7 @@
       <c r="AN16"/>
       <c r="AO16"/>
       <c r="AP16"/>
+      <c r="AQ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1673,6 +1694,7 @@
       <c r="AN17"/>
       <c r="AO17"/>
       <c r="AP17"/>
+      <c r="AQ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1749,6 +1771,7 @@
       <c r="AN18"/>
       <c r="AO18"/>
       <c r="AP18"/>
+      <c r="AQ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1825,6 +1848,7 @@
       <c r="AN19"/>
       <c r="AO19"/>
       <c r="AP19"/>
+      <c r="AQ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1901,6 +1925,7 @@
       <c r="AN20"/>
       <c r="AO20"/>
       <c r="AP20"/>
+      <c r="AQ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1977,6 +2002,7 @@
       <c r="AN21"/>
       <c r="AO21"/>
       <c r="AP21"/>
+      <c r="AQ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2053,6 +2079,7 @@
       <c r="AN22"/>
       <c r="AO22"/>
       <c r="AP22"/>
+      <c r="AQ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2129,6 +2156,7 @@
       <c r="AN23"/>
       <c r="AO23"/>
       <c r="AP23"/>
+      <c r="AQ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2205,6 +2233,7 @@
       <c r="AN24"/>
       <c r="AO24"/>
       <c r="AP24"/>
+      <c r="AQ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2281,6 +2310,7 @@
       <c r="AN25"/>
       <c r="AO25"/>
       <c r="AP25"/>
+      <c r="AQ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2357,6 +2387,7 @@
       <c r="AN26"/>
       <c r="AO26"/>
       <c r="AP26"/>
+      <c r="AQ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2433,6 +2464,7 @@
       <c r="AN27"/>
       <c r="AO27"/>
       <c r="AP27"/>
+      <c r="AQ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2509,6 +2541,7 @@
       <c r="AN28"/>
       <c r="AO28"/>
       <c r="AP28"/>
+      <c r="AQ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2585,6 +2618,7 @@
       <c r="AN29"/>
       <c r="AO29"/>
       <c r="AP29"/>
+      <c r="AQ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2661,6 +2695,7 @@
       <c r="AN30"/>
       <c r="AO30"/>
       <c r="AP30"/>
+      <c r="AQ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2737,6 +2772,7 @@
       <c r="AN31"/>
       <c r="AO31"/>
       <c r="AP31"/>
+      <c r="AQ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2813,6 +2849,7 @@
       <c r="AN32"/>
       <c r="AO32"/>
       <c r="AP32"/>
+      <c r="AQ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2889,6 +2926,7 @@
       <c r="AN33"/>
       <c r="AO33"/>
       <c r="AP33"/>
+      <c r="AQ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2965,6 +3003,7 @@
       <c r="AN34"/>
       <c r="AO34"/>
       <c r="AP34"/>
+      <c r="AQ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -3041,6 +3080,7 @@
       <c r="AN35"/>
       <c r="AO35"/>
       <c r="AP35"/>
+      <c r="AQ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -3117,6 +3157,7 @@
       <c r="AN36"/>
       <c r="AO36"/>
       <c r="AP36"/>
+      <c r="AQ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3193,6 +3234,7 @@
       <c r="AN37"/>
       <c r="AO37"/>
       <c r="AP37"/>
+      <c r="AQ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -3269,6 +3311,7 @@
       <c r="AN38"/>
       <c r="AO38"/>
       <c r="AP38"/>
+      <c r="AQ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -3345,6 +3388,7 @@
       </c>
       <c r="AO39"/>
       <c r="AP39"/>
+      <c r="AQ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -3421,12 +3465,15 @@
         <v>185403</v>
       </c>
       <c r="AP40"/>
+      <c r="AQ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41"/>
+      <c r="B41" t="n">
+        <v>202918</v>
+      </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -3495,6 +3542,7 @@
       <c r="AP41" t="n">
         <v>198789</v>
       </c>
+      <c r="AQ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -3566,6 +3614,9 @@
       </c>
       <c r="AP42" t="n">
         <v>208422</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>214506</v>
       </c>
     </row>
     <row r="43">
@@ -3636,6 +3687,9 @@
       </c>
       <c r="AP43" t="n">
         <v>218062</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>226224</v>
       </c>
     </row>
     <row r="44">
@@ -3704,6 +3758,9 @@
       </c>
       <c r="AP44" t="n">
         <v>228065</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>238369</v>
       </c>
     </row>
     <row r="45">
@@ -3770,6 +3827,9 @@
       </c>
       <c r="AP45" t="n">
         <v>238548</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>251208</v>
       </c>
     </row>
     <row r="46">
@@ -3834,6 +3894,9 @@
       </c>
       <c r="AP46" t="n">
         <v>248500</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>264095</v>
       </c>
     </row>
     <row r="47">
@@ -3896,6 +3959,9 @@
       </c>
       <c r="AP47" t="n">
         <v>260606</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>278538</v>
       </c>
     </row>
     <row r="48">
@@ -3956,6 +4022,9 @@
       </c>
       <c r="AP48" t="n">
         <v>271647</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>292774</v>
       </c>
     </row>
     <row r="49">
@@ -4014,6 +4083,9 @@
       </c>
       <c r="AP49" t="n">
         <v>282694</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>307382</v>
       </c>
     </row>
     <row r="50">
@@ -4070,6 +4142,9 @@
       </c>
       <c r="AP50" t="n">
         <v>293375</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>322059</v>
       </c>
     </row>
     <row r="51">
@@ -4124,6 +4199,9 @@
       </c>
       <c r="AP51" t="n">
         <v>304129</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>337106</v>
       </c>
     </row>
     <row r="52">
@@ -4176,6 +4254,9 @@
       </c>
       <c r="AP52" t="n">
         <v>313956</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>351999</v>
       </c>
     </row>
     <row r="53">
@@ -4226,6 +4307,9 @@
       </c>
       <c r="AP53" t="n">
         <v>325005</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>368032</v>
       </c>
     </row>
     <row r="54">
@@ -4275,6 +4359,58 @@
       <c r="AP54" t="n">
         <v>335718</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>384268</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55"/>
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AP55"/>
+      <c r="AQ55" t="n">
+        <v>401111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4416,6 +4552,9 @@
       </c>
       <c r="AP1" t="s">
         <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -4467,6 +4606,7 @@
       <c r="AN2"/>
       <c r="AO2"/>
       <c r="AP2"/>
+      <c r="AQ2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -4519,6 +4659,7 @@
       <c r="AN3"/>
       <c r="AO3"/>
       <c r="AP3"/>
+      <c r="AQ3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4573,6 +4714,7 @@
       <c r="AN4"/>
       <c r="AO4"/>
       <c r="AP4"/>
+      <c r="AQ4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4629,6 +4771,7 @@
       <c r="AN5"/>
       <c r="AO5"/>
       <c r="AP5"/>
+      <c r="AQ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4687,6 +4830,7 @@
       <c r="AN6"/>
       <c r="AO6"/>
       <c r="AP6"/>
+      <c r="AQ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4747,6 +4891,7 @@
       <c r="AN7"/>
       <c r="AO7"/>
       <c r="AP7"/>
+      <c r="AQ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4809,6 +4954,7 @@
       <c r="AN8"/>
       <c r="AO8"/>
       <c r="AP8"/>
+      <c r="AQ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -4873,6 +5019,7 @@
       <c r="AN9"/>
       <c r="AO9"/>
       <c r="AP9"/>
+      <c r="AQ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -4939,6 +5086,7 @@
       <c r="AN10"/>
       <c r="AO10"/>
       <c r="AP10"/>
+      <c r="AQ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -5007,6 +5155,7 @@
       <c r="AN11"/>
       <c r="AO11"/>
       <c r="AP11"/>
+      <c r="AQ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -5077,6 +5226,7 @@
       <c r="AN12"/>
       <c r="AO12"/>
       <c r="AP12"/>
+      <c r="AQ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -5149,6 +5299,7 @@
       <c r="AN13"/>
       <c r="AO13"/>
       <c r="AP13"/>
+      <c r="AQ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -5223,6 +5374,7 @@
       <c r="AN14"/>
       <c r="AO14"/>
       <c r="AP14"/>
+      <c r="AQ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -5299,6 +5451,7 @@
       <c r="AN15"/>
       <c r="AO15"/>
       <c r="AP15"/>
+      <c r="AQ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -5375,6 +5528,7 @@
       <c r="AN16"/>
       <c r="AO16"/>
       <c r="AP16"/>
+      <c r="AQ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -5451,6 +5605,7 @@
       <c r="AN17"/>
       <c r="AO17"/>
       <c r="AP17"/>
+      <c r="AQ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -5527,6 +5682,7 @@
       <c r="AN18"/>
       <c r="AO18"/>
       <c r="AP18"/>
+      <c r="AQ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -5603,6 +5759,7 @@
       <c r="AN19"/>
       <c r="AO19"/>
       <c r="AP19"/>
+      <c r="AQ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -5679,6 +5836,7 @@
       <c r="AN20"/>
       <c r="AO20"/>
       <c r="AP20"/>
+      <c r="AQ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -5755,6 +5913,7 @@
       <c r="AN21"/>
       <c r="AO21"/>
       <c r="AP21"/>
+      <c r="AQ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -5831,6 +5990,7 @@
       <c r="AN22"/>
       <c r="AO22"/>
       <c r="AP22"/>
+      <c r="AQ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -5907,6 +6067,7 @@
       <c r="AN23"/>
       <c r="AO23"/>
       <c r="AP23"/>
+      <c r="AQ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -5983,6 +6144,7 @@
       <c r="AN24"/>
       <c r="AO24"/>
       <c r="AP24"/>
+      <c r="AQ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -6059,6 +6221,7 @@
       <c r="AN25"/>
       <c r="AO25"/>
       <c r="AP25"/>
+      <c r="AQ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -6135,6 +6298,7 @@
       <c r="AN26"/>
       <c r="AO26"/>
       <c r="AP26"/>
+      <c r="AQ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -6211,6 +6375,7 @@
       <c r="AN27"/>
       <c r="AO27"/>
       <c r="AP27"/>
+      <c r="AQ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -6287,6 +6452,7 @@
       <c r="AN28"/>
       <c r="AO28"/>
       <c r="AP28"/>
+      <c r="AQ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -6363,6 +6529,7 @@
       <c r="AN29"/>
       <c r="AO29"/>
       <c r="AP29"/>
+      <c r="AQ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -6439,6 +6606,7 @@
       <c r="AN30"/>
       <c r="AO30"/>
       <c r="AP30"/>
+      <c r="AQ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -6515,6 +6683,7 @@
       <c r="AN31"/>
       <c r="AO31"/>
       <c r="AP31"/>
+      <c r="AQ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -6591,6 +6760,7 @@
       <c r="AN32"/>
       <c r="AO32"/>
       <c r="AP32"/>
+      <c r="AQ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -6667,6 +6837,7 @@
       <c r="AN33"/>
       <c r="AO33"/>
       <c r="AP33"/>
+      <c r="AQ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -6743,6 +6914,7 @@
       <c r="AN34"/>
       <c r="AO34"/>
       <c r="AP34"/>
+      <c r="AQ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -6819,6 +6991,7 @@
       <c r="AN35"/>
       <c r="AO35"/>
       <c r="AP35"/>
+      <c r="AQ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -6895,6 +7068,7 @@
       <c r="AN36"/>
       <c r="AO36"/>
       <c r="AP36"/>
+      <c r="AQ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -6971,6 +7145,7 @@
       <c r="AN37"/>
       <c r="AO37"/>
       <c r="AP37"/>
+      <c r="AQ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -7047,6 +7222,7 @@
       <c r="AN38"/>
       <c r="AO38"/>
       <c r="AP38"/>
+      <c r="AQ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -7123,6 +7299,7 @@
       </c>
       <c r="AO39"/>
       <c r="AP39"/>
+      <c r="AQ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -7199,12 +7376,15 @@
         <v>12869</v>
       </c>
       <c r="AP40"/>
+      <c r="AQ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41"/>
+      <c r="B41" t="n">
+        <v>13993</v>
+      </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -7273,6 +7453,7 @@
       <c r="AP41" t="n">
         <v>13939</v>
       </c>
+      <c r="AQ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -7344,6 +7525,9 @@
       </c>
       <c r="AP42" t="n">
         <v>14668</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>14947</v>
       </c>
     </row>
     <row r="43">
@@ -7414,6 +7598,9 @@
       </c>
       <c r="AP43" t="n">
         <v>15406</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>15808</v>
       </c>
     </row>
     <row r="44">
@@ -7482,6 +7669,9 @@
       </c>
       <c r="AP44" t="n">
         <v>16140</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>16703</v>
       </c>
     </row>
     <row r="45">
@@ -7548,6 +7738,9 @@
       </c>
       <c r="AP45" t="n">
         <v>16886</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>17652</v>
       </c>
     </row>
     <row r="46">
@@ -7612,6 +7805,9 @@
       </c>
       <c r="AP46" t="n">
         <v>17609</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>18606</v>
       </c>
     </row>
     <row r="47">
@@ -7674,6 +7870,9 @@
       </c>
       <c r="AP47" t="n">
         <v>18383</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>19679</v>
       </c>
     </row>
     <row r="48">
@@ -7734,6 +7933,9 @@
       </c>
       <c r="AP48" t="n">
         <v>19084</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>20740</v>
       </c>
     </row>
     <row r="49">
@@ -7792,6 +7994,9 @@
       </c>
       <c r="AP49" t="n">
         <v>19766</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>21831</v>
       </c>
     </row>
     <row r="50">
@@ -7848,6 +8053,9 @@
       </c>
       <c r="AP50" t="n">
         <v>20408</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>22930</v>
       </c>
     </row>
     <row r="51">
@@ -7902,6 +8110,9 @@
       </c>
       <c r="AP51" t="n">
         <v>21037</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>24059</v>
       </c>
     </row>
     <row r="52">
@@ -7954,6 +8165,9 @@
       </c>
       <c r="AP52" t="n">
         <v>21620</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>25179</v>
       </c>
     </row>
     <row r="53">
@@ -8004,6 +8218,9 @@
       </c>
       <c r="AP53" t="n">
         <v>22244</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>26388</v>
       </c>
     </row>
     <row r="54">
@@ -8053,6 +8270,58 @@
       <c r="AP54" t="n">
         <v>22841</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>27616</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55"/>
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AP55"/>
+      <c r="AQ55" t="n">
+        <v>28892</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
